--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bojidar\git\microweber-12\src\MicroweberPackages\Translation\resources\lang_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE38698-223A-4E2A-93A3-A552196CBEB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F86D40-3573-4FDF-892F-BEC72B237615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9425,8 +9425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1531" workbookViewId="0">
-      <selection activeCell="D1539" sqref="D1539"/>
+    <sheetView tabSelected="1" topLeftCell="A1398" workbookViewId="0">
+      <selection activeCell="C1417" sqref="C1417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bojidar\git\microweber-12\src\MicroweberPackages\Translation\resources\lang_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B34D590-C724-439F-9B22-30D64D6025A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4960ED-5E54-491D-9090-EFB956DE9F5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12981,6 +12981,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="121.140625" customWidth="1"/>
     <col min="4" max="4" width="96.7109375" customWidth="1"/>
   </cols>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bojidar\git\microweber-12\src\MicroweberPackages\Translation\resources\lang_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4960ED-5E54-491D-9090-EFB956DE9F5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429F19E6-38DE-4AB6-98F9-79A30E21F80E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10375" uniqueCount="4198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10376" uniqueCount="4199">
   <si>
     <t>translation_group</t>
   </si>
@@ -12628,6 +12628,9 @@
   </si>
   <si>
     <t>Предупреждение, това е разширено действие и може да повреди вашия сайт.  Уверете се, че сте настроили вашия домейн, за да разрешите към вашия уебсайт. &lt;br&gt; След това можете да въведете вашето име на домейн за доставка на съдържание, например cdn.mydomain.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -12973,10 +12976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2153"/>
+  <dimension ref="A1:E2154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2128" workbookViewId="0">
-      <selection activeCell="D2139" sqref="D2139"/>
+      <selection activeCell="D2154" sqref="D2154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48420,6 +48423,11 @@
         <v>667</v>
       </c>
     </row>
+    <row r="2154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2154" s="2" t="s">
+        <v>4198</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
@@ -5,22 +5,22 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bojidar\git\microweber-12\src\MicroweberPackages\Translation\resources\lang_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\1.2\microweber\src\MicroweberPackages\Translation\resources\lang_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429F19E6-38DE-4AB6-98F9-79A30E21F80E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55F39E6-4AC5-448E-AD8B-9C35A3706BEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6330" yWindow="3930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10376" uniqueCount="4199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10758" uniqueCount="4199">
   <si>
     <t>translation_group</t>
   </si>
@@ -12978,8 +12978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2128" workbookViewId="0">
-      <selection activeCell="D2154" sqref="D2154"/>
+    <sheetView tabSelected="1" topLeftCell="D2150" workbookViewId="0">
+      <selection activeCell="E2153" sqref="E2153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43092,6 +43092,9 @@
       <c r="D1772" s="2" t="s">
         <v>3843</v>
       </c>
+      <c r="E1772" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1773" t="s">
@@ -43106,6 +43109,9 @@
       <c r="D1773" s="2" t="s">
         <v>3844</v>
       </c>
+      <c r="E1773" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1774" t="s">
@@ -43120,6 +43126,9 @@
       <c r="D1774" s="2" t="s">
         <v>3845</v>
       </c>
+      <c r="E1774" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1775" t="s">
@@ -43134,6 +43143,9 @@
       <c r="D1775" s="2" t="s">
         <v>3846</v>
       </c>
+      <c r="E1775" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1776" t="s">
@@ -43148,8 +43160,11 @@
       <c r="D1776" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="1777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1776" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1777" t="s">
         <v>5</v>
       </c>
@@ -43162,8 +43177,11 @@
       <c r="D1777" s="2" t="s">
         <v>3847</v>
       </c>
-    </row>
-    <row r="1778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1777" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1778" t="s">
         <v>5</v>
       </c>
@@ -43176,8 +43194,11 @@
       <c r="D1778" s="2" t="s">
         <v>3848</v>
       </c>
-    </row>
-    <row r="1779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1778" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1779" t="s">
         <v>5</v>
       </c>
@@ -43190,8 +43211,11 @@
       <c r="D1779" s="2" t="s">
         <v>3849</v>
       </c>
-    </row>
-    <row r="1780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1779" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1780" t="s">
         <v>5</v>
       </c>
@@ -43204,8 +43228,11 @@
       <c r="D1780" s="2" t="s">
         <v>3850</v>
       </c>
-    </row>
-    <row r="1781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1780" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1781" t="s">
         <v>5</v>
       </c>
@@ -43218,8 +43245,11 @@
       <c r="D1781" s="2" t="s">
         <v>3851</v>
       </c>
-    </row>
-    <row r="1782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1781" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1782" t="s">
         <v>5</v>
       </c>
@@ -43232,8 +43262,11 @@
       <c r="D1782" s="2" t="s">
         <v>3852</v>
       </c>
-    </row>
-    <row r="1783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1782" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1783" t="s">
         <v>5</v>
       </c>
@@ -43246,8 +43279,11 @@
       <c r="D1783" s="2" t="s">
         <v>3853</v>
       </c>
-    </row>
-    <row r="1784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1783" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1784" t="s">
         <v>5</v>
       </c>
@@ -43260,8 +43296,11 @@
       <c r="D1784" s="2" t="s">
         <v>3471</v>
       </c>
-    </row>
-    <row r="1785" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1784" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1785" t="s">
         <v>5</v>
       </c>
@@ -43274,8 +43313,11 @@
       <c r="D1785" s="2" t="s">
         <v>3854</v>
       </c>
-    </row>
-    <row r="1786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1785" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1786" t="s">
         <v>5</v>
       </c>
@@ -43288,8 +43330,11 @@
       <c r="D1786" s="2" t="s">
         <v>3855</v>
       </c>
-    </row>
-    <row r="1787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1786" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1787" t="s">
         <v>5</v>
       </c>
@@ -43302,8 +43347,11 @@
       <c r="D1787" s="2" t="s">
         <v>3856</v>
       </c>
-    </row>
-    <row r="1788" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1787" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1788" t="s">
         <v>5</v>
       </c>
@@ -43316,8 +43364,11 @@
       <c r="D1788" s="2" t="s">
         <v>3857</v>
       </c>
-    </row>
-    <row r="1789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1788" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1789" t="s">
         <v>5</v>
       </c>
@@ -43330,8 +43381,11 @@
       <c r="D1789" s="2" t="s">
         <v>3858</v>
       </c>
-    </row>
-    <row r="1790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1789" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1790" t="s">
         <v>5</v>
       </c>
@@ -43344,8 +43398,11 @@
       <c r="D1790" s="2" t="s">
         <v>3859</v>
       </c>
-    </row>
-    <row r="1791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1790" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1791" t="s">
         <v>5</v>
       </c>
@@ -43358,8 +43415,11 @@
       <c r="D1791" s="2" t="s">
         <v>3860</v>
       </c>
-    </row>
-    <row r="1792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1791" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1792" t="s">
         <v>5</v>
       </c>
@@ -43372,8 +43432,11 @@
       <c r="D1792" s="2" t="s">
         <v>3861</v>
       </c>
-    </row>
-    <row r="1793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1792" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
         <v>5</v>
       </c>
@@ -43386,8 +43449,11 @@
       <c r="D1793" s="2" t="s">
         <v>3862</v>
       </c>
-    </row>
-    <row r="1794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1793" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
         <v>5</v>
       </c>
@@ -43400,8 +43466,11 @@
       <c r="D1794" s="2" t="s">
         <v>3863</v>
       </c>
-    </row>
-    <row r="1795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1794" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1795" t="s">
         <v>5</v>
       </c>
@@ -43414,8 +43483,11 @@
       <c r="D1795" s="2" t="s">
         <v>3482</v>
       </c>
-    </row>
-    <row r="1796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1795" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
         <v>5</v>
       </c>
@@ -43428,8 +43500,11 @@
       <c r="D1796" s="2" t="s">
         <v>3864</v>
       </c>
-    </row>
-    <row r="1797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1796" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
         <v>5</v>
       </c>
@@ -43442,8 +43517,11 @@
       <c r="D1797" s="2" t="s">
         <v>3484</v>
       </c>
-    </row>
-    <row r="1798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1797" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
         <v>5</v>
       </c>
@@ -43456,8 +43534,11 @@
       <c r="D1798" s="2" t="s">
         <v>3865</v>
       </c>
-    </row>
-    <row r="1799" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1798" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1799" t="s">
         <v>5</v>
       </c>
@@ -43470,8 +43551,11 @@
       <c r="D1799" s="2" t="s">
         <v>3866</v>
       </c>
-    </row>
-    <row r="1800" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1799" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1800" t="s">
         <v>5</v>
       </c>
@@ -43484,8 +43568,11 @@
       <c r="D1800" s="2" t="s">
         <v>3867</v>
       </c>
-    </row>
-    <row r="1801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1800" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
         <v>5</v>
       </c>
@@ -43498,8 +43585,11 @@
       <c r="D1801" s="2" t="s">
         <v>3868</v>
       </c>
-    </row>
-    <row r="1802" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1801" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1802" t="s">
         <v>5</v>
       </c>
@@ -43512,8 +43602,11 @@
       <c r="D1802" s="2" t="s">
         <v>3869</v>
       </c>
-    </row>
-    <row r="1803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1802" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
         <v>5</v>
       </c>
@@ -43526,8 +43619,11 @@
       <c r="D1803" s="2" t="s">
         <v>2871</v>
       </c>
-    </row>
-    <row r="1804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1803" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
         <v>5</v>
       </c>
@@ -43540,8 +43636,11 @@
       <c r="D1804" s="2" t="s">
         <v>3870</v>
       </c>
-    </row>
-    <row r="1805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1804" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1805" t="s">
         <v>5</v>
       </c>
@@ -43554,8 +43653,11 @@
       <c r="D1805" s="2" t="s">
         <v>3871</v>
       </c>
-    </row>
-    <row r="1806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1805" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1806" t="s">
         <v>5</v>
       </c>
@@ -43568,8 +43670,11 @@
       <c r="D1806" s="2" t="s">
         <v>3872</v>
       </c>
-    </row>
-    <row r="1807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1806" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
         <v>5</v>
       </c>
@@ -43582,8 +43687,11 @@
       <c r="D1807" s="2" t="s">
         <v>3873</v>
       </c>
-    </row>
-    <row r="1808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1807" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
         <v>5</v>
       </c>
@@ -43596,8 +43704,11 @@
       <c r="D1808" s="2" t="s">
         <v>3874</v>
       </c>
-    </row>
-    <row r="1809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1808" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1809" t="s">
         <v>5</v>
       </c>
@@ -43610,8 +43721,11 @@
       <c r="D1809" s="2" t="s">
         <v>3875</v>
       </c>
-    </row>
-    <row r="1810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1809" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1810" t="s">
         <v>5</v>
       </c>
@@ -43624,8 +43738,11 @@
       <c r="D1810" s="2" t="s">
         <v>3876</v>
       </c>
-    </row>
-    <row r="1811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1810" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1811" t="s">
         <v>5</v>
       </c>
@@ -43638,8 +43755,11 @@
       <c r="D1811" s="2" t="s">
         <v>3877</v>
       </c>
-    </row>
-    <row r="1812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1811" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1812" t="s">
         <v>5</v>
       </c>
@@ -43652,8 +43772,11 @@
       <c r="D1812" s="2" t="s">
         <v>3878</v>
       </c>
-    </row>
-    <row r="1813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1812" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1813" t="s">
         <v>5</v>
       </c>
@@ -43666,8 +43789,11 @@
       <c r="D1813" s="2" t="s">
         <v>3879</v>
       </c>
-    </row>
-    <row r="1814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1813" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1814" t="s">
         <v>5</v>
       </c>
@@ -43680,8 +43806,11 @@
       <c r="D1814" s="2" t="s">
         <v>3880</v>
       </c>
-    </row>
-    <row r="1815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1814" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1815" t="s">
         <v>5</v>
       </c>
@@ -43694,8 +43823,11 @@
       <c r="D1815" s="2" t="s">
         <v>3881</v>
       </c>
-    </row>
-    <row r="1816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1815" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1816" t="s">
         <v>5</v>
       </c>
@@ -43708,8 +43840,11 @@
       <c r="D1816" s="2" t="s">
         <v>3882</v>
       </c>
-    </row>
-    <row r="1817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1816" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1817" t="s">
         <v>5</v>
       </c>
@@ -43722,8 +43857,11 @@
       <c r="D1817" s="2" t="s">
         <v>3883</v>
       </c>
-    </row>
-    <row r="1818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1817" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1818" t="s">
         <v>5</v>
       </c>
@@ -43736,8 +43874,11 @@
       <c r="D1818" s="2" t="s">
         <v>3884</v>
       </c>
-    </row>
-    <row r="1819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1818" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1819" t="s">
         <v>5</v>
       </c>
@@ -43750,8 +43891,11 @@
       <c r="D1819" s="2" t="s">
         <v>3885</v>
       </c>
-    </row>
-    <row r="1820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1819" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1820" t="s">
         <v>5</v>
       </c>
@@ -43764,8 +43908,11 @@
       <c r="D1820" s="2" t="s">
         <v>3886</v>
       </c>
-    </row>
-    <row r="1821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1820" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1821" t="s">
         <v>5</v>
       </c>
@@ -43778,8 +43925,11 @@
       <c r="D1821" s="2" t="s">
         <v>2952</v>
       </c>
-    </row>
-    <row r="1822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1821" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1822" t="s">
         <v>5</v>
       </c>
@@ -43792,8 +43942,11 @@
       <c r="D1822" s="2" t="s">
         <v>3887</v>
       </c>
-    </row>
-    <row r="1823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1822" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1823" t="s">
         <v>5</v>
       </c>
@@ -43806,8 +43959,11 @@
       <c r="D1823" s="2" t="s">
         <v>3888</v>
       </c>
-    </row>
-    <row r="1824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1823" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1824" t="s">
         <v>5</v>
       </c>
@@ -43820,8 +43976,11 @@
       <c r="D1824" s="2" t="s">
         <v>3889</v>
       </c>
-    </row>
-    <row r="1825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1824" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1825" t="s">
         <v>5</v>
       </c>
@@ -43834,8 +43993,11 @@
       <c r="D1825" s="2" t="s">
         <v>3890</v>
       </c>
-    </row>
-    <row r="1826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1825" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1826" t="s">
         <v>5</v>
       </c>
@@ -43848,8 +44010,11 @@
       <c r="D1826" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="1827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1826" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1827" t="s">
         <v>5</v>
       </c>
@@ -43862,8 +44027,11 @@
       <c r="D1827" s="2" t="s">
         <v>3891</v>
       </c>
-    </row>
-    <row r="1828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1827" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1828" t="s">
         <v>5</v>
       </c>
@@ -43876,8 +44044,11 @@
       <c r="D1828" s="2" t="s">
         <v>3892</v>
       </c>
-    </row>
-    <row r="1829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1828" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1829" t="s">
         <v>5</v>
       </c>
@@ -43890,8 +44061,11 @@
       <c r="D1829" s="2" t="s">
         <v>3893</v>
       </c>
-    </row>
-    <row r="1830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1829" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1830" t="s">
         <v>5</v>
       </c>
@@ -43904,8 +44078,11 @@
       <c r="D1830" s="2" t="s">
         <v>3894</v>
       </c>
-    </row>
-    <row r="1831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1830" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1831" t="s">
         <v>5</v>
       </c>
@@ -43918,8 +44095,11 @@
       <c r="D1831" s="2" t="s">
         <v>3895</v>
       </c>
-    </row>
-    <row r="1832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1831" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1832" t="s">
         <v>5</v>
       </c>
@@ -43932,8 +44112,11 @@
       <c r="D1832" s="2" t="s">
         <v>3896</v>
       </c>
-    </row>
-    <row r="1833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1832" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1833" t="s">
         <v>5</v>
       </c>
@@ -43946,8 +44129,11 @@
       <c r="D1833" s="2" t="s">
         <v>3520</v>
       </c>
-    </row>
-    <row r="1834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1833" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1834" t="s">
         <v>5</v>
       </c>
@@ -43960,8 +44146,11 @@
       <c r="D1834" s="2" t="s">
         <v>3897</v>
       </c>
-    </row>
-    <row r="1835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1834" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1835" t="s">
         <v>5</v>
       </c>
@@ -43974,8 +44163,11 @@
       <c r="D1835" s="2" t="s">
         <v>3898</v>
       </c>
-    </row>
-    <row r="1836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1835" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1836" t="s">
         <v>5</v>
       </c>
@@ -43988,8 +44180,11 @@
       <c r="D1836" s="2" t="s">
         <v>3899</v>
       </c>
-    </row>
-    <row r="1837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1836" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1837" t="s">
         <v>5</v>
       </c>
@@ -44002,8 +44197,11 @@
       <c r="D1837" s="2" t="s">
         <v>3900</v>
       </c>
-    </row>
-    <row r="1838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1837" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1838" t="s">
         <v>5</v>
       </c>
@@ -44016,8 +44214,11 @@
       <c r="D1838" s="2" t="s">
         <v>3901</v>
       </c>
-    </row>
-    <row r="1839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1838" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1839" t="s">
         <v>5</v>
       </c>
@@ -44030,8 +44231,11 @@
       <c r="D1839" s="2" t="s">
         <v>3902</v>
       </c>
-    </row>
-    <row r="1840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1839" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1840" t="s">
         <v>5</v>
       </c>
@@ -44044,8 +44248,11 @@
       <c r="D1840" s="2" t="s">
         <v>3903</v>
       </c>
-    </row>
-    <row r="1841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1840" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1841" t="s">
         <v>5</v>
       </c>
@@ -44058,8 +44265,11 @@
       <c r="D1841" s="2" t="s">
         <v>3904</v>
       </c>
-    </row>
-    <row r="1842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1841" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1842" t="s">
         <v>5</v>
       </c>
@@ -44072,8 +44282,11 @@
       <c r="D1842" s="2" t="s">
         <v>3905</v>
       </c>
-    </row>
-    <row r="1843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1842" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1843" t="s">
         <v>5</v>
       </c>
@@ -44086,8 +44299,11 @@
       <c r="D1843" s="2" t="s">
         <v>3906</v>
       </c>
-    </row>
-    <row r="1844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1843" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1844" t="s">
         <v>5</v>
       </c>
@@ -44100,8 +44316,11 @@
       <c r="D1844" s="2" t="s">
         <v>3907</v>
       </c>
-    </row>
-    <row r="1845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1844" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1845" t="s">
         <v>5</v>
       </c>
@@ -44114,8 +44333,11 @@
       <c r="D1845" s="2" t="s">
         <v>3908</v>
       </c>
-    </row>
-    <row r="1846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1845" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1846" t="s">
         <v>5</v>
       </c>
@@ -44128,8 +44350,11 @@
       <c r="D1846" s="2" t="s">
         <v>3909</v>
       </c>
-    </row>
-    <row r="1847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1846" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1847" t="s">
         <v>5</v>
       </c>
@@ -44142,8 +44367,11 @@
       <c r="D1847" s="2" t="s">
         <v>3910</v>
       </c>
-    </row>
-    <row r="1848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1847" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1848" t="s">
         <v>5</v>
       </c>
@@ -44156,8 +44384,11 @@
       <c r="D1848" s="2" t="s">
         <v>3911</v>
       </c>
-    </row>
-    <row r="1849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1848" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1849" t="s">
         <v>5</v>
       </c>
@@ -44170,8 +44401,11 @@
       <c r="D1849" s="2" t="s">
         <v>3912</v>
       </c>
-    </row>
-    <row r="1850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1849" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1850" t="s">
         <v>5</v>
       </c>
@@ -44184,8 +44418,11 @@
       <c r="D1850" s="2" t="s">
         <v>3913</v>
       </c>
-    </row>
-    <row r="1851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1850" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1851" t="s">
         <v>5</v>
       </c>
@@ -44198,8 +44435,11 @@
       <c r="D1851" s="2" t="s">
         <v>3914</v>
       </c>
-    </row>
-    <row r="1852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1851" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1852" t="s">
         <v>5</v>
       </c>
@@ -44212,8 +44452,11 @@
       <c r="D1852" s="2" t="s">
         <v>3915</v>
       </c>
-    </row>
-    <row r="1853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1852" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1853" t="s">
         <v>5</v>
       </c>
@@ -44226,8 +44469,11 @@
       <c r="D1853" s="2" t="s">
         <v>3916</v>
       </c>
-    </row>
-    <row r="1854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1853" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1854" t="s">
         <v>5</v>
       </c>
@@ -44240,8 +44486,11 @@
       <c r="D1854" s="2" t="s">
         <v>3917</v>
       </c>
-    </row>
-    <row r="1855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1854" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1855" t="s">
         <v>5</v>
       </c>
@@ -44254,8 +44503,11 @@
       <c r="D1855" s="2" t="s">
         <v>3918</v>
       </c>
-    </row>
-    <row r="1856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1855" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1856" t="s">
         <v>5</v>
       </c>
@@ -44268,8 +44520,11 @@
       <c r="D1856" s="2" t="s">
         <v>3919</v>
       </c>
-    </row>
-    <row r="1857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1856" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1857" t="s">
         <v>5</v>
       </c>
@@ -44282,8 +44537,11 @@
       <c r="D1857" s="2" t="s">
         <v>3920</v>
       </c>
-    </row>
-    <row r="1858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1857" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1858" t="s">
         <v>5</v>
       </c>
@@ -44296,8 +44554,11 @@
       <c r="D1858" s="2" t="s">
         <v>3921</v>
       </c>
-    </row>
-    <row r="1859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1858" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1859" t="s">
         <v>5</v>
       </c>
@@ -44310,8 +44571,11 @@
       <c r="D1859" s="2" t="s">
         <v>3922</v>
       </c>
-    </row>
-    <row r="1860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1859" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1860" t="s">
         <v>5</v>
       </c>
@@ -44324,8 +44588,11 @@
       <c r="D1860" s="2" t="s">
         <v>3923</v>
       </c>
-    </row>
-    <row r="1861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1860" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1861" t="s">
         <v>5</v>
       </c>
@@ -44338,8 +44605,11 @@
       <c r="D1861" s="2" t="s">
         <v>3924</v>
       </c>
-    </row>
-    <row r="1862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1861" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1862" t="s">
         <v>5</v>
       </c>
@@ -44352,8 +44622,11 @@
       <c r="D1862" s="2" t="s">
         <v>3925</v>
       </c>
-    </row>
-    <row r="1863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1862" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1863" t="s">
         <v>5</v>
       </c>
@@ -44366,8 +44639,11 @@
       <c r="D1863" s="2" t="s">
         <v>3550</v>
       </c>
-    </row>
-    <row r="1864" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1863" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1864" t="s">
         <v>5</v>
       </c>
@@ -44380,8 +44656,11 @@
       <c r="D1864" s="2" t="s">
         <v>3926</v>
       </c>
-    </row>
-    <row r="1865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1864" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1865" t="s">
         <v>5</v>
       </c>
@@ -44394,8 +44673,11 @@
       <c r="D1865" s="2" t="s">
         <v>3927</v>
       </c>
-    </row>
-    <row r="1866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1865" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1866" t="s">
         <v>5</v>
       </c>
@@ -44408,8 +44690,11 @@
       <c r="D1866" s="2" t="s">
         <v>3928</v>
       </c>
-    </row>
-    <row r="1867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1866" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1867" t="s">
         <v>5</v>
       </c>
@@ -44422,8 +44707,11 @@
       <c r="D1867" s="2" t="s">
         <v>3929</v>
       </c>
-    </row>
-    <row r="1868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1867" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1868" t="s">
         <v>5</v>
       </c>
@@ -44436,8 +44724,11 @@
       <c r="D1868" s="2" t="s">
         <v>3930</v>
       </c>
-    </row>
-    <row r="1869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1868" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1869" t="s">
         <v>5</v>
       </c>
@@ -44450,8 +44741,11 @@
       <c r="D1869" s="2" t="s">
         <v>3931</v>
       </c>
-    </row>
-    <row r="1870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1869" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1870" t="s">
         <v>5</v>
       </c>
@@ -44464,8 +44758,11 @@
       <c r="D1870" s="2" t="s">
         <v>3932</v>
       </c>
-    </row>
-    <row r="1871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1870" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1871" t="s">
         <v>5</v>
       </c>
@@ -44478,8 +44775,11 @@
       <c r="D1871" s="2" t="s">
         <v>3933</v>
       </c>
-    </row>
-    <row r="1872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1871" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1872" t="s">
         <v>5</v>
       </c>
@@ -44492,8 +44792,11 @@
       <c r="D1872" s="2" t="s">
         <v>3934</v>
       </c>
-    </row>
-    <row r="1873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1872" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1873" t="s">
         <v>5</v>
       </c>
@@ -44506,8 +44809,11 @@
       <c r="D1873" s="2" t="s">
         <v>3935</v>
       </c>
-    </row>
-    <row r="1874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1873" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1874" t="s">
         <v>5</v>
       </c>
@@ -44520,8 +44826,11 @@
       <c r="D1874" s="2" t="s">
         <v>3561</v>
       </c>
-    </row>
-    <row r="1875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1874" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1875" t="s">
         <v>5</v>
       </c>
@@ -44534,8 +44843,11 @@
       <c r="D1875" s="2" t="s">
         <v>3562</v>
       </c>
-    </row>
-    <row r="1876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1875" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1876" t="s">
         <v>5</v>
       </c>
@@ -44548,8 +44860,11 @@
       <c r="D1876" s="2" t="s">
         <v>3936</v>
       </c>
-    </row>
-    <row r="1877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1876" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1877" t="s">
         <v>5</v>
       </c>
@@ -44562,8 +44877,11 @@
       <c r="D1877" s="2" t="s">
         <v>3937</v>
       </c>
-    </row>
-    <row r="1878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1877" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1878" t="s">
         <v>5</v>
       </c>
@@ -44576,8 +44894,11 @@
       <c r="D1878" s="2" t="s">
         <v>3938</v>
       </c>
-    </row>
-    <row r="1879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1878" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1879" t="s">
         <v>5</v>
       </c>
@@ -44590,8 +44911,11 @@
       <c r="D1879" s="2" t="s">
         <v>3566</v>
       </c>
-    </row>
-    <row r="1880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1879" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1880" t="s">
         <v>5</v>
       </c>
@@ -44604,8 +44928,11 @@
       <c r="D1880" s="2" t="s">
         <v>3567</v>
       </c>
-    </row>
-    <row r="1881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1880" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1881" t="s">
         <v>5</v>
       </c>
@@ -44618,8 +44945,11 @@
       <c r="D1881" s="2" t="s">
         <v>3939</v>
       </c>
-    </row>
-    <row r="1882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1881" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1882" t="s">
         <v>5</v>
       </c>
@@ -44632,8 +44962,11 @@
       <c r="D1882" s="2" t="s">
         <v>3569</v>
       </c>
-    </row>
-    <row r="1883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1882" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1883" t="s">
         <v>5</v>
       </c>
@@ -44646,8 +44979,11 @@
       <c r="D1883" s="2" t="s">
         <v>3940</v>
       </c>
-    </row>
-    <row r="1884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1883" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1884" t="s">
         <v>5</v>
       </c>
@@ -44660,8 +44996,11 @@
       <c r="D1884" s="2" t="s">
         <v>3941</v>
       </c>
-    </row>
-    <row r="1885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1884" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1885" t="s">
         <v>5</v>
       </c>
@@ -44674,8 +45013,11 @@
       <c r="D1885" s="2" t="s">
         <v>3572</v>
       </c>
-    </row>
-    <row r="1886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1885" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1886" t="s">
         <v>5</v>
       </c>
@@ -44688,8 +45030,11 @@
       <c r="D1886" s="2" t="s">
         <v>3942</v>
       </c>
-    </row>
-    <row r="1887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1886" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1887" t="s">
         <v>5</v>
       </c>
@@ -44702,8 +45047,11 @@
       <c r="D1887" s="2" t="s">
         <v>3943</v>
       </c>
-    </row>
-    <row r="1888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1887" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1888" t="s">
         <v>5</v>
       </c>
@@ -44716,8 +45064,11 @@
       <c r="D1888" s="2" t="s">
         <v>3944</v>
       </c>
-    </row>
-    <row r="1889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1888" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1889" t="s">
         <v>5</v>
       </c>
@@ -44730,8 +45081,11 @@
       <c r="D1889" s="2" t="s">
         <v>3945</v>
       </c>
-    </row>
-    <row r="1890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1889" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1890" t="s">
         <v>5</v>
       </c>
@@ -44744,8 +45098,11 @@
       <c r="D1890" s="2" t="s">
         <v>3946</v>
       </c>
-    </row>
-    <row r="1891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1890" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1891" t="s">
         <v>5</v>
       </c>
@@ -44758,8 +45115,11 @@
       <c r="D1891" s="2" t="s">
         <v>3947</v>
       </c>
-    </row>
-    <row r="1892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1891" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1892" t="s">
         <v>5</v>
       </c>
@@ -44772,8 +45132,11 @@
       <c r="D1892" s="2" t="s">
         <v>3948</v>
       </c>
-    </row>
-    <row r="1893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1892" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1893" t="s">
         <v>5</v>
       </c>
@@ -44786,8 +45149,11 @@
       <c r="D1893" s="2" t="s">
         <v>3949</v>
       </c>
-    </row>
-    <row r="1894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1893" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1894" t="s">
         <v>5</v>
       </c>
@@ -44800,8 +45166,11 @@
       <c r="D1894" s="2" t="s">
         <v>3950</v>
       </c>
-    </row>
-    <row r="1895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1894" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1895" t="s">
         <v>5</v>
       </c>
@@ -44814,8 +45183,11 @@
       <c r="D1895" s="2" t="s">
         <v>3951</v>
       </c>
-    </row>
-    <row r="1896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1895" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1896" t="s">
         <v>5</v>
       </c>
@@ -44828,8 +45200,11 @@
       <c r="D1896" s="2" t="s">
         <v>2194</v>
       </c>
-    </row>
-    <row r="1897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1896" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1897" t="s">
         <v>5</v>
       </c>
@@ -44842,8 +45217,11 @@
       <c r="D1897" s="2" t="s">
         <v>3952</v>
       </c>
-    </row>
-    <row r="1898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1897" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1898" t="s">
         <v>5</v>
       </c>
@@ -44856,8 +45234,11 @@
       <c r="D1898" s="2" t="s">
         <v>3953</v>
       </c>
-    </row>
-    <row r="1899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1898" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1899" t="s">
         <v>5</v>
       </c>
@@ -44870,8 +45251,11 @@
       <c r="D1899" s="2" t="s">
         <v>3954</v>
       </c>
-    </row>
-    <row r="1900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1899" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1900" t="s">
         <v>5</v>
       </c>
@@ -44884,8 +45268,11 @@
       <c r="D1900" s="2" t="s">
         <v>3955</v>
       </c>
-    </row>
-    <row r="1901" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1900" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1901" t="s">
         <v>5</v>
       </c>
@@ -44898,8 +45285,11 @@
       <c r="D1901" s="2" t="s">
         <v>3956</v>
       </c>
-    </row>
-    <row r="1902" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1901" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1902" t="s">
         <v>5</v>
       </c>
@@ -44912,8 +45302,11 @@
       <c r="D1902" s="2" t="s">
         <v>3957</v>
       </c>
-    </row>
-    <row r="1903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1902" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1903" t="s">
         <v>5</v>
       </c>
@@ -44926,8 +45319,11 @@
       <c r="D1903" s="2" t="s">
         <v>3958</v>
       </c>
-    </row>
-    <row r="1904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1903" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1904" t="s">
         <v>5</v>
       </c>
@@ -44940,8 +45336,11 @@
       <c r="D1904" s="2" t="s">
         <v>3591</v>
       </c>
-    </row>
-    <row r="1905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1904" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1905" t="s">
         <v>5</v>
       </c>
@@ -44954,8 +45353,11 @@
       <c r="D1905" s="2" t="s">
         <v>3959</v>
       </c>
-    </row>
-    <row r="1906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1905" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1906" t="s">
         <v>5</v>
       </c>
@@ -44968,8 +45370,11 @@
       <c r="D1906" s="2" t="s">
         <v>3960</v>
       </c>
-    </row>
-    <row r="1907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1906" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1907" t="s">
         <v>5</v>
       </c>
@@ -44982,8 +45387,11 @@
       <c r="D1907" s="2" t="s">
         <v>3961</v>
       </c>
-    </row>
-    <row r="1908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1907" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1908" t="s">
         <v>5</v>
       </c>
@@ -44996,8 +45404,11 @@
       <c r="D1908" s="2" t="s">
         <v>3962</v>
       </c>
-    </row>
-    <row r="1909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1908" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1909" t="s">
         <v>5</v>
       </c>
@@ -45010,8 +45421,11 @@
       <c r="D1909" s="2" t="s">
         <v>3963</v>
       </c>
-    </row>
-    <row r="1910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1909" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1910" t="s">
         <v>5</v>
       </c>
@@ -45024,8 +45438,11 @@
       <c r="D1910" s="2" t="s">
         <v>3964</v>
       </c>
-    </row>
-    <row r="1911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1910" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1911" t="s">
         <v>5</v>
       </c>
@@ -45038,8 +45455,11 @@
       <c r="D1911" s="2" t="s">
         <v>3965</v>
       </c>
-    </row>
-    <row r="1912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1911" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1912" t="s">
         <v>5</v>
       </c>
@@ -45052,8 +45472,11 @@
       <c r="D1912" s="2" t="s">
         <v>3966</v>
       </c>
-    </row>
-    <row r="1913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1912" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1913" t="s">
         <v>5</v>
       </c>
@@ -45066,8 +45489,11 @@
       <c r="D1913" s="2" t="s">
         <v>3967</v>
       </c>
-    </row>
-    <row r="1914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1913" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1914" t="s">
         <v>5</v>
       </c>
@@ -45080,8 +45506,11 @@
       <c r="D1914" s="2" t="s">
         <v>3968</v>
       </c>
-    </row>
-    <row r="1915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1914" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1915" t="s">
         <v>5</v>
       </c>
@@ -45094,8 +45523,11 @@
       <c r="D1915" s="2" t="s">
         <v>3969</v>
       </c>
-    </row>
-    <row r="1916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1915" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1916" t="s">
         <v>5</v>
       </c>
@@ -45108,8 +45540,11 @@
       <c r="D1916" s="2" t="s">
         <v>3970</v>
       </c>
-    </row>
-    <row r="1917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1916" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1917" t="s">
         <v>5</v>
       </c>
@@ -45122,8 +45557,11 @@
       <c r="D1917" s="2" t="s">
         <v>3971</v>
       </c>
-    </row>
-    <row r="1918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1917" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1918" t="s">
         <v>5</v>
       </c>
@@ -45136,8 +45574,11 @@
       <c r="D1918" s="2" t="s">
         <v>3972</v>
       </c>
-    </row>
-    <row r="1919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1918" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1919" t="s">
         <v>5</v>
       </c>
@@ -45150,8 +45591,11 @@
       <c r="D1919" s="2" t="s">
         <v>3973</v>
       </c>
-    </row>
-    <row r="1920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1919" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1920" t="s">
         <v>5</v>
       </c>
@@ -45164,8 +45608,11 @@
       <c r="D1920" s="2" t="s">
         <v>3974</v>
       </c>
-    </row>
-    <row r="1921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1920" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1921" t="s">
         <v>5</v>
       </c>
@@ -45178,8 +45625,11 @@
       <c r="D1921" s="2" t="s">
         <v>3975</v>
       </c>
-    </row>
-    <row r="1922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1921" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1922" t="s">
         <v>5</v>
       </c>
@@ -45192,8 +45642,11 @@
       <c r="D1922" s="2" t="s">
         <v>3976</v>
       </c>
-    </row>
-    <row r="1923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1922" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1923" t="s">
         <v>5</v>
       </c>
@@ -45206,8 +45659,11 @@
       <c r="D1923" s="2" t="s">
         <v>3977</v>
       </c>
-    </row>
-    <row r="1924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1923" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1924" t="s">
         <v>5</v>
       </c>
@@ -45220,8 +45676,11 @@
       <c r="D1924" s="2" t="s">
         <v>3978</v>
       </c>
-    </row>
-    <row r="1925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1924" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1925" t="s">
         <v>5</v>
       </c>
@@ -45234,8 +45693,11 @@
       <c r="D1925" s="2" t="s">
         <v>3979</v>
       </c>
-    </row>
-    <row r="1926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1925" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1926" t="s">
         <v>5</v>
       </c>
@@ -45248,8 +45710,11 @@
       <c r="D1926" s="2" t="s">
         <v>3980</v>
       </c>
-    </row>
-    <row r="1927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1926" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1927" t="s">
         <v>5</v>
       </c>
@@ -45262,8 +45727,11 @@
       <c r="D1927" s="2" t="s">
         <v>3981</v>
       </c>
-    </row>
-    <row r="1928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1927" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1928" t="s">
         <v>5</v>
       </c>
@@ -45276,8 +45744,11 @@
       <c r="D1928" s="2" t="s">
         <v>3982</v>
       </c>
-    </row>
-    <row r="1929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1928" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1929" t="s">
         <v>5</v>
       </c>
@@ -45290,8 +45761,11 @@
       <c r="D1929" s="2" t="s">
         <v>3983</v>
       </c>
-    </row>
-    <row r="1930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1929" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1930" t="s">
         <v>5</v>
       </c>
@@ -45304,8 +45778,11 @@
       <c r="D1930" s="2" t="s">
         <v>3984</v>
       </c>
-    </row>
-    <row r="1931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1930" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1931" t="s">
         <v>5</v>
       </c>
@@ -45318,8 +45795,11 @@
       <c r="D1931" s="2" t="s">
         <v>3985</v>
       </c>
-    </row>
-    <row r="1932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1931" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1932" t="s">
         <v>5</v>
       </c>
@@ -45332,8 +45812,11 @@
       <c r="D1932" s="2" t="s">
         <v>3986</v>
       </c>
-    </row>
-    <row r="1933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1932" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1933" t="s">
         <v>5</v>
       </c>
@@ -45346,8 +45829,11 @@
       <c r="D1933" s="2" t="s">
         <v>3987</v>
       </c>
-    </row>
-    <row r="1934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1933" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1934" t="s">
         <v>5</v>
       </c>
@@ -45360,8 +45846,11 @@
       <c r="D1934" s="2" t="s">
         <v>3884</v>
       </c>
-    </row>
-    <row r="1935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1934" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1935" t="s">
         <v>5</v>
       </c>
@@ -45374,8 +45863,11 @@
       <c r="D1935" s="2" t="s">
         <v>3988</v>
       </c>
-    </row>
-    <row r="1936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1935" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1936" t="s">
         <v>5</v>
       </c>
@@ -45388,8 +45880,11 @@
       <c r="D1936" s="2" t="s">
         <v>3989</v>
       </c>
-    </row>
-    <row r="1937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1936" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1937" t="s">
         <v>5</v>
       </c>
@@ -45402,8 +45897,11 @@
       <c r="D1937" s="2" t="s">
         <v>3990</v>
       </c>
-    </row>
-    <row r="1938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1937" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1938" t="s">
         <v>5</v>
       </c>
@@ -45416,8 +45914,11 @@
       <c r="D1938" s="2" t="s">
         <v>3991</v>
       </c>
-    </row>
-    <row r="1939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1938" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1939" t="s">
         <v>5</v>
       </c>
@@ -45430,8 +45931,11 @@
       <c r="D1939" s="2" t="s">
         <v>3992</v>
       </c>
-    </row>
-    <row r="1940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1939" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1940" t="s">
         <v>5</v>
       </c>
@@ -45444,8 +45948,11 @@
       <c r="D1940" s="2" t="s">
         <v>3993</v>
       </c>
-    </row>
-    <row r="1941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1940" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1941" t="s">
         <v>5</v>
       </c>
@@ -45458,8 +45965,11 @@
       <c r="D1941" s="2" t="s">
         <v>3994</v>
       </c>
-    </row>
-    <row r="1942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1941" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1942" t="s">
         <v>5</v>
       </c>
@@ -45472,8 +45982,11 @@
       <c r="D1942" s="2" t="s">
         <v>3995</v>
       </c>
-    </row>
-    <row r="1943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1942" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1943" t="s">
         <v>5</v>
       </c>
@@ -45486,8 +45999,11 @@
       <c r="D1943" s="2" t="s">
         <v>3996</v>
       </c>
-    </row>
-    <row r="1944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1943" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1944" t="s">
         <v>5</v>
       </c>
@@ -45500,8 +46016,11 @@
       <c r="D1944" s="2" t="s">
         <v>3997</v>
       </c>
-    </row>
-    <row r="1945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1944" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1945" t="s">
         <v>5</v>
       </c>
@@ -45514,8 +46033,11 @@
       <c r="D1945" s="2" t="s">
         <v>3998</v>
       </c>
-    </row>
-    <row r="1946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1945" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1946" t="s">
         <v>5</v>
       </c>
@@ -45528,8 +46050,11 @@
       <c r="D1946" s="2" t="s">
         <v>3999</v>
       </c>
-    </row>
-    <row r="1947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1946" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1947" t="s">
         <v>5</v>
       </c>
@@ -45542,8 +46067,11 @@
       <c r="D1947" s="2" t="s">
         <v>4000</v>
       </c>
-    </row>
-    <row r="1948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1947" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1948" t="s">
         <v>5</v>
       </c>
@@ -45556,8 +46084,11 @@
       <c r="D1948" s="2" t="s">
         <v>4001</v>
       </c>
-    </row>
-    <row r="1949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1948" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1949" t="s">
         <v>5</v>
       </c>
@@ -45570,8 +46101,11 @@
       <c r="D1949" s="2" t="s">
         <v>4002</v>
       </c>
-    </row>
-    <row r="1950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1949" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1950" t="s">
         <v>5</v>
       </c>
@@ -45584,8 +46118,11 @@
       <c r="D1950" s="2" t="s">
         <v>4003</v>
       </c>
-    </row>
-    <row r="1951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1950" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1951" t="s">
         <v>5</v>
       </c>
@@ -45598,8 +46135,11 @@
       <c r="D1951" s="2" t="s">
         <v>4004</v>
       </c>
-    </row>
-    <row r="1952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1951" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1952" t="s">
         <v>5</v>
       </c>
@@ -45612,8 +46152,11 @@
       <c r="D1952" s="2" t="s">
         <v>4005</v>
       </c>
-    </row>
-    <row r="1953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1952" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1953" t="s">
         <v>5</v>
       </c>
@@ -45626,8 +46169,11 @@
       <c r="D1953" s="2" t="s">
         <v>4006</v>
       </c>
-    </row>
-    <row r="1954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1953" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1954" t="s">
         <v>5</v>
       </c>
@@ -45640,8 +46186,11 @@
       <c r="D1954" s="2" t="s">
         <v>4007</v>
       </c>
-    </row>
-    <row r="1955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1954" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1955" t="s">
         <v>5</v>
       </c>
@@ -45654,8 +46203,11 @@
       <c r="D1955" s="2" t="s">
         <v>4008</v>
       </c>
-    </row>
-    <row r="1956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1955" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1956" t="s">
         <v>5</v>
       </c>
@@ -45668,8 +46220,11 @@
       <c r="D1956" s="2" t="s">
         <v>4009</v>
       </c>
-    </row>
-    <row r="1957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1956" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1957" t="s">
         <v>5</v>
       </c>
@@ -45682,8 +46237,11 @@
       <c r="D1957" s="2" t="s">
         <v>4010</v>
       </c>
-    </row>
-    <row r="1958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1957" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1958" t="s">
         <v>5</v>
       </c>
@@ -45696,8 +46254,11 @@
       <c r="D1958" s="2" t="s">
         <v>4011</v>
       </c>
-    </row>
-    <row r="1959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1958" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1959" t="s">
         <v>5</v>
       </c>
@@ -45710,8 +46271,11 @@
       <c r="D1959" s="2" t="s">
         <v>4012</v>
       </c>
-    </row>
-    <row r="1960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1960" t="s">
         <v>5</v>
       </c>
@@ -45724,8 +46288,11 @@
       <c r="D1960" s="2" t="s">
         <v>4013</v>
       </c>
-    </row>
-    <row r="1961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1961" t="s">
         <v>5</v>
       </c>
@@ -45738,8 +46305,11 @@
       <c r="D1961" s="2" t="s">
         <v>4014</v>
       </c>
-    </row>
-    <row r="1962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1962" t="s">
         <v>5</v>
       </c>
@@ -45752,8 +46322,11 @@
       <c r="D1962" s="2" t="s">
         <v>4015</v>
       </c>
-    </row>
-    <row r="1963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1963" t="s">
         <v>5</v>
       </c>
@@ -45766,8 +46339,11 @@
       <c r="D1963" s="2" t="s">
         <v>4016</v>
       </c>
-    </row>
-    <row r="1964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1964" t="s">
         <v>5</v>
       </c>
@@ -45780,8 +46356,11 @@
       <c r="D1964" s="2" t="s">
         <v>4017</v>
       </c>
-    </row>
-    <row r="1965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1965" t="s">
         <v>5</v>
       </c>
@@ -45794,8 +46373,11 @@
       <c r="D1965" s="2" t="s">
         <v>2659</v>
       </c>
-    </row>
-    <row r="1966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1966" t="s">
         <v>5</v>
       </c>
@@ -45808,8 +46390,11 @@
       <c r="D1966" s="2" t="s">
         <v>4018</v>
       </c>
-    </row>
-    <row r="1967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1967" t="s">
         <v>5</v>
       </c>
@@ -45822,8 +46407,11 @@
       <c r="D1967" s="2" t="s">
         <v>4019</v>
       </c>
-    </row>
-    <row r="1968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1968" t="s">
         <v>5</v>
       </c>
@@ -45836,8 +46424,11 @@
       <c r="D1968" s="2" t="s">
         <v>4020</v>
       </c>
-    </row>
-    <row r="1969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1969" t="s">
         <v>5</v>
       </c>
@@ -45850,8 +46441,11 @@
       <c r="D1969" s="2" t="s">
         <v>4021</v>
       </c>
-    </row>
-    <row r="1970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1970" t="s">
         <v>5</v>
       </c>
@@ -45864,8 +46458,11 @@
       <c r="D1970" s="2" t="s">
         <v>4022</v>
       </c>
-    </row>
-    <row r="1971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1971" t="s">
         <v>5</v>
       </c>
@@ -45878,8 +46475,11 @@
       <c r="D1971" s="2" t="s">
         <v>4023</v>
       </c>
-    </row>
-    <row r="1972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1972" t="s">
         <v>5</v>
       </c>
@@ -45892,8 +46492,11 @@
       <c r="D1972" s="2" t="s">
         <v>4024</v>
       </c>
-    </row>
-    <row r="1973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1973" t="s">
         <v>5</v>
       </c>
@@ -45906,8 +46509,11 @@
       <c r="D1973" s="2" t="s">
         <v>4025</v>
       </c>
-    </row>
-    <row r="1974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1974" t="s">
         <v>5</v>
       </c>
@@ -45920,8 +46526,11 @@
       <c r="D1974" s="2" t="s">
         <v>4026</v>
       </c>
-    </row>
-    <row r="1975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1975" t="s">
         <v>5</v>
       </c>
@@ -45934,8 +46543,11 @@
       <c r="D1975" s="2" t="s">
         <v>4027</v>
       </c>
-    </row>
-    <row r="1976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1976" t="s">
         <v>5</v>
       </c>
@@ -45948,8 +46560,11 @@
       <c r="D1976" s="2" t="s">
         <v>4028</v>
       </c>
-    </row>
-    <row r="1977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1977" t="s">
         <v>5</v>
       </c>
@@ -45962,8 +46577,11 @@
       <c r="D1977" s="2" t="s">
         <v>4029</v>
       </c>
-    </row>
-    <row r="1978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1978" t="s">
         <v>5</v>
       </c>
@@ -45976,8 +46594,11 @@
       <c r="D1978" s="2" t="s">
         <v>4030</v>
       </c>
-    </row>
-    <row r="1979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1979" t="s">
         <v>5</v>
       </c>
@@ -45990,8 +46611,11 @@
       <c r="D1979" s="2" t="s">
         <v>4031</v>
       </c>
-    </row>
-    <row r="1980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1980" t="s">
         <v>5</v>
       </c>
@@ -46004,8 +46628,11 @@
       <c r="D1980" s="2" t="s">
         <v>4032</v>
       </c>
-    </row>
-    <row r="1981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1981" t="s">
         <v>5</v>
       </c>
@@ -46018,8 +46645,11 @@
       <c r="D1981" s="2" t="s">
         <v>4033</v>
       </c>
-    </row>
-    <row r="1982" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1982" t="s">
         <v>5</v>
       </c>
@@ -46032,8 +46662,11 @@
       <c r="D1982" s="2" t="s">
         <v>4034</v>
       </c>
-    </row>
-    <row r="1983" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1983" t="s">
         <v>5</v>
       </c>
@@ -46046,8 +46679,11 @@
       <c r="D1983" s="2" t="s">
         <v>4035</v>
       </c>
-    </row>
-    <row r="1984" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1984" t="s">
         <v>5</v>
       </c>
@@ -46060,8 +46696,11 @@
       <c r="D1984" s="2" t="s">
         <v>4036</v>
       </c>
-    </row>
-    <row r="1985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1985" t="s">
         <v>5</v>
       </c>
@@ -46074,8 +46713,11 @@
       <c r="D1985" s="2" t="s">
         <v>4037</v>
       </c>
-    </row>
-    <row r="1986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1986" t="s">
         <v>5</v>
       </c>
@@ -46088,8 +46730,11 @@
       <c r="D1986" s="2" t="s">
         <v>4038</v>
       </c>
-    </row>
-    <row r="1987" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1987" t="s">
         <v>5</v>
       </c>
@@ -46102,8 +46747,11 @@
       <c r="D1987" s="2" t="s">
         <v>4039</v>
       </c>
-    </row>
-    <row r="1988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1988" t="s">
         <v>5</v>
       </c>
@@ -46116,8 +46764,11 @@
       <c r="D1988" s="2" t="s">
         <v>4040</v>
       </c>
-    </row>
-    <row r="1989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1989" t="s">
         <v>5</v>
       </c>
@@ -46130,8 +46781,11 @@
       <c r="D1989" s="2" t="s">
         <v>4041</v>
       </c>
-    </row>
-    <row r="1990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1990" t="s">
         <v>5</v>
       </c>
@@ -46144,8 +46798,11 @@
       <c r="D1990" s="2" t="s">
         <v>4042</v>
       </c>
-    </row>
-    <row r="1991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1991" t="s">
         <v>5</v>
       </c>
@@ -46158,8 +46815,11 @@
       <c r="D1991" s="2" t="s">
         <v>4043</v>
       </c>
-    </row>
-    <row r="1992" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1992" t="s">
         <v>5</v>
       </c>
@@ -46172,8 +46832,11 @@
       <c r="D1992" s="2" t="s">
         <v>4044</v>
       </c>
-    </row>
-    <row r="1993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1993" t="s">
         <v>5</v>
       </c>
@@ -46186,8 +46849,11 @@
       <c r="D1993" s="2" t="s">
         <v>4045</v>
       </c>
-    </row>
-    <row r="1994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1994" t="s">
         <v>5</v>
       </c>
@@ -46200,8 +46866,11 @@
       <c r="D1994" s="2" t="s">
         <v>4046</v>
       </c>
-    </row>
-    <row r="1995" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1995" t="s">
         <v>5</v>
       </c>
@@ -46214,8 +46883,11 @@
       <c r="D1995" s="2" t="s">
         <v>4047</v>
       </c>
-    </row>
-    <row r="1996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1996" t="s">
         <v>5</v>
       </c>
@@ -46228,8 +46900,11 @@
       <c r="D1996" s="2" t="s">
         <v>4048</v>
       </c>
-    </row>
-    <row r="1997" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1997" t="s">
         <v>5</v>
       </c>
@@ -46242,8 +46917,11 @@
       <c r="D1997" s="2" t="s">
         <v>4049</v>
       </c>
-    </row>
-    <row r="1998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1998" t="s">
         <v>5</v>
       </c>
@@ -46256,8 +46934,11 @@
       <c r="D1998" s="2" t="s">
         <v>4050</v>
       </c>
-    </row>
-    <row r="1999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1999" t="s">
         <v>5</v>
       </c>
@@ -46270,8 +46951,11 @@
       <c r="D1999" s="2" t="s">
         <v>4051</v>
       </c>
-    </row>
-    <row r="2000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2000" t="s">
         <v>5</v>
       </c>
@@ -46284,8 +46968,11 @@
       <c r="D2000" s="2" t="s">
         <v>4052</v>
       </c>
-    </row>
-    <row r="2001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2001" t="s">
         <v>5</v>
       </c>
@@ -46298,8 +46985,11 @@
       <c r="D2001" s="2" t="s">
         <v>4053</v>
       </c>
-    </row>
-    <row r="2002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2002" t="s">
         <v>5</v>
       </c>
@@ -46312,8 +47002,11 @@
       <c r="D2002" s="2" t="s">
         <v>4054</v>
       </c>
-    </row>
-    <row r="2003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2003" t="s">
         <v>5</v>
       </c>
@@ -46326,8 +47019,11 @@
       <c r="D2003" s="2" t="s">
         <v>4055</v>
       </c>
-    </row>
-    <row r="2004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2004" t="s">
         <v>5</v>
       </c>
@@ -46340,8 +47036,11 @@
       <c r="D2004" s="2" t="s">
         <v>4056</v>
       </c>
-    </row>
-    <row r="2005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2005" t="s">
         <v>5</v>
       </c>
@@ -46354,8 +47053,11 @@
       <c r="D2005" s="2" t="s">
         <v>2591</v>
       </c>
-    </row>
-    <row r="2006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2006" t="s">
         <v>5</v>
       </c>
@@ -46368,8 +47070,11 @@
       <c r="D2006" s="2" t="s">
         <v>4057</v>
       </c>
-    </row>
-    <row r="2007" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2007" t="s">
         <v>5</v>
       </c>
@@ -46382,8 +47087,11 @@
       <c r="D2007" s="2" t="s">
         <v>4058</v>
       </c>
-    </row>
-    <row r="2008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2008" t="s">
         <v>5</v>
       </c>
@@ -46396,8 +47104,11 @@
       <c r="D2008" s="2" t="s">
         <v>4059</v>
       </c>
-    </row>
-    <row r="2009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2009" t="s">
         <v>5</v>
       </c>
@@ -46410,8 +47121,11 @@
       <c r="D2009" s="2" t="s">
         <v>4060</v>
       </c>
-    </row>
-    <row r="2010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2010" t="s">
         <v>5</v>
       </c>
@@ -46424,8 +47138,11 @@
       <c r="D2010" s="2" t="s">
         <v>4061</v>
       </c>
-    </row>
-    <row r="2011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2011" t="s">
         <v>5</v>
       </c>
@@ -46438,8 +47155,11 @@
       <c r="D2011" s="2" t="s">
         <v>4062</v>
       </c>
-    </row>
-    <row r="2012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2012" t="s">
         <v>5</v>
       </c>
@@ -46452,8 +47172,11 @@
       <c r="D2012" s="2" t="s">
         <v>4063</v>
       </c>
-    </row>
-    <row r="2013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2013" t="s">
         <v>5</v>
       </c>
@@ -46466,8 +47189,11 @@
       <c r="D2013" s="2" t="s">
         <v>4064</v>
       </c>
-    </row>
-    <row r="2014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2014" t="s">
         <v>5</v>
       </c>
@@ -46480,8 +47206,11 @@
       <c r="D2014" s="2" t="s">
         <v>4065</v>
       </c>
-    </row>
-    <row r="2015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2015" t="s">
         <v>5</v>
       </c>
@@ -46494,8 +47223,11 @@
       <c r="D2015" s="2" t="s">
         <v>4066</v>
       </c>
-    </row>
-    <row r="2016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2016" t="s">
         <v>5</v>
       </c>
@@ -46508,8 +47240,11 @@
       <c r="D2016" s="2" t="s">
         <v>4067</v>
       </c>
-    </row>
-    <row r="2017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2017" t="s">
         <v>5</v>
       </c>
@@ -46522,8 +47257,11 @@
       <c r="D2017" s="2" t="s">
         <v>4068</v>
       </c>
-    </row>
-    <row r="2018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2018" t="s">
         <v>5</v>
       </c>
@@ -46536,8 +47274,11 @@
       <c r="D2018" s="2" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="2019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2019" t="s">
         <v>5</v>
       </c>
@@ -46550,8 +47291,11 @@
       <c r="D2019" s="2" t="s">
         <v>4069</v>
       </c>
-    </row>
-    <row r="2020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2020" t="s">
         <v>5</v>
       </c>
@@ -46564,8 +47308,11 @@
       <c r="D2020" s="2" t="s">
         <v>4070</v>
       </c>
-    </row>
-    <row r="2021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2021" t="s">
         <v>5</v>
       </c>
@@ -46578,8 +47325,11 @@
       <c r="D2021" s="2" t="s">
         <v>4071</v>
       </c>
-    </row>
-    <row r="2022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2022" t="s">
         <v>3709</v>
       </c>
@@ -46592,8 +47342,11 @@
       <c r="D2022" s="2" t="s">
         <v>3710</v>
       </c>
-    </row>
-    <row r="2023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2023" t="s">
         <v>3709</v>
       </c>
@@ -46606,8 +47359,11 @@
       <c r="D2023" s="2" t="s">
         <v>4072</v>
       </c>
-    </row>
-    <row r="2024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2024" t="s">
         <v>3709</v>
       </c>
@@ -46620,8 +47376,11 @@
       <c r="D2024" s="2" t="s">
         <v>4073</v>
       </c>
-    </row>
-    <row r="2025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2025" t="s">
         <v>5</v>
       </c>
@@ -46634,8 +47393,11 @@
       <c r="D2025" s="2" t="s">
         <v>4074</v>
       </c>
-    </row>
-    <row r="2026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2026" t="s">
         <v>5</v>
       </c>
@@ -46648,8 +47410,11 @@
       <c r="D2026" s="2" t="s">
         <v>4075</v>
       </c>
-    </row>
-    <row r="2027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2027" t="s">
         <v>5</v>
       </c>
@@ -46662,8 +47427,11 @@
       <c r="D2027" s="2" t="s">
         <v>4076</v>
       </c>
-    </row>
-    <row r="2028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2028" t="s">
         <v>5</v>
       </c>
@@ -46676,8 +47444,11 @@
       <c r="D2028" s="2" t="s">
         <v>4077</v>
       </c>
-    </row>
-    <row r="2029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2029" t="s">
         <v>5</v>
       </c>
@@ -46690,8 +47461,11 @@
       <c r="D2029" s="2" t="s">
         <v>4078</v>
       </c>
-    </row>
-    <row r="2030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2030" t="s">
         <v>5</v>
       </c>
@@ -46704,8 +47478,11 @@
       <c r="D2030" s="2" t="s">
         <v>4079</v>
       </c>
-    </row>
-    <row r="2031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2031" t="s">
         <v>5</v>
       </c>
@@ -46718,8 +47495,11 @@
       <c r="D2031" s="2" t="s">
         <v>4080</v>
       </c>
-    </row>
-    <row r="2032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2032" t="s">
         <v>5</v>
       </c>
@@ -46732,8 +47512,11 @@
       <c r="D2032" s="2" t="s">
         <v>4081</v>
       </c>
-    </row>
-    <row r="2033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2033" t="s">
         <v>5</v>
       </c>
@@ -46746,8 +47529,11 @@
       <c r="D2033" s="2" t="s">
         <v>4082</v>
       </c>
-    </row>
-    <row r="2034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2034" t="s">
         <v>5</v>
       </c>
@@ -46760,8 +47546,11 @@
       <c r="D2034" s="2" t="s">
         <v>4083</v>
       </c>
-    </row>
-    <row r="2035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2035" t="s">
         <v>5</v>
       </c>
@@ -46774,8 +47563,11 @@
       <c r="D2035" s="2" t="s">
         <v>4084</v>
       </c>
-    </row>
-    <row r="2036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2036" t="s">
         <v>5</v>
       </c>
@@ -46788,8 +47580,11 @@
       <c r="D2036" s="2" t="s">
         <v>4085</v>
       </c>
-    </row>
-    <row r="2037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2037" t="s">
         <v>5</v>
       </c>
@@ -46802,8 +47597,11 @@
       <c r="D2037" s="2" t="s">
         <v>4086</v>
       </c>
-    </row>
-    <row r="2038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2038" t="s">
         <v>5</v>
       </c>
@@ -46816,8 +47614,11 @@
       <c r="D2038" s="2" t="s">
         <v>4087</v>
       </c>
-    </row>
-    <row r="2039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2039" t="s">
         <v>5</v>
       </c>
@@ -46830,8 +47631,11 @@
       <c r="D2039" s="2" t="s">
         <v>4088</v>
       </c>
-    </row>
-    <row r="2040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2040" t="s">
         <v>5</v>
       </c>
@@ -46844,8 +47648,11 @@
       <c r="D2040" s="2" t="s">
         <v>4089</v>
       </c>
-    </row>
-    <row r="2041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2041" t="s">
         <v>5</v>
       </c>
@@ -46858,8 +47665,11 @@
       <c r="D2041" s="2" t="s">
         <v>4090</v>
       </c>
-    </row>
-    <row r="2042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2042" t="s">
         <v>5</v>
       </c>
@@ -46872,8 +47682,11 @@
       <c r="D2042" s="2" t="s">
         <v>4091</v>
       </c>
-    </row>
-    <row r="2043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2043" t="s">
         <v>5</v>
       </c>
@@ -46886,8 +47699,11 @@
       <c r="D2043" s="2" t="s">
         <v>4092</v>
       </c>
-    </row>
-    <row r="2044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2044" t="s">
         <v>5</v>
       </c>
@@ -46900,8 +47716,11 @@
       <c r="D2044" s="2" t="s">
         <v>4093</v>
       </c>
-    </row>
-    <row r="2045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2045" t="s">
         <v>5</v>
       </c>
@@ -46914,8 +47733,11 @@
       <c r="D2045" s="2" t="s">
         <v>4094</v>
       </c>
-    </row>
-    <row r="2046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2046" t="s">
         <v>5</v>
       </c>
@@ -46928,8 +47750,11 @@
       <c r="D2046" s="2" t="s">
         <v>4095</v>
       </c>
-    </row>
-    <row r="2047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2047" t="s">
         <v>5</v>
       </c>
@@ -46942,8 +47767,11 @@
       <c r="D2047" s="2" t="s">
         <v>4096</v>
       </c>
-    </row>
-    <row r="2048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2048" t="s">
         <v>5</v>
       </c>
@@ -46956,8 +47784,11 @@
       <c r="D2048" s="2" t="s">
         <v>4097</v>
       </c>
-    </row>
-    <row r="2049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2049" t="s">
         <v>5</v>
       </c>
@@ -46970,8 +47801,11 @@
       <c r="D2049" s="2" t="s">
         <v>4098</v>
       </c>
-    </row>
-    <row r="2050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2050" t="s">
         <v>5</v>
       </c>
@@ -46984,8 +47818,11 @@
       <c r="D2050" s="2" t="s">
         <v>4099</v>
       </c>
-    </row>
-    <row r="2051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2051" t="s">
         <v>5</v>
       </c>
@@ -46998,8 +47835,11 @@
       <c r="D2051" s="2" t="s">
         <v>4100</v>
       </c>
-    </row>
-    <row r="2052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2052" t="s">
         <v>5</v>
       </c>
@@ -47012,8 +47852,11 @@
       <c r="D2052" s="2" t="s">
         <v>4101</v>
       </c>
-    </row>
-    <row r="2053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2053" t="s">
         <v>5</v>
       </c>
@@ -47026,8 +47869,11 @@
       <c r="D2053" s="2" t="s">
         <v>4102</v>
       </c>
-    </row>
-    <row r="2054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2054" t="s">
         <v>5</v>
       </c>
@@ -47040,8 +47886,11 @@
       <c r="D2054" s="2" t="s">
         <v>4103</v>
       </c>
-    </row>
-    <row r="2055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2055" t="s">
         <v>5</v>
       </c>
@@ -47054,8 +47903,11 @@
       <c r="D2055" s="2" t="s">
         <v>4104</v>
       </c>
-    </row>
-    <row r="2056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2056" t="s">
         <v>5</v>
       </c>
@@ -47068,8 +47920,11 @@
       <c r="D2056" s="2" t="s">
         <v>4105</v>
       </c>
-    </row>
-    <row r="2057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2057" t="s">
         <v>5</v>
       </c>
@@ -47082,8 +47937,11 @@
       <c r="D2057" s="2" t="s">
         <v>4106</v>
       </c>
-    </row>
-    <row r="2058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2058" t="s">
         <v>5</v>
       </c>
@@ -47096,8 +47954,11 @@
       <c r="D2058" s="2" t="s">
         <v>4107</v>
       </c>
-    </row>
-    <row r="2059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2059" t="s">
         <v>5</v>
       </c>
@@ -47110,8 +47971,11 @@
       <c r="D2059" s="2" t="s">
         <v>4108</v>
       </c>
-    </row>
-    <row r="2060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2060" t="s">
         <v>5</v>
       </c>
@@ -47124,8 +47988,11 @@
       <c r="D2060" s="2" t="s">
         <v>4109</v>
       </c>
-    </row>
-    <row r="2061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2061" t="s">
         <v>5</v>
       </c>
@@ -47138,8 +48005,11 @@
       <c r="D2061" s="2" t="s">
         <v>4110</v>
       </c>
-    </row>
-    <row r="2062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2062" t="s">
         <v>5</v>
       </c>
@@ -47152,8 +48022,11 @@
       <c r="D2062" s="2" t="s">
         <v>4111</v>
       </c>
-    </row>
-    <row r="2063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2062" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2063" t="s">
         <v>5</v>
       </c>
@@ -47166,8 +48039,11 @@
       <c r="D2063" s="2" t="s">
         <v>4112</v>
       </c>
-    </row>
-    <row r="2064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2064" t="s">
         <v>5</v>
       </c>
@@ -47180,8 +48056,11 @@
       <c r="D2064" s="2" t="s">
         <v>4113</v>
       </c>
-    </row>
-    <row r="2065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2065" t="s">
         <v>5</v>
       </c>
@@ -47194,8 +48073,11 @@
       <c r="D2065" s="2" t="s">
         <v>4114</v>
       </c>
-    </row>
-    <row r="2066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2066" t="s">
         <v>5</v>
       </c>
@@ -47208,8 +48090,11 @@
       <c r="D2066" s="2" t="s">
         <v>4115</v>
       </c>
-    </row>
-    <row r="2067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2067" t="s">
         <v>5</v>
       </c>
@@ -47222,8 +48107,11 @@
       <c r="D2067" s="2" t="s">
         <v>4116</v>
       </c>
-    </row>
-    <row r="2068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2068" t="s">
         <v>5</v>
       </c>
@@ -47236,8 +48124,11 @@
       <c r="D2068" s="2" t="s">
         <v>4117</v>
       </c>
-    </row>
-    <row r="2069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2069" t="s">
         <v>5</v>
       </c>
@@ -47250,8 +48141,11 @@
       <c r="D2069" s="2" t="s">
         <v>4118</v>
       </c>
-    </row>
-    <row r="2070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2070" t="s">
         <v>5</v>
       </c>
@@ -47264,8 +48158,11 @@
       <c r="D2070" s="2" t="s">
         <v>4119</v>
       </c>
-    </row>
-    <row r="2071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2071" t="s">
         <v>5</v>
       </c>
@@ -47278,8 +48175,11 @@
       <c r="D2071" s="2" t="s">
         <v>4120</v>
       </c>
-    </row>
-    <row r="2072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2072" t="s">
         <v>5</v>
       </c>
@@ -47292,8 +48192,11 @@
       <c r="D2072" s="2" t="s">
         <v>4121</v>
       </c>
-    </row>
-    <row r="2073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2073" t="s">
         <v>5</v>
       </c>
@@ -47306,8 +48209,11 @@
       <c r="D2073" s="2" t="s">
         <v>4122</v>
       </c>
-    </row>
-    <row r="2074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2074" t="s">
         <v>5</v>
       </c>
@@ -47320,8 +48226,11 @@
       <c r="D2074" s="2" t="s">
         <v>4123</v>
       </c>
-    </row>
-    <row r="2075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2075" t="s">
         <v>5</v>
       </c>
@@ -47334,8 +48243,11 @@
       <c r="D2075" s="2" t="s">
         <v>4124</v>
       </c>
-    </row>
-    <row r="2076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2076" t="s">
         <v>5</v>
       </c>
@@ -47348,8 +48260,11 @@
       <c r="D2076" s="2" t="s">
         <v>4125</v>
       </c>
-    </row>
-    <row r="2077" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2077" t="s">
         <v>5</v>
       </c>
@@ -47362,8 +48277,11 @@
       <c r="D2077" s="2" t="s">
         <v>4126</v>
       </c>
-    </row>
-    <row r="2078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2078" t="s">
         <v>5</v>
       </c>
@@ -47376,8 +48294,11 @@
       <c r="D2078" s="2" t="s">
         <v>4127</v>
       </c>
-    </row>
-    <row r="2079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2079" t="s">
         <v>5</v>
       </c>
@@ -47390,8 +48311,11 @@
       <c r="D2079" s="2" t="s">
         <v>4128</v>
       </c>
-    </row>
-    <row r="2080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2080" t="s">
         <v>5</v>
       </c>
@@ -47404,8 +48328,11 @@
       <c r="D2080" s="2" t="s">
         <v>4129</v>
       </c>
-    </row>
-    <row r="2081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2081" t="s">
         <v>5</v>
       </c>
@@ -47418,8 +48345,11 @@
       <c r="D2081" s="2" t="s">
         <v>4130</v>
       </c>
-    </row>
-    <row r="2082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2082" t="s">
         <v>5</v>
       </c>
@@ -47432,8 +48362,11 @@
       <c r="D2082" s="2" t="s">
         <v>4131</v>
       </c>
-    </row>
-    <row r="2083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2083" t="s">
         <v>5</v>
       </c>
@@ -47446,8 +48379,11 @@
       <c r="D2083" s="2" t="s">
         <v>4132</v>
       </c>
-    </row>
-    <row r="2084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2084" t="s">
         <v>5</v>
       </c>
@@ -47460,8 +48396,11 @@
       <c r="D2084" s="2" t="s">
         <v>3772</v>
       </c>
-    </row>
-    <row r="2085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2085" t="s">
         <v>5</v>
       </c>
@@ -47474,8 +48413,11 @@
       <c r="D2085" s="2" t="s">
         <v>4133</v>
       </c>
-    </row>
-    <row r="2086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2086" t="s">
         <v>5</v>
       </c>
@@ -47488,8 +48430,11 @@
       <c r="D2086" s="2" t="s">
         <v>4134</v>
       </c>
-    </row>
-    <row r="2087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2087" t="s">
         <v>5</v>
       </c>
@@ -47502,8 +48447,11 @@
       <c r="D2087" s="2" t="s">
         <v>4135</v>
       </c>
-    </row>
-    <row r="2088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2088" t="s">
         <v>5</v>
       </c>
@@ -47516,8 +48464,11 @@
       <c r="D2088" s="2" t="s">
         <v>4136</v>
       </c>
-    </row>
-    <row r="2089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2089" t="s">
         <v>5</v>
       </c>
@@ -47530,8 +48481,11 @@
       <c r="D2089" s="2" t="s">
         <v>4137</v>
       </c>
-    </row>
-    <row r="2090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2090" t="s">
         <v>5</v>
       </c>
@@ -47544,8 +48498,11 @@
       <c r="D2090" s="2" t="s">
         <v>4138</v>
       </c>
-    </row>
-    <row r="2091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2091" t="s">
         <v>5</v>
       </c>
@@ -47558,8 +48515,11 @@
       <c r="D2091" s="2" t="s">
         <v>4139</v>
       </c>
-    </row>
-    <row r="2092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2092" t="s">
         <v>5</v>
       </c>
@@ -47572,8 +48532,11 @@
       <c r="D2092" s="2" t="s">
         <v>4140</v>
       </c>
-    </row>
-    <row r="2093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2093" t="s">
         <v>5</v>
       </c>
@@ -47586,8 +48549,11 @@
       <c r="D2093" s="2" t="s">
         <v>4141</v>
       </c>
-    </row>
-    <row r="2094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2094" t="s">
         <v>5</v>
       </c>
@@ -47600,8 +48566,11 @@
       <c r="D2094" s="2" t="s">
         <v>4142</v>
       </c>
-    </row>
-    <row r="2095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2095" t="s">
         <v>5</v>
       </c>
@@ -47614,8 +48583,11 @@
       <c r="D2095" s="2" t="s">
         <v>4143</v>
       </c>
-    </row>
-    <row r="2096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2096" t="s">
         <v>5</v>
       </c>
@@ -47628,8 +48600,11 @@
       <c r="D2096" s="2" t="s">
         <v>4144</v>
       </c>
-    </row>
-    <row r="2097" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2097" t="s">
         <v>5</v>
       </c>
@@ -47642,8 +48617,11 @@
       <c r="D2097" s="2" t="s">
         <v>4145</v>
       </c>
-    </row>
-    <row r="2098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2098" t="s">
         <v>5</v>
       </c>
@@ -47656,8 +48634,11 @@
       <c r="D2098" s="2" t="s">
         <v>4146</v>
       </c>
-    </row>
-    <row r="2099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2099" t="s">
         <v>5</v>
       </c>
@@ -47670,8 +48651,11 @@
       <c r="D2099" s="2" t="s">
         <v>4147</v>
       </c>
-    </row>
-    <row r="2100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2100" t="s">
         <v>5</v>
       </c>
@@ -47684,8 +48668,11 @@
       <c r="D2100" s="2" t="s">
         <v>4148</v>
       </c>
-    </row>
-    <row r="2101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2101" t="s">
         <v>5</v>
       </c>
@@ -47698,8 +48685,11 @@
       <c r="D2101" s="2" t="s">
         <v>4149</v>
       </c>
-    </row>
-    <row r="2102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2102" t="s">
         <v>5</v>
       </c>
@@ -47712,8 +48702,11 @@
       <c r="D2102" s="2" t="s">
         <v>4150</v>
       </c>
-    </row>
-    <row r="2103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E2102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2103" t="s">
         <v>5</v>
       </c>
@@ -47726,8 +48719,11 @@
       <c r="D2103" s="2" t="s">
         <v>4197</v>
       </c>
-    </row>
-    <row r="2104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2104" t="s">
         <v>5</v>
       </c>
@@ -47740,8 +48736,11 @@
       <c r="D2104" s="2" t="s">
         <v>4151</v>
       </c>
-    </row>
-    <row r="2105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2105" t="s">
         <v>5</v>
       </c>
@@ -47754,8 +48753,11 @@
       <c r="D2105" s="2" t="s">
         <v>4152</v>
       </c>
-    </row>
-    <row r="2106" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E2105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A2106" t="s">
         <v>5</v>
       </c>
@@ -47766,8 +48768,11 @@
         <v>3794</v>
       </c>
       <c r="D2106" s="2"/>
-    </row>
-    <row r="2107" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E2106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A2107" t="s">
         <v>5</v>
       </c>
@@ -47778,8 +48783,11 @@
         <v>3795</v>
       </c>
       <c r="D2107" s="2"/>
-    </row>
-    <row r="2108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2108" t="s">
         <v>5</v>
       </c>
@@ -47792,8 +48800,11 @@
       <c r="D2108" s="2" t="s">
         <v>4153</v>
       </c>
-    </row>
-    <row r="2109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2109" t="s">
         <v>5</v>
       </c>
@@ -47806,8 +48817,11 @@
       <c r="D2109" s="2" t="s">
         <v>4154</v>
       </c>
-    </row>
-    <row r="2110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2110" t="s">
         <v>5</v>
       </c>
@@ -47820,8 +48834,11 @@
       <c r="D2110" s="2" t="s">
         <v>4155</v>
       </c>
-    </row>
-    <row r="2111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2111" t="s">
         <v>5</v>
       </c>
@@ -47834,8 +48851,11 @@
       <c r="D2111" s="2" t="s">
         <v>4156</v>
       </c>
-    </row>
-    <row r="2112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2112" t="s">
         <v>5</v>
       </c>
@@ -47848,8 +48868,11 @@
       <c r="D2112" s="2" t="s">
         <v>4157</v>
       </c>
-    </row>
-    <row r="2113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2113" t="s">
         <v>5</v>
       </c>
@@ -47862,8 +48885,11 @@
       <c r="D2113" s="2" t="s">
         <v>4158</v>
       </c>
-    </row>
-    <row r="2114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2114" t="s">
         <v>5</v>
       </c>
@@ -47876,8 +48902,11 @@
       <c r="D2114" s="2" t="s">
         <v>4159</v>
       </c>
-    </row>
-    <row r="2115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2115" t="s">
         <v>5</v>
       </c>
@@ -47890,8 +48919,11 @@
       <c r="D2115" s="2" t="s">
         <v>4160</v>
       </c>
-    </row>
-    <row r="2116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2116" t="s">
         <v>5</v>
       </c>
@@ -47904,8 +48936,11 @@
       <c r="D2116" s="2" t="s">
         <v>4161</v>
       </c>
-    </row>
-    <row r="2117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2117" t="s">
         <v>5</v>
       </c>
@@ -47918,8 +48953,11 @@
       <c r="D2117" s="2" t="s">
         <v>4162</v>
       </c>
-    </row>
-    <row r="2118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2118" t="s">
         <v>5</v>
       </c>
@@ -47932,8 +48970,11 @@
       <c r="D2118" s="2" t="s">
         <v>4163</v>
       </c>
-    </row>
-    <row r="2119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2119" t="s">
         <v>5</v>
       </c>
@@ -47946,8 +48987,11 @@
       <c r="D2119" s="2" t="s">
         <v>4164</v>
       </c>
-    </row>
-    <row r="2120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2120" t="s">
         <v>5</v>
       </c>
@@ -47960,8 +49004,11 @@
       <c r="D2120" s="2" t="s">
         <v>4165</v>
       </c>
-    </row>
-    <row r="2121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2121" t="s">
         <v>5</v>
       </c>
@@ -47974,8 +49021,11 @@
       <c r="D2121" s="2" t="s">
         <v>4166</v>
       </c>
-    </row>
-    <row r="2122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2122" t="s">
         <v>5</v>
       </c>
@@ -47988,8 +49038,11 @@
       <c r="D2122" s="2" t="s">
         <v>4167</v>
       </c>
-    </row>
-    <row r="2123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2123" t="s">
         <v>5</v>
       </c>
@@ -48002,8 +49055,11 @@
       <c r="D2123" s="2" t="s">
         <v>4168</v>
       </c>
-    </row>
-    <row r="2124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2124" t="s">
         <v>5</v>
       </c>
@@ -48016,8 +49072,11 @@
       <c r="D2124" s="2" t="s">
         <v>4169</v>
       </c>
-    </row>
-    <row r="2125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2125" t="s">
         <v>5</v>
       </c>
@@ -48030,8 +49089,11 @@
       <c r="D2125" s="2" t="s">
         <v>4170</v>
       </c>
-    </row>
-    <row r="2126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2126" t="s">
         <v>5</v>
       </c>
@@ -48044,8 +49106,11 @@
       <c r="D2126" s="2" t="s">
         <v>4171</v>
       </c>
-    </row>
-    <row r="2127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2127" t="s">
         <v>5</v>
       </c>
@@ -48058,8 +49123,11 @@
       <c r="D2127" s="2" t="s">
         <v>4172</v>
       </c>
-    </row>
-    <row r="2128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2128" t="s">
         <v>5</v>
       </c>
@@ -48072,8 +49140,11 @@
       <c r="D2128" s="2" t="s">
         <v>4173</v>
       </c>
-    </row>
-    <row r="2129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2129" t="s">
         <v>5</v>
       </c>
@@ -48086,8 +49157,11 @@
       <c r="D2129" s="2" t="s">
         <v>4174</v>
       </c>
-    </row>
-    <row r="2130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2130" t="s">
         <v>5</v>
       </c>
@@ -48100,8 +49174,11 @@
       <c r="D2130" s="2" t="s">
         <v>4175</v>
       </c>
-    </row>
-    <row r="2131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2131" t="s">
         <v>5</v>
       </c>
@@ -48114,8 +49191,11 @@
       <c r="D2131" s="2" t="s">
         <v>4176</v>
       </c>
-    </row>
-    <row r="2132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2132" t="s">
         <v>5</v>
       </c>
@@ -48128,8 +49208,11 @@
       <c r="D2132" s="2" t="s">
         <v>4177</v>
       </c>
-    </row>
-    <row r="2133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2133" t="s">
         <v>5</v>
       </c>
@@ -48142,8 +49225,11 @@
       <c r="D2133" s="2" t="s">
         <v>4178</v>
       </c>
-    </row>
-    <row r="2134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2134" t="s">
         <v>5</v>
       </c>
@@ -48156,8 +49242,11 @@
       <c r="D2134" s="2" t="s">
         <v>4179</v>
       </c>
-    </row>
-    <row r="2135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2135" t="s">
         <v>5</v>
       </c>
@@ -48170,8 +49259,11 @@
       <c r="D2135" s="2" t="s">
         <v>4180</v>
       </c>
-    </row>
-    <row r="2136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2136" t="s">
         <v>5</v>
       </c>
@@ -48184,8 +49276,11 @@
       <c r="D2136" s="2" t="s">
         <v>4181</v>
       </c>
-    </row>
-    <row r="2137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2137" t="s">
         <v>5</v>
       </c>
@@ -48198,8 +49293,11 @@
       <c r="D2137" s="2" t="s">
         <v>4182</v>
       </c>
-    </row>
-    <row r="2138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2138" t="s">
         <v>5</v>
       </c>
@@ -48212,8 +49310,11 @@
       <c r="D2138" s="2" t="s">
         <v>4183</v>
       </c>
-    </row>
-    <row r="2139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2139" t="s">
         <v>5</v>
       </c>
@@ -48226,8 +49327,11 @@
       <c r="D2139" s="2" t="s">
         <v>4184</v>
       </c>
-    </row>
-    <row r="2140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2140" t="s">
         <v>5</v>
       </c>
@@ -48240,8 +49344,11 @@
       <c r="D2140" s="2" t="s">
         <v>4185</v>
       </c>
-    </row>
-    <row r="2141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2141" t="s">
         <v>5</v>
       </c>
@@ -48254,8 +49361,11 @@
       <c r="D2141" s="2" t="s">
         <v>4186</v>
       </c>
-    </row>
-    <row r="2142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2142" t="s">
         <v>5</v>
       </c>
@@ -48268,8 +49378,11 @@
       <c r="D2142" s="2" t="s">
         <v>4187</v>
       </c>
-    </row>
-    <row r="2143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2143" t="s">
         <v>5</v>
       </c>
@@ -48282,8 +49395,11 @@
       <c r="D2143" s="2" t="s">
         <v>4188</v>
       </c>
-    </row>
-    <row r="2144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2144" t="s">
         <v>5</v>
       </c>
@@ -48296,8 +49412,11 @@
       <c r="D2144" s="2" t="s">
         <v>4189</v>
       </c>
-    </row>
-    <row r="2145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2145" t="s">
         <v>5</v>
       </c>
@@ -48310,8 +49429,11 @@
       <c r="D2145" s="2" t="s">
         <v>4190</v>
       </c>
-    </row>
-    <row r="2146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2146" t="s">
         <v>5</v>
       </c>
@@ -48324,8 +49446,11 @@
       <c r="D2146" s="2" t="s">
         <v>4191</v>
       </c>
-    </row>
-    <row r="2147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2147" t="s">
         <v>5</v>
       </c>
@@ -48338,8 +49463,11 @@
       <c r="D2147" s="2" t="s">
         <v>4192</v>
       </c>
-    </row>
-    <row r="2148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2148" t="s">
         <v>5</v>
       </c>
@@ -48352,8 +49480,11 @@
       <c r="D2148" s="2" t="s">
         <v>4193</v>
       </c>
-    </row>
-    <row r="2149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2149" t="s">
         <v>5</v>
       </c>
@@ -48366,8 +49497,11 @@
       <c r="D2149" s="2" t="s">
         <v>4194</v>
       </c>
-    </row>
-    <row r="2150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2150" t="s">
         <v>5</v>
       </c>
@@ -48380,8 +49514,11 @@
       <c r="D2150" s="2" t="s">
         <v>4195</v>
       </c>
-    </row>
-    <row r="2151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2151" t="s">
         <v>5</v>
       </c>
@@ -48394,8 +49531,11 @@
       <c r="D2151" s="2" t="s">
         <v>4196</v>
       </c>
-    </row>
-    <row r="2152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2152" t="s">
         <v>5</v>
       </c>
@@ -48408,8 +49548,11 @@
       <c r="D2152" s="2" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="2153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2153" t="s">
         <v>5</v>
       </c>
@@ -48422,8 +49565,11 @@
       <c r="D2153" s="2" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="2154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2154" s="2" t="s">
         <v>4198</v>
       </c>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\1.2\microweber\src\MicroweberPackages\Translation\resources\lang_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bojidar\git\microweber-12\src\MicroweberPackages\Translation\resources\lang_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55F39E6-4AC5-448E-AD8B-9C35A3706BEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D61FF-1EF8-4AF3-AE34-FCF2975CE515}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="3930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10758" uniqueCount="4199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10771" uniqueCount="4204">
   <si>
     <t>translation_group</t>
   </si>
@@ -11395,35 +11395,12 @@
     <t>Content proxy (experimental)</t>
   </si>
   <si>
-    <t>Warning, this is advanced action and may break your site.
-                Make sure you setup you domain to resolve to your website. &lt;br&gt;
-                After that you can enter your content delivery domain name for example cdn.mydomain.com</t>
-  </si>
-  <si>
     <t>CDN Domain name</t>
   </si>
   <si>
     <t>Privacy policy settings</t>
   </si>
   <si>
-    <t>A Privacy Policy is a legal agreement
-                    that explains what kinds of personal
-                    information you gather from website
-                    visitors, how you use this information,
-                    and how you keep it safe. Examples of
-                    personal information might include:
-                    Names. Dates of birth.</t>
-  </si>
-  <si>
-    <t>The General Data Protection Regulation
-                    (EU) 2016/679 (GDPR) is a regulation in
-                    EU law on data protection and privacy in
-                    the European Union (EU) and the
-                    European Economic Area (EEA).
-                    It also addresses the transfer of personal
-                    data outside the EU and EEA areas.</t>
-  </si>
-  <si>
     <t>Should your users agree to the terms of use of the website</t>
   </si>
   <si>
@@ -12627,21 +12604,52 @@
     <t>Microweber е безплатен конструктор на уеб сайтове с плъзгане и допиране с отворен код и CMS. Той е с лиценз MIT и ние използваме Laravel PHP framework_x005F_x0003_</t>
   </si>
   <si>
-    <t>Предупреждение, това е разширено действие и може да повреди вашия сайт.  Уверете се, че сте настроили вашия домейн, за да разрешите към вашия уебсайт. &lt;br&gt; След това можете да въведете вашето име на домейн за доставка на съдържание, например cdn.mydomain.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">Политиката за поверителност е правно споразумение, което обяснява какви видове лична информация събирате от посетителите на уебсайта, как използвате тази информация и как я пазите в безопасност. Примери за лична информация могат да включват: Имена. Дати на раждане. </t>
+  </si>
+  <si>
+    <t>A Privacy Policy is a legal agreement that explains what kinds of personal information you gather from website visitors, how you use this information, and how you keep it safe. Examples of personal information might include: Names. Dates of birth.</t>
+  </si>
+  <si>
+    <t>The General Data Protection Regulation (EU) 2016/679 (GDPR) is a regulation in EU law on data protection and privacy in the European Union (EU) and the European Economic Area (EEA). It also addresses the transfer of personal data outside the EU and EEA areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общият регламент за защита на данните (ЕС) 2016/679 (GDPR) е регламент в законодателството на ЕС относно защитата на данните и неприкосновеността на личния живот в Европейския съюз (ЕС) и Европейското икономическо пространство (ЕИП). Той също така разглежда трансфера на лични данни извън зоните на ЕС и ЕИП. </t>
+  </si>
+  <si>
+    <t>Warning, this is advanced action and may break your site.</t>
+  </si>
+  <si>
+    <t>Make sure you setup you domain to resolve to your website.</t>
+  </si>
+  <si>
+    <t>After that you can enter your content delivery domain name for example cdn.mydomain.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предупреждение, това е разширено действие и може да повреди вашия сайт. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уверете се, че сте настроили домейна си, за да разрешите към вашия уебсайт. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">След това можете да въведете вашето име на домейн за доставка на съдържание, например cdn.mydomain.com </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -12664,7 +12672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -12672,6 +12680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12976,10 +12985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2154"/>
+  <dimension ref="A1:E2156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2150" workbookViewId="0">
-      <selection activeCell="E2153" sqref="E2153"/>
+    <sheetView tabSelected="1" topLeftCell="C2144" workbookViewId="0">
+      <selection activeCell="D2156" sqref="D2156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43073,7 +43082,7 @@
         <v>3458</v>
       </c>
       <c r="D1770" s="2" t="s">
-        <v>3842</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="1771" spans="1:5" x14ac:dyDescent="0.25">
@@ -43090,7 +43099,7 @@
         <v>3459</v>
       </c>
       <c r="D1772" s="2" t="s">
-        <v>3843</v>
+        <v>3840</v>
       </c>
       <c r="E1772" t="s">
         <v>8</v>
@@ -43107,7 +43116,7 @@
         <v>3460</v>
       </c>
       <c r="D1773" s="2" t="s">
-        <v>3844</v>
+        <v>3841</v>
       </c>
       <c r="E1773" t="s">
         <v>8</v>
@@ -43124,7 +43133,7 @@
         <v>3461</v>
       </c>
       <c r="D1774" s="2" t="s">
-        <v>3845</v>
+        <v>3842</v>
       </c>
       <c r="E1774" t="s">
         <v>8</v>
@@ -43141,7 +43150,7 @@
         <v>3462</v>
       </c>
       <c r="D1775" s="2" t="s">
-        <v>3846</v>
+        <v>3843</v>
       </c>
       <c r="E1775" t="s">
         <v>8</v>
@@ -43175,7 +43184,7 @@
         <v>3464</v>
       </c>
       <c r="D1777" s="2" t="s">
-        <v>3847</v>
+        <v>3844</v>
       </c>
       <c r="E1777" t="s">
         <v>8</v>
@@ -43192,7 +43201,7 @@
         <v>3465</v>
       </c>
       <c r="D1778" s="2" t="s">
-        <v>3848</v>
+        <v>3845</v>
       </c>
       <c r="E1778" t="s">
         <v>8</v>
@@ -43209,7 +43218,7 @@
         <v>3466</v>
       </c>
       <c r="D1779" s="2" t="s">
-        <v>3849</v>
+        <v>3846</v>
       </c>
       <c r="E1779" t="s">
         <v>8</v>
@@ -43226,7 +43235,7 @@
         <v>3467</v>
       </c>
       <c r="D1780" s="2" t="s">
-        <v>3850</v>
+        <v>3847</v>
       </c>
       <c r="E1780" t="s">
         <v>8</v>
@@ -43243,7 +43252,7 @@
         <v>3468</v>
       </c>
       <c r="D1781" s="2" t="s">
-        <v>3851</v>
+        <v>3848</v>
       </c>
       <c r="E1781" t="s">
         <v>8</v>
@@ -43260,7 +43269,7 @@
         <v>3469</v>
       </c>
       <c r="D1782" s="2" t="s">
-        <v>3852</v>
+        <v>3849</v>
       </c>
       <c r="E1782" t="s">
         <v>8</v>
@@ -43277,7 +43286,7 @@
         <v>3470</v>
       </c>
       <c r="D1783" s="2" t="s">
-        <v>3853</v>
+        <v>3850</v>
       </c>
       <c r="E1783" t="s">
         <v>8</v>
@@ -43311,7 +43320,7 @@
         <v>3472</v>
       </c>
       <c r="D1785" s="2" t="s">
-        <v>3854</v>
+        <v>3851</v>
       </c>
       <c r="E1785" t="s">
         <v>8</v>
@@ -43328,7 +43337,7 @@
         <v>3473</v>
       </c>
       <c r="D1786" s="2" t="s">
-        <v>3855</v>
+        <v>3852</v>
       </c>
       <c r="E1786" t="s">
         <v>8</v>
@@ -43345,7 +43354,7 @@
         <v>3474</v>
       </c>
       <c r="D1787" s="2" t="s">
-        <v>3856</v>
+        <v>3853</v>
       </c>
       <c r="E1787" t="s">
         <v>8</v>
@@ -43362,7 +43371,7 @@
         <v>3475</v>
       </c>
       <c r="D1788" s="2" t="s">
-        <v>3857</v>
+        <v>3854</v>
       </c>
       <c r="E1788" t="s">
         <v>8</v>
@@ -43379,7 +43388,7 @@
         <v>3476</v>
       </c>
       <c r="D1789" s="2" t="s">
-        <v>3858</v>
+        <v>3855</v>
       </c>
       <c r="E1789" t="s">
         <v>8</v>
@@ -43396,7 +43405,7 @@
         <v>3477</v>
       </c>
       <c r="D1790" s="2" t="s">
-        <v>3859</v>
+        <v>3856</v>
       </c>
       <c r="E1790" t="s">
         <v>8</v>
@@ -43413,7 +43422,7 @@
         <v>3478</v>
       </c>
       <c r="D1791" s="2" t="s">
-        <v>3860</v>
+        <v>3857</v>
       </c>
       <c r="E1791" t="s">
         <v>8</v>
@@ -43430,7 +43439,7 @@
         <v>3479</v>
       </c>
       <c r="D1792" s="2" t="s">
-        <v>3861</v>
+        <v>3858</v>
       </c>
       <c r="E1792" t="s">
         <v>8</v>
@@ -43447,7 +43456,7 @@
         <v>3480</v>
       </c>
       <c r="D1793" s="2" t="s">
-        <v>3862</v>
+        <v>3859</v>
       </c>
       <c r="E1793" t="s">
         <v>8</v>
@@ -43464,7 +43473,7 @@
         <v>3481</v>
       </c>
       <c r="D1794" s="2" t="s">
-        <v>3863</v>
+        <v>3860</v>
       </c>
       <c r="E1794" t="s">
         <v>8</v>
@@ -43498,7 +43507,7 @@
         <v>3483</v>
       </c>
       <c r="D1796" s="2" t="s">
-        <v>3864</v>
+        <v>3861</v>
       </c>
       <c r="E1796" t="s">
         <v>8</v>
@@ -43532,7 +43541,7 @@
         <v>3485</v>
       </c>
       <c r="D1798" s="2" t="s">
-        <v>3865</v>
+        <v>3862</v>
       </c>
       <c r="E1798" t="s">
         <v>8</v>
@@ -43549,7 +43558,7 @@
         <v>3486</v>
       </c>
       <c r="D1799" s="2" t="s">
-        <v>3866</v>
+        <v>3863</v>
       </c>
       <c r="E1799" t="s">
         <v>8</v>
@@ -43566,7 +43575,7 @@
         <v>3487</v>
       </c>
       <c r="D1800" s="2" t="s">
-        <v>3867</v>
+        <v>3864</v>
       </c>
       <c r="E1800" t="s">
         <v>8</v>
@@ -43583,7 +43592,7 @@
         <v>3488</v>
       </c>
       <c r="D1801" s="2" t="s">
-        <v>3868</v>
+        <v>3865</v>
       </c>
       <c r="E1801" t="s">
         <v>8</v>
@@ -43600,7 +43609,7 @@
         <v>3489</v>
       </c>
       <c r="D1802" s="2" t="s">
-        <v>3869</v>
+        <v>3866</v>
       </c>
       <c r="E1802" t="s">
         <v>8</v>
@@ -43634,7 +43643,7 @@
         <v>3491</v>
       </c>
       <c r="D1804" s="2" t="s">
-        <v>3870</v>
+        <v>3867</v>
       </c>
       <c r="E1804" t="s">
         <v>8</v>
@@ -43651,7 +43660,7 @@
         <v>3492</v>
       </c>
       <c r="D1805" s="2" t="s">
-        <v>3871</v>
+        <v>3868</v>
       </c>
       <c r="E1805" t="s">
         <v>8</v>
@@ -43668,7 +43677,7 @@
         <v>3493</v>
       </c>
       <c r="D1806" s="2" t="s">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="E1806" t="s">
         <v>8</v>
@@ -43685,7 +43694,7 @@
         <v>3494</v>
       </c>
       <c r="D1807" s="2" t="s">
-        <v>3873</v>
+        <v>3870</v>
       </c>
       <c r="E1807" t="s">
         <v>8</v>
@@ -43702,7 +43711,7 @@
         <v>3495</v>
       </c>
       <c r="D1808" s="2" t="s">
-        <v>3874</v>
+        <v>3871</v>
       </c>
       <c r="E1808" t="s">
         <v>8</v>
@@ -43719,7 +43728,7 @@
         <v>3496</v>
       </c>
       <c r="D1809" s="2" t="s">
-        <v>3875</v>
+        <v>3872</v>
       </c>
       <c r="E1809" t="s">
         <v>8</v>
@@ -43736,7 +43745,7 @@
         <v>3497</v>
       </c>
       <c r="D1810" s="2" t="s">
-        <v>3876</v>
+        <v>3873</v>
       </c>
       <c r="E1810" t="s">
         <v>8</v>
@@ -43753,7 +43762,7 @@
         <v>3498</v>
       </c>
       <c r="D1811" s="2" t="s">
-        <v>3877</v>
+        <v>3874</v>
       </c>
       <c r="E1811" t="s">
         <v>8</v>
@@ -43770,7 +43779,7 @@
         <v>3499</v>
       </c>
       <c r="D1812" s="2" t="s">
-        <v>3878</v>
+        <v>3875</v>
       </c>
       <c r="E1812" t="s">
         <v>8</v>
@@ -43787,7 +43796,7 @@
         <v>3500</v>
       </c>
       <c r="D1813" s="2" t="s">
-        <v>3879</v>
+        <v>3876</v>
       </c>
       <c r="E1813" t="s">
         <v>8</v>
@@ -43804,7 +43813,7 @@
         <v>3501</v>
       </c>
       <c r="D1814" s="2" t="s">
-        <v>3880</v>
+        <v>3877</v>
       </c>
       <c r="E1814" t="s">
         <v>8</v>
@@ -43821,7 +43830,7 @@
         <v>3502</v>
       </c>
       <c r="D1815" s="2" t="s">
-        <v>3881</v>
+        <v>3878</v>
       </c>
       <c r="E1815" t="s">
         <v>8</v>
@@ -43838,7 +43847,7 @@
         <v>3503</v>
       </c>
       <c r="D1816" s="2" t="s">
-        <v>3882</v>
+        <v>3879</v>
       </c>
       <c r="E1816" t="s">
         <v>8</v>
@@ -43855,7 +43864,7 @@
         <v>3504</v>
       </c>
       <c r="D1817" s="2" t="s">
-        <v>3883</v>
+        <v>3880</v>
       </c>
       <c r="E1817" t="s">
         <v>8</v>
@@ -43872,7 +43881,7 @@
         <v>3505</v>
       </c>
       <c r="D1818" s="2" t="s">
-        <v>3884</v>
+        <v>3881</v>
       </c>
       <c r="E1818" t="s">
         <v>8</v>
@@ -43889,7 +43898,7 @@
         <v>3506</v>
       </c>
       <c r="D1819" s="2" t="s">
-        <v>3885</v>
+        <v>3882</v>
       </c>
       <c r="E1819" t="s">
         <v>8</v>
@@ -43906,7 +43915,7 @@
         <v>3507</v>
       </c>
       <c r="D1820" s="2" t="s">
-        <v>3886</v>
+        <v>3883</v>
       </c>
       <c r="E1820" t="s">
         <v>8</v>
@@ -43940,7 +43949,7 @@
         <v>3509</v>
       </c>
       <c r="D1822" s="2" t="s">
-        <v>3887</v>
+        <v>3884</v>
       </c>
       <c r="E1822" t="s">
         <v>8</v>
@@ -43957,7 +43966,7 @@
         <v>3510</v>
       </c>
       <c r="D1823" s="2" t="s">
-        <v>3888</v>
+        <v>3885</v>
       </c>
       <c r="E1823" t="s">
         <v>8</v>
@@ -43974,7 +43983,7 @@
         <v>3511</v>
       </c>
       <c r="D1824" s="2" t="s">
-        <v>3889</v>
+        <v>3886</v>
       </c>
       <c r="E1824" t="s">
         <v>8</v>
@@ -43991,7 +44000,7 @@
         <v>3512</v>
       </c>
       <c r="D1825" s="2" t="s">
-        <v>3890</v>
+        <v>3887</v>
       </c>
       <c r="E1825" t="s">
         <v>8</v>
@@ -44025,7 +44034,7 @@
         <v>3514</v>
       </c>
       <c r="D1827" s="2" t="s">
-        <v>3891</v>
+        <v>3888</v>
       </c>
       <c r="E1827" t="s">
         <v>8</v>
@@ -44042,7 +44051,7 @@
         <v>3515</v>
       </c>
       <c r="D1828" s="2" t="s">
-        <v>3892</v>
+        <v>3889</v>
       </c>
       <c r="E1828" t="s">
         <v>8</v>
@@ -44059,7 +44068,7 @@
         <v>3516</v>
       </c>
       <c r="D1829" s="2" t="s">
-        <v>3893</v>
+        <v>3890</v>
       </c>
       <c r="E1829" t="s">
         <v>8</v>
@@ -44076,7 +44085,7 @@
         <v>3517</v>
       </c>
       <c r="D1830" s="2" t="s">
-        <v>3894</v>
+        <v>3891</v>
       </c>
       <c r="E1830" t="s">
         <v>8</v>
@@ -44093,7 +44102,7 @@
         <v>3518</v>
       </c>
       <c r="D1831" s="2" t="s">
-        <v>3895</v>
+        <v>3892</v>
       </c>
       <c r="E1831" t="s">
         <v>8</v>
@@ -44110,7 +44119,7 @@
         <v>3519</v>
       </c>
       <c r="D1832" s="2" t="s">
-        <v>3896</v>
+        <v>3893</v>
       </c>
       <c r="E1832" t="s">
         <v>8</v>
@@ -44144,7 +44153,7 @@
         <v>3521</v>
       </c>
       <c r="D1834" s="2" t="s">
-        <v>3897</v>
+        <v>3894</v>
       </c>
       <c r="E1834" t="s">
         <v>8</v>
@@ -44161,7 +44170,7 @@
         <v>3522</v>
       </c>
       <c r="D1835" s="2" t="s">
-        <v>3898</v>
+        <v>3895</v>
       </c>
       <c r="E1835" t="s">
         <v>8</v>
@@ -44178,7 +44187,7 @@
         <v>3523</v>
       </c>
       <c r="D1836" s="2" t="s">
-        <v>3899</v>
+        <v>3896</v>
       </c>
       <c r="E1836" t="s">
         <v>8</v>
@@ -44195,7 +44204,7 @@
         <v>3524</v>
       </c>
       <c r="D1837" s="2" t="s">
-        <v>3900</v>
+        <v>3897</v>
       </c>
       <c r="E1837" t="s">
         <v>8</v>
@@ -44212,7 +44221,7 @@
         <v>3525</v>
       </c>
       <c r="D1838" s="2" t="s">
-        <v>3901</v>
+        <v>3898</v>
       </c>
       <c r="E1838" t="s">
         <v>8</v>
@@ -44229,7 +44238,7 @@
         <v>3526</v>
       </c>
       <c r="D1839" s="2" t="s">
-        <v>3902</v>
+        <v>3899</v>
       </c>
       <c r="E1839" t="s">
         <v>8</v>
@@ -44246,7 +44255,7 @@
         <v>3527</v>
       </c>
       <c r="D1840" s="2" t="s">
-        <v>3903</v>
+        <v>3900</v>
       </c>
       <c r="E1840" t="s">
         <v>8</v>
@@ -44263,7 +44272,7 @@
         <v>3528</v>
       </c>
       <c r="D1841" s="2" t="s">
-        <v>3904</v>
+        <v>3901</v>
       </c>
       <c r="E1841" t="s">
         <v>8</v>
@@ -44280,7 +44289,7 @@
         <v>3529</v>
       </c>
       <c r="D1842" s="2" t="s">
-        <v>3905</v>
+        <v>3902</v>
       </c>
       <c r="E1842" t="s">
         <v>8</v>
@@ -44297,7 +44306,7 @@
         <v>3530</v>
       </c>
       <c r="D1843" s="2" t="s">
-        <v>3906</v>
+        <v>3903</v>
       </c>
       <c r="E1843" t="s">
         <v>8</v>
@@ -44314,7 +44323,7 @@
         <v>3531</v>
       </c>
       <c r="D1844" s="2" t="s">
-        <v>3907</v>
+        <v>3904</v>
       </c>
       <c r="E1844" t="s">
         <v>8</v>
@@ -44331,7 +44340,7 @@
         <v>3532</v>
       </c>
       <c r="D1845" s="2" t="s">
-        <v>3908</v>
+        <v>3905</v>
       </c>
       <c r="E1845" t="s">
         <v>8</v>
@@ -44348,7 +44357,7 @@
         <v>3533</v>
       </c>
       <c r="D1846" s="2" t="s">
-        <v>3909</v>
+        <v>3906</v>
       </c>
       <c r="E1846" t="s">
         <v>8</v>
@@ -44365,7 +44374,7 @@
         <v>3534</v>
       </c>
       <c r="D1847" s="2" t="s">
-        <v>3910</v>
+        <v>3907</v>
       </c>
       <c r="E1847" t="s">
         <v>8</v>
@@ -44382,7 +44391,7 @@
         <v>3535</v>
       </c>
       <c r="D1848" s="2" t="s">
-        <v>3911</v>
+        <v>3908</v>
       </c>
       <c r="E1848" t="s">
         <v>8</v>
@@ -44399,7 +44408,7 @@
         <v>3536</v>
       </c>
       <c r="D1849" s="2" t="s">
-        <v>3912</v>
+        <v>3909</v>
       </c>
       <c r="E1849" t="s">
         <v>8</v>
@@ -44416,7 +44425,7 @@
         <v>3537</v>
       </c>
       <c r="D1850" s="2" t="s">
-        <v>3913</v>
+        <v>3910</v>
       </c>
       <c r="E1850" t="s">
         <v>8</v>
@@ -44433,7 +44442,7 @@
         <v>3538</v>
       </c>
       <c r="D1851" s="2" t="s">
-        <v>3914</v>
+        <v>3911</v>
       </c>
       <c r="E1851" t="s">
         <v>8</v>
@@ -44450,7 +44459,7 @@
         <v>3539</v>
       </c>
       <c r="D1852" s="2" t="s">
-        <v>3915</v>
+        <v>3912</v>
       </c>
       <c r="E1852" t="s">
         <v>8</v>
@@ -44467,7 +44476,7 @@
         <v>3540</v>
       </c>
       <c r="D1853" s="2" t="s">
-        <v>3916</v>
+        <v>3913</v>
       </c>
       <c r="E1853" t="s">
         <v>8</v>
@@ -44484,7 +44493,7 @@
         <v>3541</v>
       </c>
       <c r="D1854" s="2" t="s">
-        <v>3917</v>
+        <v>3914</v>
       </c>
       <c r="E1854" t="s">
         <v>8</v>
@@ -44501,7 +44510,7 @@
         <v>3542</v>
       </c>
       <c r="D1855" s="2" t="s">
-        <v>3918</v>
+        <v>3915</v>
       </c>
       <c r="E1855" t="s">
         <v>8</v>
@@ -44518,7 +44527,7 @@
         <v>3543</v>
       </c>
       <c r="D1856" s="2" t="s">
-        <v>3919</v>
+        <v>3916</v>
       </c>
       <c r="E1856" t="s">
         <v>8</v>
@@ -44535,7 +44544,7 @@
         <v>3544</v>
       </c>
       <c r="D1857" s="2" t="s">
-        <v>3920</v>
+        <v>3917</v>
       </c>
       <c r="E1857" t="s">
         <v>8</v>
@@ -44552,7 +44561,7 @@
         <v>3545</v>
       </c>
       <c r="D1858" s="2" t="s">
-        <v>3921</v>
+        <v>3918</v>
       </c>
       <c r="E1858" t="s">
         <v>8</v>
@@ -44569,7 +44578,7 @@
         <v>3546</v>
       </c>
       <c r="D1859" s="2" t="s">
-        <v>3922</v>
+        <v>3919</v>
       </c>
       <c r="E1859" t="s">
         <v>8</v>
@@ -44586,7 +44595,7 @@
         <v>3547</v>
       </c>
       <c r="D1860" s="2" t="s">
-        <v>3923</v>
+        <v>3920</v>
       </c>
       <c r="E1860" t="s">
         <v>8</v>
@@ -44603,7 +44612,7 @@
         <v>3548</v>
       </c>
       <c r="D1861" s="2" t="s">
-        <v>3924</v>
+        <v>3921</v>
       </c>
       <c r="E1861" t="s">
         <v>8</v>
@@ -44620,7 +44629,7 @@
         <v>3549</v>
       </c>
       <c r="D1862" s="2" t="s">
-        <v>3925</v>
+        <v>3922</v>
       </c>
       <c r="E1862" t="s">
         <v>8</v>
@@ -44654,7 +44663,7 @@
         <v>3551</v>
       </c>
       <c r="D1864" s="2" t="s">
-        <v>3926</v>
+        <v>3923</v>
       </c>
       <c r="E1864" t="s">
         <v>8</v>
@@ -44671,7 +44680,7 @@
         <v>3552</v>
       </c>
       <c r="D1865" s="2" t="s">
-        <v>3927</v>
+        <v>3924</v>
       </c>
       <c r="E1865" t="s">
         <v>8</v>
@@ -44688,7 +44697,7 @@
         <v>3553</v>
       </c>
       <c r="D1866" s="2" t="s">
-        <v>3928</v>
+        <v>3925</v>
       </c>
       <c r="E1866" t="s">
         <v>8</v>
@@ -44705,7 +44714,7 @@
         <v>3554</v>
       </c>
       <c r="D1867" s="2" t="s">
-        <v>3929</v>
+        <v>3926</v>
       </c>
       <c r="E1867" t="s">
         <v>8</v>
@@ -44722,7 +44731,7 @@
         <v>3555</v>
       </c>
       <c r="D1868" s="2" t="s">
-        <v>3930</v>
+        <v>3927</v>
       </c>
       <c r="E1868" t="s">
         <v>8</v>
@@ -44739,7 +44748,7 @@
         <v>3556</v>
       </c>
       <c r="D1869" s="2" t="s">
-        <v>3931</v>
+        <v>3928</v>
       </c>
       <c r="E1869" t="s">
         <v>8</v>
@@ -44756,7 +44765,7 @@
         <v>3557</v>
       </c>
       <c r="D1870" s="2" t="s">
-        <v>3932</v>
+        <v>3929</v>
       </c>
       <c r="E1870" t="s">
         <v>8</v>
@@ -44773,7 +44782,7 @@
         <v>3558</v>
       </c>
       <c r="D1871" s="2" t="s">
-        <v>3933</v>
+        <v>3930</v>
       </c>
       <c r="E1871" t="s">
         <v>8</v>
@@ -44790,7 +44799,7 @@
         <v>3559</v>
       </c>
       <c r="D1872" s="2" t="s">
-        <v>3934</v>
+        <v>3931</v>
       </c>
       <c r="E1872" t="s">
         <v>8</v>
@@ -44807,7 +44816,7 @@
         <v>3560</v>
       </c>
       <c r="D1873" s="2" t="s">
-        <v>3935</v>
+        <v>3932</v>
       </c>
       <c r="E1873" t="s">
         <v>8</v>
@@ -44858,7 +44867,7 @@
         <v>3563</v>
       </c>
       <c r="D1876" s="2" t="s">
-        <v>3936</v>
+        <v>3933</v>
       </c>
       <c r="E1876" t="s">
         <v>8</v>
@@ -44875,7 +44884,7 @@
         <v>3564</v>
       </c>
       <c r="D1877" s="2" t="s">
-        <v>3937</v>
+        <v>3934</v>
       </c>
       <c r="E1877" t="s">
         <v>8</v>
@@ -44892,7 +44901,7 @@
         <v>3565</v>
       </c>
       <c r="D1878" s="2" t="s">
-        <v>3938</v>
+        <v>3935</v>
       </c>
       <c r="E1878" t="s">
         <v>8</v>
@@ -44943,7 +44952,7 @@
         <v>3568</v>
       </c>
       <c r="D1881" s="2" t="s">
-        <v>3939</v>
+        <v>3936</v>
       </c>
       <c r="E1881" t="s">
         <v>8</v>
@@ -44977,7 +44986,7 @@
         <v>3570</v>
       </c>
       <c r="D1883" s="2" t="s">
-        <v>3940</v>
+        <v>3937</v>
       </c>
       <c r="E1883" t="s">
         <v>8</v>
@@ -44994,7 +45003,7 @@
         <v>3571</v>
       </c>
       <c r="D1884" s="2" t="s">
-        <v>3941</v>
+        <v>3938</v>
       </c>
       <c r="E1884" t="s">
         <v>8</v>
@@ -45028,7 +45037,7 @@
         <v>3573</v>
       </c>
       <c r="D1886" s="2" t="s">
-        <v>3942</v>
+        <v>3939</v>
       </c>
       <c r="E1886" t="s">
         <v>8</v>
@@ -45045,7 +45054,7 @@
         <v>3574</v>
       </c>
       <c r="D1887" s="2" t="s">
-        <v>3943</v>
+        <v>3940</v>
       </c>
       <c r="E1887" t="s">
         <v>8</v>
@@ -45062,7 +45071,7 @@
         <v>3575</v>
       </c>
       <c r="D1888" s="2" t="s">
-        <v>3944</v>
+        <v>3941</v>
       </c>
       <c r="E1888" t="s">
         <v>8</v>
@@ -45079,7 +45088,7 @@
         <v>3576</v>
       </c>
       <c r="D1889" s="2" t="s">
-        <v>3945</v>
+        <v>3942</v>
       </c>
       <c r="E1889" t="s">
         <v>8</v>
@@ -45096,7 +45105,7 @@
         <v>3577</v>
       </c>
       <c r="D1890" s="2" t="s">
-        <v>3946</v>
+        <v>3943</v>
       </c>
       <c r="E1890" t="s">
         <v>8</v>
@@ -45113,7 +45122,7 @@
         <v>3578</v>
       </c>
       <c r="D1891" s="2" t="s">
-        <v>3947</v>
+        <v>3944</v>
       </c>
       <c r="E1891" t="s">
         <v>8</v>
@@ -45130,7 +45139,7 @@
         <v>3579</v>
       </c>
       <c r="D1892" s="2" t="s">
-        <v>3948</v>
+        <v>3945</v>
       </c>
       <c r="E1892" t="s">
         <v>8</v>
@@ -45147,7 +45156,7 @@
         <v>3580</v>
       </c>
       <c r="D1893" s="2" t="s">
-        <v>3949</v>
+        <v>3946</v>
       </c>
       <c r="E1893" t="s">
         <v>8</v>
@@ -45164,7 +45173,7 @@
         <v>3581</v>
       </c>
       <c r="D1894" s="2" t="s">
-        <v>3950</v>
+        <v>3947</v>
       </c>
       <c r="E1894" t="s">
         <v>8</v>
@@ -45181,7 +45190,7 @@
         <v>3582</v>
       </c>
       <c r="D1895" s="2" t="s">
-        <v>3951</v>
+        <v>3948</v>
       </c>
       <c r="E1895" t="s">
         <v>8</v>
@@ -45215,7 +45224,7 @@
         <v>3584</v>
       </c>
       <c r="D1897" s="2" t="s">
-        <v>3952</v>
+        <v>3949</v>
       </c>
       <c r="E1897" t="s">
         <v>8</v>
@@ -45232,7 +45241,7 @@
         <v>3585</v>
       </c>
       <c r="D1898" s="2" t="s">
-        <v>3953</v>
+        <v>3950</v>
       </c>
       <c r="E1898" t="s">
         <v>8</v>
@@ -45249,7 +45258,7 @@
         <v>3586</v>
       </c>
       <c r="D1899" s="2" t="s">
-        <v>3954</v>
+        <v>3951</v>
       </c>
       <c r="E1899" t="s">
         <v>8</v>
@@ -45266,7 +45275,7 @@
         <v>3587</v>
       </c>
       <c r="D1900" s="2" t="s">
-        <v>3955</v>
+        <v>3952</v>
       </c>
       <c r="E1900" t="s">
         <v>8</v>
@@ -45283,7 +45292,7 @@
         <v>3588</v>
       </c>
       <c r="D1901" s="2" t="s">
-        <v>3956</v>
+        <v>3953</v>
       </c>
       <c r="E1901" t="s">
         <v>8</v>
@@ -45300,7 +45309,7 @@
         <v>3589</v>
       </c>
       <c r="D1902" s="2" t="s">
-        <v>3957</v>
+        <v>3954</v>
       </c>
       <c r="E1902" t="s">
         <v>8</v>
@@ -45317,7 +45326,7 @@
         <v>3590</v>
       </c>
       <c r="D1903" s="2" t="s">
-        <v>3958</v>
+        <v>3955</v>
       </c>
       <c r="E1903" t="s">
         <v>8</v>
@@ -45351,7 +45360,7 @@
         <v>3592</v>
       </c>
       <c r="D1905" s="2" t="s">
-        <v>3959</v>
+        <v>3956</v>
       </c>
       <c r="E1905" t="s">
         <v>8</v>
@@ -45368,7 +45377,7 @@
         <v>3593</v>
       </c>
       <c r="D1906" s="2" t="s">
-        <v>3960</v>
+        <v>3957</v>
       </c>
       <c r="E1906" t="s">
         <v>8</v>
@@ -45385,7 +45394,7 @@
         <v>3594</v>
       </c>
       <c r="D1907" s="2" t="s">
-        <v>3961</v>
+        <v>3958</v>
       </c>
       <c r="E1907" t="s">
         <v>8</v>
@@ -45402,7 +45411,7 @@
         <v>3595</v>
       </c>
       <c r="D1908" s="2" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="E1908" t="s">
         <v>8</v>
@@ -45419,7 +45428,7 @@
         <v>3596</v>
       </c>
       <c r="D1909" s="2" t="s">
-        <v>3963</v>
+        <v>3960</v>
       </c>
       <c r="E1909" t="s">
         <v>8</v>
@@ -45436,7 +45445,7 @@
         <v>3597</v>
       </c>
       <c r="D1910" s="2" t="s">
-        <v>3964</v>
+        <v>3961</v>
       </c>
       <c r="E1910" t="s">
         <v>8</v>
@@ -45453,7 +45462,7 @@
         <v>3598</v>
       </c>
       <c r="D1911" s="2" t="s">
-        <v>3965</v>
+        <v>3962</v>
       </c>
       <c r="E1911" t="s">
         <v>8</v>
@@ -45470,7 +45479,7 @@
         <v>3599</v>
       </c>
       <c r="D1912" s="2" t="s">
-        <v>3966</v>
+        <v>3963</v>
       </c>
       <c r="E1912" t="s">
         <v>8</v>
@@ -45487,7 +45496,7 @@
         <v>3600</v>
       </c>
       <c r="D1913" s="2" t="s">
-        <v>3967</v>
+        <v>3964</v>
       </c>
       <c r="E1913" t="s">
         <v>8</v>
@@ -45504,7 +45513,7 @@
         <v>3601</v>
       </c>
       <c r="D1914" s="2" t="s">
-        <v>3968</v>
+        <v>3965</v>
       </c>
       <c r="E1914" t="s">
         <v>8</v>
@@ -45521,7 +45530,7 @@
         <v>3602</v>
       </c>
       <c r="D1915" s="2" t="s">
-        <v>3969</v>
+        <v>3966</v>
       </c>
       <c r="E1915" t="s">
         <v>8</v>
@@ -45538,7 +45547,7 @@
         <v>3603</v>
       </c>
       <c r="D1916" s="2" t="s">
-        <v>3970</v>
+        <v>3967</v>
       </c>
       <c r="E1916" t="s">
         <v>8</v>
@@ -45555,7 +45564,7 @@
         <v>3604</v>
       </c>
       <c r="D1917" s="2" t="s">
-        <v>3971</v>
+        <v>3968</v>
       </c>
       <c r="E1917" t="s">
         <v>8</v>
@@ -45572,7 +45581,7 @@
         <v>3605</v>
       </c>
       <c r="D1918" s="2" t="s">
-        <v>3972</v>
+        <v>3969</v>
       </c>
       <c r="E1918" t="s">
         <v>8</v>
@@ -45589,7 +45598,7 @@
         <v>3606</v>
       </c>
       <c r="D1919" s="2" t="s">
-        <v>3973</v>
+        <v>3970</v>
       </c>
       <c r="E1919" t="s">
         <v>8</v>
@@ -45606,7 +45615,7 @@
         <v>3607</v>
       </c>
       <c r="D1920" s="2" t="s">
-        <v>3974</v>
+        <v>3971</v>
       </c>
       <c r="E1920" t="s">
         <v>8</v>
@@ -45623,7 +45632,7 @@
         <v>3608</v>
       </c>
       <c r="D1921" s="2" t="s">
-        <v>3975</v>
+        <v>3972</v>
       </c>
       <c r="E1921" t="s">
         <v>8</v>
@@ -45640,7 +45649,7 @@
         <v>3609</v>
       </c>
       <c r="D1922" s="2" t="s">
-        <v>3976</v>
+        <v>3973</v>
       </c>
       <c r="E1922" t="s">
         <v>8</v>
@@ -45657,7 +45666,7 @@
         <v>3610</v>
       </c>
       <c r="D1923" s="2" t="s">
-        <v>3977</v>
+        <v>3974</v>
       </c>
       <c r="E1923" t="s">
         <v>8</v>
@@ -45674,7 +45683,7 @@
         <v>3611</v>
       </c>
       <c r="D1924" s="2" t="s">
-        <v>3978</v>
+        <v>3975</v>
       </c>
       <c r="E1924" t="s">
         <v>8</v>
@@ -45691,7 +45700,7 @@
         <v>3612</v>
       </c>
       <c r="D1925" s="2" t="s">
-        <v>3979</v>
+        <v>3976</v>
       </c>
       <c r="E1925" t="s">
         <v>8</v>
@@ -45708,7 +45717,7 @@
         <v>3613</v>
       </c>
       <c r="D1926" s="2" t="s">
-        <v>3980</v>
+        <v>3977</v>
       </c>
       <c r="E1926" t="s">
         <v>8</v>
@@ -45725,7 +45734,7 @@
         <v>3614</v>
       </c>
       <c r="D1927" s="2" t="s">
-        <v>3981</v>
+        <v>3978</v>
       </c>
       <c r="E1927" t="s">
         <v>8</v>
@@ -45742,7 +45751,7 @@
         <v>3615</v>
       </c>
       <c r="D1928" s="2" t="s">
-        <v>3982</v>
+        <v>3979</v>
       </c>
       <c r="E1928" t="s">
         <v>8</v>
@@ -45759,7 +45768,7 @@
         <v>3616</v>
       </c>
       <c r="D1929" s="2" t="s">
-        <v>3983</v>
+        <v>3980</v>
       </c>
       <c r="E1929" t="s">
         <v>8</v>
@@ -45776,7 +45785,7 @@
         <v>3617</v>
       </c>
       <c r="D1930" s="2" t="s">
-        <v>3984</v>
+        <v>3981</v>
       </c>
       <c r="E1930" t="s">
         <v>8</v>
@@ -45793,7 +45802,7 @@
         <v>3618</v>
       </c>
       <c r="D1931" s="2" t="s">
-        <v>3985</v>
+        <v>3982</v>
       </c>
       <c r="E1931" t="s">
         <v>8</v>
@@ -45810,7 +45819,7 @@
         <v>3619</v>
       </c>
       <c r="D1932" s="2" t="s">
-        <v>3986</v>
+        <v>3983</v>
       </c>
       <c r="E1932" t="s">
         <v>8</v>
@@ -45827,7 +45836,7 @@
         <v>3620</v>
       </c>
       <c r="D1933" s="2" t="s">
-        <v>3987</v>
+        <v>3984</v>
       </c>
       <c r="E1933" t="s">
         <v>8</v>
@@ -45844,7 +45853,7 @@
         <v>3621</v>
       </c>
       <c r="D1934" s="2" t="s">
-        <v>3884</v>
+        <v>3881</v>
       </c>
       <c r="E1934" t="s">
         <v>8</v>
@@ -45861,7 +45870,7 @@
         <v>3622</v>
       </c>
       <c r="D1935" s="2" t="s">
-        <v>3988</v>
+        <v>3985</v>
       </c>
       <c r="E1935" t="s">
         <v>8</v>
@@ -45878,7 +45887,7 @@
         <v>3623</v>
       </c>
       <c r="D1936" s="2" t="s">
-        <v>3989</v>
+        <v>3986</v>
       </c>
       <c r="E1936" t="s">
         <v>8</v>
@@ -45895,7 +45904,7 @@
         <v>3624</v>
       </c>
       <c r="D1937" s="2" t="s">
-        <v>3990</v>
+        <v>3987</v>
       </c>
       <c r="E1937" t="s">
         <v>8</v>
@@ -45912,7 +45921,7 @@
         <v>3625</v>
       </c>
       <c r="D1938" s="2" t="s">
-        <v>3991</v>
+        <v>3988</v>
       </c>
       <c r="E1938" t="s">
         <v>8</v>
@@ -45929,7 +45938,7 @@
         <v>3626</v>
       </c>
       <c r="D1939" s="2" t="s">
-        <v>3992</v>
+        <v>3989</v>
       </c>
       <c r="E1939" t="s">
         <v>8</v>
@@ -45946,7 +45955,7 @@
         <v>3627</v>
       </c>
       <c r="D1940" s="2" t="s">
-        <v>3993</v>
+        <v>3990</v>
       </c>
       <c r="E1940" t="s">
         <v>8</v>
@@ -45963,7 +45972,7 @@
         <v>3628</v>
       </c>
       <c r="D1941" s="2" t="s">
-        <v>3994</v>
+        <v>3991</v>
       </c>
       <c r="E1941" t="s">
         <v>8</v>
@@ -45980,7 +45989,7 @@
         <v>3629</v>
       </c>
       <c r="D1942" s="2" t="s">
-        <v>3995</v>
+        <v>3992</v>
       </c>
       <c r="E1942" t="s">
         <v>8</v>
@@ -45997,7 +46006,7 @@
         <v>3630</v>
       </c>
       <c r="D1943" s="2" t="s">
-        <v>3996</v>
+        <v>3993</v>
       </c>
       <c r="E1943" t="s">
         <v>8</v>
@@ -46014,7 +46023,7 @@
         <v>3631</v>
       </c>
       <c r="D1944" s="2" t="s">
-        <v>3997</v>
+        <v>3994</v>
       </c>
       <c r="E1944" t="s">
         <v>8</v>
@@ -46031,7 +46040,7 @@
         <v>3632</v>
       </c>
       <c r="D1945" s="2" t="s">
-        <v>3998</v>
+        <v>3995</v>
       </c>
       <c r="E1945" t="s">
         <v>8</v>
@@ -46048,7 +46057,7 @@
         <v>3633</v>
       </c>
       <c r="D1946" s="2" t="s">
-        <v>3999</v>
+        <v>3996</v>
       </c>
       <c r="E1946" t="s">
         <v>8</v>
@@ -46065,7 +46074,7 @@
         <v>3634</v>
       </c>
       <c r="D1947" s="2" t="s">
-        <v>4000</v>
+        <v>3997</v>
       </c>
       <c r="E1947" t="s">
         <v>8</v>
@@ -46082,7 +46091,7 @@
         <v>3635</v>
       </c>
       <c r="D1948" s="2" t="s">
-        <v>4001</v>
+        <v>3998</v>
       </c>
       <c r="E1948" t="s">
         <v>8</v>
@@ -46099,7 +46108,7 @@
         <v>3636</v>
       </c>
       <c r="D1949" s="2" t="s">
-        <v>4002</v>
+        <v>3999</v>
       </c>
       <c r="E1949" t="s">
         <v>8</v>
@@ -46116,7 +46125,7 @@
         <v>3637</v>
       </c>
       <c r="D1950" s="2" t="s">
-        <v>4003</v>
+        <v>4000</v>
       </c>
       <c r="E1950" t="s">
         <v>8</v>
@@ -46133,7 +46142,7 @@
         <v>3638</v>
       </c>
       <c r="D1951" s="2" t="s">
-        <v>4004</v>
+        <v>4001</v>
       </c>
       <c r="E1951" t="s">
         <v>8</v>
@@ -46150,7 +46159,7 @@
         <v>3639</v>
       </c>
       <c r="D1952" s="2" t="s">
-        <v>4005</v>
+        <v>4002</v>
       </c>
       <c r="E1952" t="s">
         <v>8</v>
@@ -46167,7 +46176,7 @@
         <v>3640</v>
       </c>
       <c r="D1953" s="2" t="s">
-        <v>4006</v>
+        <v>4003</v>
       </c>
       <c r="E1953" t="s">
         <v>8</v>
@@ -46184,7 +46193,7 @@
         <v>3641</v>
       </c>
       <c r="D1954" s="2" t="s">
-        <v>4007</v>
+        <v>4004</v>
       </c>
       <c r="E1954" t="s">
         <v>8</v>
@@ -46201,7 +46210,7 @@
         <v>3642</v>
       </c>
       <c r="D1955" s="2" t="s">
-        <v>4008</v>
+        <v>4005</v>
       </c>
       <c r="E1955" t="s">
         <v>8</v>
@@ -46218,7 +46227,7 @@
         <v>3643</v>
       </c>
       <c r="D1956" s="2" t="s">
-        <v>4009</v>
+        <v>4006</v>
       </c>
       <c r="E1956" t="s">
         <v>8</v>
@@ -46235,7 +46244,7 @@
         <v>3644</v>
       </c>
       <c r="D1957" s="2" t="s">
-        <v>4010</v>
+        <v>4007</v>
       </c>
       <c r="E1957" t="s">
         <v>8</v>
@@ -46252,7 +46261,7 @@
         <v>3645</v>
       </c>
       <c r="D1958" s="2" t="s">
-        <v>4011</v>
+        <v>4008</v>
       </c>
       <c r="E1958" t="s">
         <v>8</v>
@@ -46269,7 +46278,7 @@
         <v>3646</v>
       </c>
       <c r="D1959" s="2" t="s">
-        <v>4012</v>
+        <v>4009</v>
       </c>
       <c r="E1959" t="s">
         <v>8</v>
@@ -46286,7 +46295,7 @@
         <v>3647</v>
       </c>
       <c r="D1960" s="2" t="s">
-        <v>4013</v>
+        <v>4010</v>
       </c>
       <c r="E1960" t="s">
         <v>8</v>
@@ -46303,7 +46312,7 @@
         <v>3648</v>
       </c>
       <c r="D1961" s="2" t="s">
-        <v>4014</v>
+        <v>4011</v>
       </c>
       <c r="E1961" t="s">
         <v>8</v>
@@ -46320,7 +46329,7 @@
         <v>3649</v>
       </c>
       <c r="D1962" s="2" t="s">
-        <v>4015</v>
+        <v>4012</v>
       </c>
       <c r="E1962" t="s">
         <v>8</v>
@@ -46337,7 +46346,7 @@
         <v>3650</v>
       </c>
       <c r="D1963" s="2" t="s">
-        <v>4016</v>
+        <v>4013</v>
       </c>
       <c r="E1963" t="s">
         <v>8</v>
@@ -46354,7 +46363,7 @@
         <v>3651</v>
       </c>
       <c r="D1964" s="2" t="s">
-        <v>4017</v>
+        <v>4014</v>
       </c>
       <c r="E1964" t="s">
         <v>8</v>
@@ -46388,7 +46397,7 @@
         <v>3653</v>
       </c>
       <c r="D1966" s="2" t="s">
-        <v>4018</v>
+        <v>4015</v>
       </c>
       <c r="E1966" t="s">
         <v>8</v>
@@ -46405,7 +46414,7 @@
         <v>3654</v>
       </c>
       <c r="D1967" s="2" t="s">
-        <v>4019</v>
+        <v>4016</v>
       </c>
       <c r="E1967" t="s">
         <v>8</v>
@@ -46422,7 +46431,7 @@
         <v>3655</v>
       </c>
       <c r="D1968" s="2" t="s">
-        <v>4020</v>
+        <v>4017</v>
       </c>
       <c r="E1968" t="s">
         <v>8</v>
@@ -46439,7 +46448,7 @@
         <v>3656</v>
       </c>
       <c r="D1969" s="2" t="s">
-        <v>4021</v>
+        <v>4018</v>
       </c>
       <c r="E1969" t="s">
         <v>8</v>
@@ -46456,7 +46465,7 @@
         <v>3657</v>
       </c>
       <c r="D1970" s="2" t="s">
-        <v>4022</v>
+        <v>4019</v>
       </c>
       <c r="E1970" t="s">
         <v>8</v>
@@ -46473,7 +46482,7 @@
         <v>3658</v>
       </c>
       <c r="D1971" s="2" t="s">
-        <v>4023</v>
+        <v>4020</v>
       </c>
       <c r="E1971" t="s">
         <v>8</v>
@@ -46490,7 +46499,7 @@
         <v>3659</v>
       </c>
       <c r="D1972" s="2" t="s">
-        <v>4024</v>
+        <v>4021</v>
       </c>
       <c r="E1972" t="s">
         <v>8</v>
@@ -46507,7 +46516,7 @@
         <v>3660</v>
       </c>
       <c r="D1973" s="2" t="s">
-        <v>4025</v>
+        <v>4022</v>
       </c>
       <c r="E1973" t="s">
         <v>8</v>
@@ -46524,7 +46533,7 @@
         <v>3661</v>
       </c>
       <c r="D1974" s="2" t="s">
-        <v>4026</v>
+        <v>4023</v>
       </c>
       <c r="E1974" t="s">
         <v>8</v>
@@ -46541,7 +46550,7 @@
         <v>3662</v>
       </c>
       <c r="D1975" s="2" t="s">
-        <v>4027</v>
+        <v>4024</v>
       </c>
       <c r="E1975" t="s">
         <v>8</v>
@@ -46558,7 +46567,7 @@
         <v>3663</v>
       </c>
       <c r="D1976" s="2" t="s">
-        <v>4028</v>
+        <v>4025</v>
       </c>
       <c r="E1976" t="s">
         <v>8</v>
@@ -46575,7 +46584,7 @@
         <v>3664</v>
       </c>
       <c r="D1977" s="2" t="s">
-        <v>4029</v>
+        <v>4026</v>
       </c>
       <c r="E1977" t="s">
         <v>8</v>
@@ -46592,7 +46601,7 @@
         <v>3665</v>
       </c>
       <c r="D1978" s="2" t="s">
-        <v>4030</v>
+        <v>4027</v>
       </c>
       <c r="E1978" t="s">
         <v>8</v>
@@ -46609,7 +46618,7 @@
         <v>3666</v>
       </c>
       <c r="D1979" s="2" t="s">
-        <v>4031</v>
+        <v>4028</v>
       </c>
       <c r="E1979" t="s">
         <v>8</v>
@@ -46626,7 +46635,7 @@
         <v>3667</v>
       </c>
       <c r="D1980" s="2" t="s">
-        <v>4032</v>
+        <v>4029</v>
       </c>
       <c r="E1980" t="s">
         <v>8</v>
@@ -46643,7 +46652,7 @@
         <v>3668</v>
       </c>
       <c r="D1981" s="2" t="s">
-        <v>4033</v>
+        <v>4030</v>
       </c>
       <c r="E1981" t="s">
         <v>8</v>
@@ -46660,7 +46669,7 @@
         <v>3669</v>
       </c>
       <c r="D1982" s="2" t="s">
-        <v>4034</v>
+        <v>4031</v>
       </c>
       <c r="E1982" t="s">
         <v>8</v>
@@ -46677,7 +46686,7 @@
         <v>3670</v>
       </c>
       <c r="D1983" s="2" t="s">
-        <v>4035</v>
+        <v>4032</v>
       </c>
       <c r="E1983" t="s">
         <v>8</v>
@@ -46694,7 +46703,7 @@
         <v>3671</v>
       </c>
       <c r="D1984" s="2" t="s">
-        <v>4036</v>
+        <v>4033</v>
       </c>
       <c r="E1984" t="s">
         <v>8</v>
@@ -46711,7 +46720,7 @@
         <v>3672</v>
       </c>
       <c r="D1985" s="2" t="s">
-        <v>4037</v>
+        <v>4034</v>
       </c>
       <c r="E1985" t="s">
         <v>8</v>
@@ -46728,7 +46737,7 @@
         <v>3673</v>
       </c>
       <c r="D1986" s="2" t="s">
-        <v>4038</v>
+        <v>4035</v>
       </c>
       <c r="E1986" t="s">
         <v>8</v>
@@ -46745,7 +46754,7 @@
         <v>3674</v>
       </c>
       <c r="D1987" s="2" t="s">
-        <v>4039</v>
+        <v>4036</v>
       </c>
       <c r="E1987" t="s">
         <v>8</v>
@@ -46762,7 +46771,7 @@
         <v>3675</v>
       </c>
       <c r="D1988" s="2" t="s">
-        <v>4040</v>
+        <v>4037</v>
       </c>
       <c r="E1988" t="s">
         <v>8</v>
@@ -46779,7 +46788,7 @@
         <v>3676</v>
       </c>
       <c r="D1989" s="2" t="s">
-        <v>4041</v>
+        <v>4038</v>
       </c>
       <c r="E1989" t="s">
         <v>8</v>
@@ -46796,7 +46805,7 @@
         <v>3677</v>
       </c>
       <c r="D1990" s="2" t="s">
-        <v>4042</v>
+        <v>4039</v>
       </c>
       <c r="E1990" t="s">
         <v>8</v>
@@ -46813,7 +46822,7 @@
         <v>3678</v>
       </c>
       <c r="D1991" s="2" t="s">
-        <v>4043</v>
+        <v>4040</v>
       </c>
       <c r="E1991" t="s">
         <v>8</v>
@@ -46830,7 +46839,7 @@
         <v>3679</v>
       </c>
       <c r="D1992" s="2" t="s">
-        <v>4044</v>
+        <v>4041</v>
       </c>
       <c r="E1992" t="s">
         <v>8</v>
@@ -46847,7 +46856,7 @@
         <v>3680</v>
       </c>
       <c r="D1993" s="2" t="s">
-        <v>4045</v>
+        <v>4042</v>
       </c>
       <c r="E1993" t="s">
         <v>8</v>
@@ -46864,7 +46873,7 @@
         <v>3681</v>
       </c>
       <c r="D1994" s="2" t="s">
-        <v>4046</v>
+        <v>4043</v>
       </c>
       <c r="E1994" t="s">
         <v>8</v>
@@ -46881,7 +46890,7 @@
         <v>3682</v>
       </c>
       <c r="D1995" s="2" t="s">
-        <v>4047</v>
+        <v>4044</v>
       </c>
       <c r="E1995" t="s">
         <v>8</v>
@@ -46898,7 +46907,7 @@
         <v>3683</v>
       </c>
       <c r="D1996" s="2" t="s">
-        <v>4048</v>
+        <v>4045</v>
       </c>
       <c r="E1996" t="s">
         <v>8</v>
@@ -46915,7 +46924,7 @@
         <v>3684</v>
       </c>
       <c r="D1997" s="2" t="s">
-        <v>4049</v>
+        <v>4046</v>
       </c>
       <c r="E1997" t="s">
         <v>8</v>
@@ -46932,7 +46941,7 @@
         <v>3685</v>
       </c>
       <c r="D1998" s="2" t="s">
-        <v>4050</v>
+        <v>4047</v>
       </c>
       <c r="E1998" t="s">
         <v>8</v>
@@ -46949,7 +46958,7 @@
         <v>3686</v>
       </c>
       <c r="D1999" s="2" t="s">
-        <v>4051</v>
+        <v>4048</v>
       </c>
       <c r="E1999" t="s">
         <v>8</v>
@@ -46966,7 +46975,7 @@
         <v>3687</v>
       </c>
       <c r="D2000" s="2" t="s">
-        <v>4052</v>
+        <v>4049</v>
       </c>
       <c r="E2000" t="s">
         <v>8</v>
@@ -46983,7 +46992,7 @@
         <v>3688</v>
       </c>
       <c r="D2001" s="2" t="s">
-        <v>4053</v>
+        <v>4050</v>
       </c>
       <c r="E2001" t="s">
         <v>8</v>
@@ -47000,7 +47009,7 @@
         <v>3689</v>
       </c>
       <c r="D2002" s="2" t="s">
-        <v>4054</v>
+        <v>4051</v>
       </c>
       <c r="E2002" t="s">
         <v>8</v>
@@ -47017,7 +47026,7 @@
         <v>3690</v>
       </c>
       <c r="D2003" s="2" t="s">
-        <v>4055</v>
+        <v>4052</v>
       </c>
       <c r="E2003" t="s">
         <v>8</v>
@@ -47034,7 +47043,7 @@
         <v>3691</v>
       </c>
       <c r="D2004" s="2" t="s">
-        <v>4056</v>
+        <v>4053</v>
       </c>
       <c r="E2004" t="s">
         <v>8</v>
@@ -47068,7 +47077,7 @@
         <v>3693</v>
       </c>
       <c r="D2006" s="2" t="s">
-        <v>4057</v>
+        <v>4054</v>
       </c>
       <c r="E2006" t="s">
         <v>8</v>
@@ -47085,7 +47094,7 @@
         <v>3694</v>
       </c>
       <c r="D2007" s="2" t="s">
-        <v>4058</v>
+        <v>4055</v>
       </c>
       <c r="E2007" t="s">
         <v>8</v>
@@ -47102,7 +47111,7 @@
         <v>3695</v>
       </c>
       <c r="D2008" s="2" t="s">
-        <v>4059</v>
+        <v>4056</v>
       </c>
       <c r="E2008" t="s">
         <v>8</v>
@@ -47119,7 +47128,7 @@
         <v>3696</v>
       </c>
       <c r="D2009" s="2" t="s">
-        <v>4060</v>
+        <v>4057</v>
       </c>
       <c r="E2009" t="s">
         <v>8</v>
@@ -47136,7 +47145,7 @@
         <v>3697</v>
       </c>
       <c r="D2010" s="2" t="s">
-        <v>4061</v>
+        <v>4058</v>
       </c>
       <c r="E2010" t="s">
         <v>8</v>
@@ -47153,7 +47162,7 @@
         <v>3698</v>
       </c>
       <c r="D2011" s="2" t="s">
-        <v>4062</v>
+        <v>4059</v>
       </c>
       <c r="E2011" t="s">
         <v>8</v>
@@ -47170,7 +47179,7 @@
         <v>3699</v>
       </c>
       <c r="D2012" s="2" t="s">
-        <v>4063</v>
+        <v>4060</v>
       </c>
       <c r="E2012" t="s">
         <v>8</v>
@@ -47187,7 +47196,7 @@
         <v>3700</v>
       </c>
       <c r="D2013" s="2" t="s">
-        <v>4064</v>
+        <v>4061</v>
       </c>
       <c r="E2013" t="s">
         <v>8</v>
@@ -47204,7 +47213,7 @@
         <v>3701</v>
       </c>
       <c r="D2014" s="2" t="s">
-        <v>4065</v>
+        <v>4062</v>
       </c>
       <c r="E2014" t="s">
         <v>8</v>
@@ -47221,7 +47230,7 @@
         <v>3702</v>
       </c>
       <c r="D2015" s="2" t="s">
-        <v>4066</v>
+        <v>4063</v>
       </c>
       <c r="E2015" t="s">
         <v>8</v>
@@ -47238,7 +47247,7 @@
         <v>3703</v>
       </c>
       <c r="D2016" s="2" t="s">
-        <v>4067</v>
+        <v>4064</v>
       </c>
       <c r="E2016" t="s">
         <v>8</v>
@@ -47255,7 +47264,7 @@
         <v>3704</v>
       </c>
       <c r="D2017" s="2" t="s">
-        <v>4068</v>
+        <v>4065</v>
       </c>
       <c r="E2017" t="s">
         <v>8</v>
@@ -47289,7 +47298,7 @@
         <v>3706</v>
       </c>
       <c r="D2019" s="2" t="s">
-        <v>4069</v>
+        <v>4066</v>
       </c>
       <c r="E2019" t="s">
         <v>8</v>
@@ -47306,7 +47315,7 @@
         <v>3707</v>
       </c>
       <c r="D2020" s="2" t="s">
-        <v>4070</v>
+        <v>4067</v>
       </c>
       <c r="E2020" t="s">
         <v>8</v>
@@ -47323,7 +47332,7 @@
         <v>3708</v>
       </c>
       <c r="D2021" s="2" t="s">
-        <v>4071</v>
+        <v>4068</v>
       </c>
       <c r="E2021" t="s">
         <v>8</v>
@@ -47357,7 +47366,7 @@
         <v>3711</v>
       </c>
       <c r="D2023" s="2" t="s">
-        <v>4072</v>
+        <v>4069</v>
       </c>
       <c r="E2023" t="s">
         <v>8</v>
@@ -47374,7 +47383,7 @@
         <v>3712</v>
       </c>
       <c r="D2024" s="2" t="s">
-        <v>4073</v>
+        <v>4070</v>
       </c>
       <c r="E2024" t="s">
         <v>8</v>
@@ -47391,7 +47400,7 @@
         <v>3713</v>
       </c>
       <c r="D2025" s="2" t="s">
-        <v>4074</v>
+        <v>4071</v>
       </c>
       <c r="E2025" t="s">
         <v>8</v>
@@ -47408,7 +47417,7 @@
         <v>3714</v>
       </c>
       <c r="D2026" s="2" t="s">
-        <v>4075</v>
+        <v>4072</v>
       </c>
       <c r="E2026" t="s">
         <v>8</v>
@@ -47425,7 +47434,7 @@
         <v>3715</v>
       </c>
       <c r="D2027" s="2" t="s">
-        <v>4076</v>
+        <v>4073</v>
       </c>
       <c r="E2027" t="s">
         <v>8</v>
@@ -47442,7 +47451,7 @@
         <v>3716</v>
       </c>
       <c r="D2028" s="2" t="s">
-        <v>4077</v>
+        <v>4074</v>
       </c>
       <c r="E2028" t="s">
         <v>8</v>
@@ -47459,7 +47468,7 @@
         <v>3717</v>
       </c>
       <c r="D2029" s="2" t="s">
-        <v>4078</v>
+        <v>4075</v>
       </c>
       <c r="E2029" t="s">
         <v>8</v>
@@ -47476,7 +47485,7 @@
         <v>3718</v>
       </c>
       <c r="D2030" s="2" t="s">
-        <v>4079</v>
+        <v>4076</v>
       </c>
       <c r="E2030" t="s">
         <v>8</v>
@@ -47493,7 +47502,7 @@
         <v>3719</v>
       </c>
       <c r="D2031" s="2" t="s">
-        <v>4080</v>
+        <v>4077</v>
       </c>
       <c r="E2031" t="s">
         <v>8</v>
@@ -47510,7 +47519,7 @@
         <v>3720</v>
       </c>
       <c r="D2032" s="2" t="s">
-        <v>4081</v>
+        <v>4078</v>
       </c>
       <c r="E2032" t="s">
         <v>8</v>
@@ -47527,7 +47536,7 @@
         <v>3721</v>
       </c>
       <c r="D2033" s="2" t="s">
-        <v>4082</v>
+        <v>4079</v>
       </c>
       <c r="E2033" t="s">
         <v>8</v>
@@ -47544,7 +47553,7 @@
         <v>3722</v>
       </c>
       <c r="D2034" s="2" t="s">
-        <v>4083</v>
+        <v>4080</v>
       </c>
       <c r="E2034" t="s">
         <v>8</v>
@@ -47561,7 +47570,7 @@
         <v>3723</v>
       </c>
       <c r="D2035" s="2" t="s">
-        <v>4084</v>
+        <v>4081</v>
       </c>
       <c r="E2035" t="s">
         <v>8</v>
@@ -47578,7 +47587,7 @@
         <v>3724</v>
       </c>
       <c r="D2036" s="2" t="s">
-        <v>4085</v>
+        <v>4082</v>
       </c>
       <c r="E2036" t="s">
         <v>8</v>
@@ -47595,7 +47604,7 @@
         <v>3725</v>
       </c>
       <c r="D2037" s="2" t="s">
-        <v>4086</v>
+        <v>4083</v>
       </c>
       <c r="E2037" t="s">
         <v>8</v>
@@ -47612,7 +47621,7 @@
         <v>3726</v>
       </c>
       <c r="D2038" s="2" t="s">
-        <v>4087</v>
+        <v>4084</v>
       </c>
       <c r="E2038" t="s">
         <v>8</v>
@@ -47629,7 +47638,7 @@
         <v>3727</v>
       </c>
       <c r="D2039" s="2" t="s">
-        <v>4088</v>
+        <v>4085</v>
       </c>
       <c r="E2039" t="s">
         <v>8</v>
@@ -47646,7 +47655,7 @@
         <v>3728</v>
       </c>
       <c r="D2040" s="2" t="s">
-        <v>4089</v>
+        <v>4086</v>
       </c>
       <c r="E2040" t="s">
         <v>8</v>
@@ -47663,7 +47672,7 @@
         <v>3729</v>
       </c>
       <c r="D2041" s="2" t="s">
-        <v>4090</v>
+        <v>4087</v>
       </c>
       <c r="E2041" t="s">
         <v>8</v>
@@ -47680,7 +47689,7 @@
         <v>3730</v>
       </c>
       <c r="D2042" s="2" t="s">
-        <v>4091</v>
+        <v>4088</v>
       </c>
       <c r="E2042" t="s">
         <v>8</v>
@@ -47697,7 +47706,7 @@
         <v>3731</v>
       </c>
       <c r="D2043" s="2" t="s">
-        <v>4092</v>
+        <v>4089</v>
       </c>
       <c r="E2043" t="s">
         <v>8</v>
@@ -47714,7 +47723,7 @@
         <v>3732</v>
       </c>
       <c r="D2044" s="2" t="s">
-        <v>4093</v>
+        <v>4090</v>
       </c>
       <c r="E2044" t="s">
         <v>8</v>
@@ -47731,7 +47740,7 @@
         <v>3733</v>
       </c>
       <c r="D2045" s="2" t="s">
-        <v>4094</v>
+        <v>4091</v>
       </c>
       <c r="E2045" t="s">
         <v>8</v>
@@ -47748,7 +47757,7 @@
         <v>3734</v>
       </c>
       <c r="D2046" s="2" t="s">
-        <v>4095</v>
+        <v>4092</v>
       </c>
       <c r="E2046" t="s">
         <v>8</v>
@@ -47765,7 +47774,7 @@
         <v>3735</v>
       </c>
       <c r="D2047" s="2" t="s">
-        <v>4096</v>
+        <v>4093</v>
       </c>
       <c r="E2047" t="s">
         <v>8</v>
@@ -47782,7 +47791,7 @@
         <v>3736</v>
       </c>
       <c r="D2048" s="2" t="s">
-        <v>4097</v>
+        <v>4094</v>
       </c>
       <c r="E2048" t="s">
         <v>8</v>
@@ -47799,7 +47808,7 @@
         <v>3737</v>
       </c>
       <c r="D2049" s="2" t="s">
-        <v>4098</v>
+        <v>4095</v>
       </c>
       <c r="E2049" t="s">
         <v>8</v>
@@ -47816,7 +47825,7 @@
         <v>3738</v>
       </c>
       <c r="D2050" s="2" t="s">
-        <v>4099</v>
+        <v>4096</v>
       </c>
       <c r="E2050" t="s">
         <v>8</v>
@@ -47833,7 +47842,7 @@
         <v>3739</v>
       </c>
       <c r="D2051" s="2" t="s">
-        <v>4100</v>
+        <v>4097</v>
       </c>
       <c r="E2051" t="s">
         <v>8</v>
@@ -47850,7 +47859,7 @@
         <v>3740</v>
       </c>
       <c r="D2052" s="2" t="s">
-        <v>4101</v>
+        <v>4098</v>
       </c>
       <c r="E2052" t="s">
         <v>8</v>
@@ -47867,7 +47876,7 @@
         <v>3741</v>
       </c>
       <c r="D2053" s="2" t="s">
-        <v>4102</v>
+        <v>4099</v>
       </c>
       <c r="E2053" t="s">
         <v>8</v>
@@ -47884,7 +47893,7 @@
         <v>3742</v>
       </c>
       <c r="D2054" s="2" t="s">
-        <v>4103</v>
+        <v>4100</v>
       </c>
       <c r="E2054" t="s">
         <v>8</v>
@@ -47901,7 +47910,7 @@
         <v>3743</v>
       </c>
       <c r="D2055" s="2" t="s">
-        <v>4104</v>
+        <v>4101</v>
       </c>
       <c r="E2055" t="s">
         <v>8</v>
@@ -47918,7 +47927,7 @@
         <v>3744</v>
       </c>
       <c r="D2056" s="2" t="s">
-        <v>4105</v>
+        <v>4102</v>
       </c>
       <c r="E2056" t="s">
         <v>8</v>
@@ -47935,7 +47944,7 @@
         <v>3745</v>
       </c>
       <c r="D2057" s="2" t="s">
-        <v>4106</v>
+        <v>4103</v>
       </c>
       <c r="E2057" t="s">
         <v>8</v>
@@ -47952,7 +47961,7 @@
         <v>3746</v>
       </c>
       <c r="D2058" s="2" t="s">
-        <v>4107</v>
+        <v>4104</v>
       </c>
       <c r="E2058" t="s">
         <v>8</v>
@@ -47969,7 +47978,7 @@
         <v>3747</v>
       </c>
       <c r="D2059" s="2" t="s">
-        <v>4108</v>
+        <v>4105</v>
       </c>
       <c r="E2059" t="s">
         <v>8</v>
@@ -47986,7 +47995,7 @@
         <v>3748</v>
       </c>
       <c r="D2060" s="2" t="s">
-        <v>4109</v>
+        <v>4106</v>
       </c>
       <c r="E2060" t="s">
         <v>8</v>
@@ -48003,7 +48012,7 @@
         <v>3749</v>
       </c>
       <c r="D2061" s="2" t="s">
-        <v>4110</v>
+        <v>4107</v>
       </c>
       <c r="E2061" t="s">
         <v>8</v>
@@ -48020,7 +48029,7 @@
         <v>3750</v>
       </c>
       <c r="D2062" s="2" t="s">
-        <v>4111</v>
+        <v>4108</v>
       </c>
       <c r="E2062" t="s">
         <v>8</v>
@@ -48037,7 +48046,7 @@
         <v>3751</v>
       </c>
       <c r="D2063" s="2" t="s">
-        <v>4112</v>
+        <v>4109</v>
       </c>
       <c r="E2063" t="s">
         <v>8</v>
@@ -48054,7 +48063,7 @@
         <v>3752</v>
       </c>
       <c r="D2064" s="2" t="s">
-        <v>4113</v>
+        <v>4110</v>
       </c>
       <c r="E2064" t="s">
         <v>8</v>
@@ -48071,7 +48080,7 @@
         <v>3753</v>
       </c>
       <c r="D2065" s="2" t="s">
-        <v>4114</v>
+        <v>4111</v>
       </c>
       <c r="E2065" t="s">
         <v>8</v>
@@ -48088,7 +48097,7 @@
         <v>3754</v>
       </c>
       <c r="D2066" s="2" t="s">
-        <v>4115</v>
+        <v>4112</v>
       </c>
       <c r="E2066" t="s">
         <v>8</v>
@@ -48105,7 +48114,7 @@
         <v>3755</v>
       </c>
       <c r="D2067" s="2" t="s">
-        <v>4116</v>
+        <v>4113</v>
       </c>
       <c r="E2067" t="s">
         <v>8</v>
@@ -48122,7 +48131,7 @@
         <v>3756</v>
       </c>
       <c r="D2068" s="2" t="s">
-        <v>4117</v>
+        <v>4114</v>
       </c>
       <c r="E2068" t="s">
         <v>8</v>
@@ -48139,7 +48148,7 @@
         <v>3757</v>
       </c>
       <c r="D2069" s="2" t="s">
-        <v>4118</v>
+        <v>4115</v>
       </c>
       <c r="E2069" t="s">
         <v>8</v>
@@ -48156,7 +48165,7 @@
         <v>3758</v>
       </c>
       <c r="D2070" s="2" t="s">
-        <v>4119</v>
+        <v>4116</v>
       </c>
       <c r="E2070" t="s">
         <v>8</v>
@@ -48173,7 +48182,7 @@
         <v>3759</v>
       </c>
       <c r="D2071" s="2" t="s">
-        <v>4120</v>
+        <v>4117</v>
       </c>
       <c r="E2071" t="s">
         <v>8</v>
@@ -48190,7 +48199,7 @@
         <v>3760</v>
       </c>
       <c r="D2072" s="2" t="s">
-        <v>4121</v>
+        <v>4118</v>
       </c>
       <c r="E2072" t="s">
         <v>8</v>
@@ -48207,7 +48216,7 @@
         <v>3761</v>
       </c>
       <c r="D2073" s="2" t="s">
-        <v>4122</v>
+        <v>4119</v>
       </c>
       <c r="E2073" t="s">
         <v>8</v>
@@ -48224,7 +48233,7 @@
         <v>3762</v>
       </c>
       <c r="D2074" s="2" t="s">
-        <v>4123</v>
+        <v>4120</v>
       </c>
       <c r="E2074" t="s">
         <v>8</v>
@@ -48241,7 +48250,7 @@
         <v>3763</v>
       </c>
       <c r="D2075" s="2" t="s">
-        <v>4124</v>
+        <v>4121</v>
       </c>
       <c r="E2075" t="s">
         <v>8</v>
@@ -48258,7 +48267,7 @@
         <v>3764</v>
       </c>
       <c r="D2076" s="2" t="s">
-        <v>4125</v>
+        <v>4122</v>
       </c>
       <c r="E2076" t="s">
         <v>8</v>
@@ -48275,7 +48284,7 @@
         <v>3765</v>
       </c>
       <c r="D2077" s="2" t="s">
-        <v>4126</v>
+        <v>4123</v>
       </c>
       <c r="E2077" t="s">
         <v>8</v>
@@ -48292,7 +48301,7 @@
         <v>3766</v>
       </c>
       <c r="D2078" s="2" t="s">
-        <v>4127</v>
+        <v>4124</v>
       </c>
       <c r="E2078" t="s">
         <v>8</v>
@@ -48309,7 +48318,7 @@
         <v>3767</v>
       </c>
       <c r="D2079" s="2" t="s">
-        <v>4128</v>
+        <v>4125</v>
       </c>
       <c r="E2079" t="s">
         <v>8</v>
@@ -48326,7 +48335,7 @@
         <v>3768</v>
       </c>
       <c r="D2080" s="2" t="s">
-        <v>4129</v>
+        <v>4126</v>
       </c>
       <c r="E2080" t="s">
         <v>8</v>
@@ -48343,7 +48352,7 @@
         <v>3769</v>
       </c>
       <c r="D2081" s="2" t="s">
-        <v>4130</v>
+        <v>4127</v>
       </c>
       <c r="E2081" t="s">
         <v>8</v>
@@ -48360,7 +48369,7 @@
         <v>3770</v>
       </c>
       <c r="D2082" s="2" t="s">
-        <v>4131</v>
+        <v>4128</v>
       </c>
       <c r="E2082" t="s">
         <v>8</v>
@@ -48377,7 +48386,7 @@
         <v>3771</v>
       </c>
       <c r="D2083" s="2" t="s">
-        <v>4132</v>
+        <v>4129</v>
       </c>
       <c r="E2083" t="s">
         <v>8</v>
@@ -48411,7 +48420,7 @@
         <v>3773</v>
       </c>
       <c r="D2085" s="2" t="s">
-        <v>4133</v>
+        <v>4130</v>
       </c>
       <c r="E2085" t="s">
         <v>8</v>
@@ -48428,7 +48437,7 @@
         <v>3774</v>
       </c>
       <c r="D2086" s="2" t="s">
-        <v>4134</v>
+        <v>4131</v>
       </c>
       <c r="E2086" t="s">
         <v>8</v>
@@ -48445,7 +48454,7 @@
         <v>3775</v>
       </c>
       <c r="D2087" s="2" t="s">
-        <v>4135</v>
+        <v>4132</v>
       </c>
       <c r="E2087" t="s">
         <v>8</v>
@@ -48462,7 +48471,7 @@
         <v>3776</v>
       </c>
       <c r="D2088" s="2" t="s">
-        <v>4136</v>
+        <v>4133</v>
       </c>
       <c r="E2088" t="s">
         <v>8</v>
@@ -48479,7 +48488,7 @@
         <v>3777</v>
       </c>
       <c r="D2089" s="2" t="s">
-        <v>4137</v>
+        <v>4134</v>
       </c>
       <c r="E2089" t="s">
         <v>8</v>
@@ -48496,7 +48505,7 @@
         <v>3778</v>
       </c>
       <c r="D2090" s="2" t="s">
-        <v>4138</v>
+        <v>4135</v>
       </c>
       <c r="E2090" t="s">
         <v>8</v>
@@ -48513,7 +48522,7 @@
         <v>3779</v>
       </c>
       <c r="D2091" s="2" t="s">
-        <v>4139</v>
+        <v>4136</v>
       </c>
       <c r="E2091" t="s">
         <v>8</v>
@@ -48530,7 +48539,7 @@
         <v>3780</v>
       </c>
       <c r="D2092" s="2" t="s">
-        <v>4140</v>
+        <v>4137</v>
       </c>
       <c r="E2092" t="s">
         <v>8</v>
@@ -48547,7 +48556,7 @@
         <v>3781</v>
       </c>
       <c r="D2093" s="2" t="s">
-        <v>4141</v>
+        <v>4138</v>
       </c>
       <c r="E2093" t="s">
         <v>8</v>
@@ -48564,7 +48573,7 @@
         <v>3782</v>
       </c>
       <c r="D2094" s="2" t="s">
-        <v>4142</v>
+        <v>4139</v>
       </c>
       <c r="E2094" t="s">
         <v>8</v>
@@ -48581,7 +48590,7 @@
         <v>3783</v>
       </c>
       <c r="D2095" s="2" t="s">
-        <v>4143</v>
+        <v>4140</v>
       </c>
       <c r="E2095" t="s">
         <v>8</v>
@@ -48598,7 +48607,7 @@
         <v>3784</v>
       </c>
       <c r="D2096" s="2" t="s">
-        <v>4144</v>
+        <v>4141</v>
       </c>
       <c r="E2096" t="s">
         <v>8</v>
@@ -48615,7 +48624,7 @@
         <v>3785</v>
       </c>
       <c r="D2097" s="2" t="s">
-        <v>4145</v>
+        <v>4142</v>
       </c>
       <c r="E2097" t="s">
         <v>8</v>
@@ -48632,7 +48641,7 @@
         <v>3786</v>
       </c>
       <c r="D2098" s="2" t="s">
-        <v>4146</v>
+        <v>4143</v>
       </c>
       <c r="E2098" t="s">
         <v>8</v>
@@ -48649,7 +48658,7 @@
         <v>3787</v>
       </c>
       <c r="D2099" s="2" t="s">
-        <v>4147</v>
+        <v>4144</v>
       </c>
       <c r="E2099" t="s">
         <v>8</v>
@@ -48666,7 +48675,7 @@
         <v>3788</v>
       </c>
       <c r="D2100" s="2" t="s">
-        <v>4148</v>
+        <v>4145</v>
       </c>
       <c r="E2100" t="s">
         <v>8</v>
@@ -48683,7 +48692,7 @@
         <v>3789</v>
       </c>
       <c r="D2101" s="2" t="s">
-        <v>4149</v>
+        <v>4146</v>
       </c>
       <c r="E2101" t="s">
         <v>8</v>
@@ -48700,28 +48709,21 @@
         <v>3790</v>
       </c>
       <c r="D2102" s="2" t="s">
-        <v>4150</v>
+        <v>4147</v>
       </c>
       <c r="E2102" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2103" t="s">
         <v>5</v>
       </c>
       <c r="B2103" t="s">
         <v>5</v>
       </c>
-      <c r="C2103" s="1" t="s">
-        <v>3791</v>
-      </c>
-      <c r="D2103" s="2" t="s">
-        <v>4197</v>
-      </c>
-      <c r="E2103" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2103" s="1"/>
+      <c r="D2103" s="2"/>
     </row>
     <row r="2104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2104" t="s">
@@ -48731,10 +48733,10 @@
         <v>5</v>
       </c>
       <c r="C2104" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="D2104" s="2" t="s">
-        <v>4151</v>
+        <v>4148</v>
       </c>
       <c r="E2104" t="s">
         <v>8</v>
@@ -48748,16 +48750,16 @@
         <v>5</v>
       </c>
       <c r="C2105" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="D2105" s="2" t="s">
-        <v>4152</v>
+        <v>4149</v>
       </c>
       <c r="E2105" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2106" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="2106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2106" t="s">
         <v>5</v>
       </c>
@@ -48765,14 +48767,16 @@
         <v>5</v>
       </c>
       <c r="C2106" s="1" t="s">
-        <v>3794</v>
-      </c>
-      <c r="D2106" s="2"/>
+        <v>4195</v>
+      </c>
+      <c r="D2106" t="s">
+        <v>4194</v>
+      </c>
       <c r="E2106" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2107" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="2107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2107" t="s">
         <v>5</v>
       </c>
@@ -48780,9 +48784,11 @@
         <v>5</v>
       </c>
       <c r="C2107" s="1" t="s">
-        <v>3795</v>
-      </c>
-      <c r="D2107" s="2"/>
+        <v>4196</v>
+      </c>
+      <c r="D2107" t="s">
+        <v>4197</v>
+      </c>
       <c r="E2107" t="s">
         <v>8</v>
       </c>
@@ -48795,10 +48801,10 @@
         <v>5</v>
       </c>
       <c r="C2108" t="s">
-        <v>3796</v>
+        <v>3793</v>
       </c>
       <c r="D2108" s="2" t="s">
-        <v>4153</v>
+        <v>4150</v>
       </c>
       <c r="E2108" t="s">
         <v>8</v>
@@ -48812,10 +48818,10 @@
         <v>5</v>
       </c>
       <c r="C2109" t="s">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="D2109" s="2" t="s">
-        <v>4154</v>
+        <v>4151</v>
       </c>
       <c r="E2109" t="s">
         <v>8</v>
@@ -48829,10 +48835,10 @@
         <v>5</v>
       </c>
       <c r="C2110" t="s">
-        <v>3798</v>
+        <v>3795</v>
       </c>
       <c r="D2110" s="2" t="s">
-        <v>4155</v>
+        <v>4152</v>
       </c>
       <c r="E2110" t="s">
         <v>8</v>
@@ -48846,10 +48852,10 @@
         <v>5</v>
       </c>
       <c r="C2111" t="s">
-        <v>3799</v>
+        <v>3796</v>
       </c>
       <c r="D2111" s="2" t="s">
-        <v>4156</v>
+        <v>4153</v>
       </c>
       <c r="E2111" t="s">
         <v>8</v>
@@ -48863,10 +48869,10 @@
         <v>5</v>
       </c>
       <c r="C2112" t="s">
-        <v>3800</v>
+        <v>3797</v>
       </c>
       <c r="D2112" s="2" t="s">
-        <v>4157</v>
+        <v>4154</v>
       </c>
       <c r="E2112" t="s">
         <v>8</v>
@@ -48880,10 +48886,10 @@
         <v>5</v>
       </c>
       <c r="C2113" t="s">
-        <v>3801</v>
+        <v>3798</v>
       </c>
       <c r="D2113" s="2" t="s">
-        <v>4158</v>
+        <v>4155</v>
       </c>
       <c r="E2113" t="s">
         <v>8</v>
@@ -48897,10 +48903,10 @@
         <v>5</v>
       </c>
       <c r="C2114" t="s">
-        <v>3802</v>
+        <v>3799</v>
       </c>
       <c r="D2114" s="2" t="s">
-        <v>4159</v>
+        <v>4156</v>
       </c>
       <c r="E2114" t="s">
         <v>8</v>
@@ -48914,10 +48920,10 @@
         <v>5</v>
       </c>
       <c r="C2115" t="s">
-        <v>3803</v>
+        <v>3800</v>
       </c>
       <c r="D2115" s="2" t="s">
-        <v>4160</v>
+        <v>4157</v>
       </c>
       <c r="E2115" t="s">
         <v>8</v>
@@ -48931,10 +48937,10 @@
         <v>5</v>
       </c>
       <c r="C2116" t="s">
-        <v>3804</v>
+        <v>3801</v>
       </c>
       <c r="D2116" s="2" t="s">
-        <v>4161</v>
+        <v>4158</v>
       </c>
       <c r="E2116" t="s">
         <v>8</v>
@@ -48948,10 +48954,10 @@
         <v>5</v>
       </c>
       <c r="C2117" t="s">
-        <v>3805</v>
+        <v>3802</v>
       </c>
       <c r="D2117" s="2" t="s">
-        <v>4162</v>
+        <v>4159</v>
       </c>
       <c r="E2117" t="s">
         <v>8</v>
@@ -48965,10 +48971,10 @@
         <v>5</v>
       </c>
       <c r="C2118" t="s">
-        <v>3806</v>
+        <v>3803</v>
       </c>
       <c r="D2118" s="2" t="s">
-        <v>4163</v>
+        <v>4160</v>
       </c>
       <c r="E2118" t="s">
         <v>8</v>
@@ -48982,10 +48988,10 @@
         <v>5</v>
       </c>
       <c r="C2119" t="s">
-        <v>3807</v>
+        <v>3804</v>
       </c>
       <c r="D2119" s="2" t="s">
-        <v>4164</v>
+        <v>4161</v>
       </c>
       <c r="E2119" t="s">
         <v>8</v>
@@ -48999,10 +49005,10 @@
         <v>5</v>
       </c>
       <c r="C2120" t="s">
-        <v>3808</v>
+        <v>3805</v>
       </c>
       <c r="D2120" s="2" t="s">
-        <v>4165</v>
+        <v>4162</v>
       </c>
       <c r="E2120" t="s">
         <v>8</v>
@@ -49016,10 +49022,10 @@
         <v>5</v>
       </c>
       <c r="C2121" t="s">
-        <v>3809</v>
+        <v>3806</v>
       </c>
       <c r="D2121" s="2" t="s">
-        <v>4166</v>
+        <v>4163</v>
       </c>
       <c r="E2121" t="s">
         <v>8</v>
@@ -49033,10 +49039,10 @@
         <v>5</v>
       </c>
       <c r="C2122" t="s">
-        <v>3810</v>
+        <v>3807</v>
       </c>
       <c r="D2122" s="2" t="s">
-        <v>4167</v>
+        <v>4164</v>
       </c>
       <c r="E2122" t="s">
         <v>8</v>
@@ -49050,10 +49056,10 @@
         <v>5</v>
       </c>
       <c r="C2123" t="s">
-        <v>3811</v>
+        <v>3808</v>
       </c>
       <c r="D2123" s="2" t="s">
-        <v>4168</v>
+        <v>4165</v>
       </c>
       <c r="E2123" t="s">
         <v>8</v>
@@ -49067,10 +49073,10 @@
         <v>5</v>
       </c>
       <c r="C2124" t="s">
-        <v>3812</v>
+        <v>3809</v>
       </c>
       <c r="D2124" s="2" t="s">
-        <v>4169</v>
+        <v>4166</v>
       </c>
       <c r="E2124" t="s">
         <v>8</v>
@@ -49084,10 +49090,10 @@
         <v>5</v>
       </c>
       <c r="C2125" t="s">
-        <v>3813</v>
+        <v>3810</v>
       </c>
       <c r="D2125" s="2" t="s">
-        <v>4170</v>
+        <v>4167</v>
       </c>
       <c r="E2125" t="s">
         <v>8</v>
@@ -49101,10 +49107,10 @@
         <v>5</v>
       </c>
       <c r="C2126" t="s">
-        <v>3814</v>
+        <v>3811</v>
       </c>
       <c r="D2126" s="2" t="s">
-        <v>4171</v>
+        <v>4168</v>
       </c>
       <c r="E2126" t="s">
         <v>8</v>
@@ -49118,10 +49124,10 @@
         <v>5</v>
       </c>
       <c r="C2127" t="s">
-        <v>3815</v>
+        <v>3812</v>
       </c>
       <c r="D2127" s="2" t="s">
-        <v>4172</v>
+        <v>4169</v>
       </c>
       <c r="E2127" t="s">
         <v>8</v>
@@ -49135,10 +49141,10 @@
         <v>5</v>
       </c>
       <c r="C2128" t="s">
-        <v>3816</v>
+        <v>3813</v>
       </c>
       <c r="D2128" s="2" t="s">
-        <v>4173</v>
+        <v>4170</v>
       </c>
       <c r="E2128" t="s">
         <v>8</v>
@@ -49152,10 +49158,10 @@
         <v>5</v>
       </c>
       <c r="C2129" t="s">
-        <v>3817</v>
+        <v>3814</v>
       </c>
       <c r="D2129" s="2" t="s">
-        <v>4174</v>
+        <v>4171</v>
       </c>
       <c r="E2129" t="s">
         <v>8</v>
@@ -49169,10 +49175,10 @@
         <v>5</v>
       </c>
       <c r="C2130" t="s">
-        <v>3818</v>
+        <v>3815</v>
       </c>
       <c r="D2130" s="2" t="s">
-        <v>4175</v>
+        <v>4172</v>
       </c>
       <c r="E2130" t="s">
         <v>8</v>
@@ -49186,10 +49192,10 @@
         <v>5</v>
       </c>
       <c r="C2131" t="s">
-        <v>3819</v>
+        <v>3816</v>
       </c>
       <c r="D2131" s="2" t="s">
-        <v>4176</v>
+        <v>4173</v>
       </c>
       <c r="E2131" t="s">
         <v>8</v>
@@ -49203,10 +49209,10 @@
         <v>5</v>
       </c>
       <c r="C2132" t="s">
-        <v>3820</v>
+        <v>3817</v>
       </c>
       <c r="D2132" s="2" t="s">
-        <v>4177</v>
+        <v>4174</v>
       </c>
       <c r="E2132" t="s">
         <v>8</v>
@@ -49220,10 +49226,10 @@
         <v>5</v>
       </c>
       <c r="C2133" t="s">
-        <v>3821</v>
+        <v>3818</v>
       </c>
       <c r="D2133" s="2" t="s">
-        <v>4178</v>
+        <v>4175</v>
       </c>
       <c r="E2133" t="s">
         <v>8</v>
@@ -49237,10 +49243,10 @@
         <v>5</v>
       </c>
       <c r="C2134" t="s">
-        <v>3822</v>
+        <v>3819</v>
       </c>
       <c r="D2134" s="2" t="s">
-        <v>4179</v>
+        <v>4176</v>
       </c>
       <c r="E2134" t="s">
         <v>8</v>
@@ -49254,10 +49260,10 @@
         <v>5</v>
       </c>
       <c r="C2135" t="s">
-        <v>3823</v>
+        <v>3820</v>
       </c>
       <c r="D2135" s="2" t="s">
-        <v>4180</v>
+        <v>4177</v>
       </c>
       <c r="E2135" t="s">
         <v>8</v>
@@ -49271,10 +49277,10 @@
         <v>5</v>
       </c>
       <c r="C2136" t="s">
-        <v>3824</v>
+        <v>3821</v>
       </c>
       <c r="D2136" s="2" t="s">
-        <v>4181</v>
+        <v>4178</v>
       </c>
       <c r="E2136" t="s">
         <v>8</v>
@@ -49288,10 +49294,10 @@
         <v>5</v>
       </c>
       <c r="C2137" t="s">
-        <v>3825</v>
+        <v>3822</v>
       </c>
       <c r="D2137" s="2" t="s">
-        <v>4182</v>
+        <v>4179</v>
       </c>
       <c r="E2137" t="s">
         <v>8</v>
@@ -49305,10 +49311,10 @@
         <v>5</v>
       </c>
       <c r="C2138" t="s">
-        <v>3826</v>
+        <v>3823</v>
       </c>
       <c r="D2138" s="2" t="s">
-        <v>4183</v>
+        <v>4180</v>
       </c>
       <c r="E2138" t="s">
         <v>8</v>
@@ -49322,10 +49328,10 @@
         <v>5</v>
       </c>
       <c r="C2139" t="s">
-        <v>3827</v>
+        <v>3824</v>
       </c>
       <c r="D2139" s="2" t="s">
-        <v>4184</v>
+        <v>4181</v>
       </c>
       <c r="E2139" t="s">
         <v>8</v>
@@ -49339,10 +49345,10 @@
         <v>5</v>
       </c>
       <c r="C2140" t="s">
-        <v>3828</v>
+        <v>3825</v>
       </c>
       <c r="D2140" s="2" t="s">
-        <v>4185</v>
+        <v>4182</v>
       </c>
       <c r="E2140" t="s">
         <v>8</v>
@@ -49356,10 +49362,10 @@
         <v>5</v>
       </c>
       <c r="C2141" t="s">
-        <v>3829</v>
+        <v>3826</v>
       </c>
       <c r="D2141" s="2" t="s">
-        <v>4186</v>
+        <v>4183</v>
       </c>
       <c r="E2141" t="s">
         <v>8</v>
@@ -49373,10 +49379,10 @@
         <v>5</v>
       </c>
       <c r="C2142" t="s">
-        <v>3830</v>
+        <v>3827</v>
       </c>
       <c r="D2142" s="2" t="s">
-        <v>4187</v>
+        <v>4184</v>
       </c>
       <c r="E2142" t="s">
         <v>8</v>
@@ -49390,10 +49396,10 @@
         <v>5</v>
       </c>
       <c r="C2143" t="s">
-        <v>3831</v>
+        <v>3828</v>
       </c>
       <c r="D2143" s="2" t="s">
-        <v>4188</v>
+        <v>4185</v>
       </c>
       <c r="E2143" t="s">
         <v>8</v>
@@ -49407,10 +49413,10 @@
         <v>5</v>
       </c>
       <c r="C2144" t="s">
-        <v>3832</v>
+        <v>3829</v>
       </c>
       <c r="D2144" s="2" t="s">
-        <v>4189</v>
+        <v>4186</v>
       </c>
       <c r="E2144" t="s">
         <v>8</v>
@@ -49424,10 +49430,10 @@
         <v>5</v>
       </c>
       <c r="C2145" t="s">
-        <v>3833</v>
+        <v>3830</v>
       </c>
       <c r="D2145" s="2" t="s">
-        <v>4190</v>
+        <v>4187</v>
       </c>
       <c r="E2145" t="s">
         <v>8</v>
@@ -49441,10 +49447,10 @@
         <v>5</v>
       </c>
       <c r="C2146" t="s">
-        <v>3834</v>
+        <v>3831</v>
       </c>
       <c r="D2146" s="2" t="s">
-        <v>4191</v>
+        <v>4188</v>
       </c>
       <c r="E2146" t="s">
         <v>8</v>
@@ -49458,10 +49464,10 @@
         <v>5</v>
       </c>
       <c r="C2147" t="s">
-        <v>3835</v>
+        <v>3832</v>
       </c>
       <c r="D2147" s="2" t="s">
-        <v>4192</v>
+        <v>4189</v>
       </c>
       <c r="E2147" t="s">
         <v>8</v>
@@ -49475,10 +49481,10 @@
         <v>5</v>
       </c>
       <c r="C2148" t="s">
-        <v>3836</v>
+        <v>3833</v>
       </c>
       <c r="D2148" s="2" t="s">
-        <v>4193</v>
+        <v>4190</v>
       </c>
       <c r="E2148" t="s">
         <v>8</v>
@@ -49492,10 +49498,10 @@
         <v>5</v>
       </c>
       <c r="C2149" t="s">
-        <v>3837</v>
+        <v>3834</v>
       </c>
       <c r="D2149" s="2" t="s">
-        <v>4194</v>
+        <v>4191</v>
       </c>
       <c r="E2149" t="s">
         <v>8</v>
@@ -49509,10 +49515,10 @@
         <v>5</v>
       </c>
       <c r="C2150" t="s">
-        <v>3838</v>
+        <v>3835</v>
       </c>
       <c r="D2150" s="2" t="s">
-        <v>4195</v>
+        <v>4192</v>
       </c>
       <c r="E2150" t="s">
         <v>8</v>
@@ -49523,13 +49529,13 @@
         <v>5</v>
       </c>
       <c r="B2151" t="s">
-        <v>3839</v>
+        <v>3836</v>
       </c>
       <c r="C2151" t="s">
-        <v>3840</v>
+        <v>3837</v>
       </c>
       <c r="D2151" s="2" t="s">
-        <v>4196</v>
+        <v>4193</v>
       </c>
       <c r="E2151" t="s">
         <v>8</v>
@@ -49540,7 +49546,7 @@
         <v>5</v>
       </c>
       <c r="B2152" t="s">
-        <v>3839</v>
+        <v>3836</v>
       </c>
       <c r="C2152" t="s">
         <v>630</v>
@@ -49560,7 +49566,7 @@
         <v>5</v>
       </c>
       <c r="C2153" t="s">
-        <v>3841</v>
+        <v>3838</v>
       </c>
       <c r="D2153" s="2" t="s">
         <v>667</v>
@@ -49570,12 +49576,59 @@
       </c>
     </row>
     <row r="2154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D2154" s="2" t="s">
+      <c r="A2154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2154" s="3" t="s">
         <v>4198</v>
+      </c>
+      <c r="D2154" s="3" t="s">
+        <v>4201</v>
+      </c>
+      <c r="E2154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2155" s="3" t="s">
+        <v>4199</v>
+      </c>
+      <c r="D2155" s="3" t="s">
+        <v>4202</v>
+      </c>
+      <c r="E2155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2156" s="3" t="s">
+        <v>4200</v>
+      </c>
+      <c r="D2156" s="3" t="s">
+        <v>4203</v>
+      </c>
+      <c r="E2156" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bojidar\git\microweber-12\src\MicroweberPackages\Translation\resources\lang_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D61FF-1EF8-4AF3-AE34-FCF2975CE515}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2631F5C7-E4B4-4CDB-8CFD-F46832559C49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10771" uniqueCount="4204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10769" uniqueCount="4204">
   <si>
     <t>translation_group</t>
   </si>
@@ -12985,10 +12985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2156"/>
+  <dimension ref="A1:E2155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2144" workbookViewId="0">
-      <selection activeCell="D2156" sqref="D2156"/>
+    <sheetView tabSelected="1" topLeftCell="C1613" workbookViewId="0">
+      <selection activeCell="C2103" sqref="A2103:XFD2103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48722,8 +48722,15 @@
       <c r="B2103" t="s">
         <v>5</v>
       </c>
-      <c r="C2103" s="1"/>
-      <c r="D2103" s="2"/>
+      <c r="C2103" t="s">
+        <v>3791</v>
+      </c>
+      <c r="D2103" s="2" t="s">
+        <v>4148</v>
+      </c>
+      <c r="E2103" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2104" t="s">
@@ -48733,33 +48740,33 @@
         <v>5</v>
       </c>
       <c r="C2104" t="s">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="D2104" s="2" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="E2104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2105" t="s">
         <v>5</v>
       </c>
       <c r="B2105" t="s">
         <v>5</v>
       </c>
-      <c r="C2105" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D2105" s="2" t="s">
-        <v>4149</v>
+      <c r="C2105" s="1" t="s">
+        <v>4195</v>
+      </c>
+      <c r="D2105" t="s">
+        <v>4194</v>
       </c>
       <c r="E2105" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2106" t="s">
         <v>5</v>
       </c>
@@ -48767,27 +48774,27 @@
         <v>5</v>
       </c>
       <c r="C2106" s="1" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="D2106" t="s">
-        <v>4194</v>
+        <v>4197</v>
       </c>
       <c r="E2106" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2107" t="s">
         <v>5</v>
       </c>
       <c r="B2107" t="s">
         <v>5</v>
       </c>
-      <c r="C2107" s="1" t="s">
-        <v>4196</v>
-      </c>
-      <c r="D2107" t="s">
-        <v>4197</v>
+      <c r="C2107" t="s">
+        <v>3793</v>
+      </c>
+      <c r="D2107" s="2" t="s">
+        <v>4150</v>
       </c>
       <c r="E2107" t="s">
         <v>8</v>
@@ -48801,16 +48808,16 @@
         <v>5</v>
       </c>
       <c r="C2108" t="s">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="D2108" s="2" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="E2108" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2109" t="s">
         <v>5</v>
       </c>
@@ -48818,16 +48825,16 @@
         <v>5</v>
       </c>
       <c r="C2109" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
       <c r="D2109" s="2" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="E2109" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2110" t="s">
         <v>5</v>
       </c>
@@ -48835,10 +48842,10 @@
         <v>5</v>
       </c>
       <c r="C2110" t="s">
-        <v>3795</v>
+        <v>3796</v>
       </c>
       <c r="D2110" s="2" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="E2110" t="s">
         <v>8</v>
@@ -48852,10 +48859,10 @@
         <v>5</v>
       </c>
       <c r="C2111" t="s">
-        <v>3796</v>
+        <v>3797</v>
       </c>
       <c r="D2111" s="2" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="E2111" t="s">
         <v>8</v>
@@ -48869,10 +48876,10 @@
         <v>5</v>
       </c>
       <c r="C2112" t="s">
-        <v>3797</v>
+        <v>3798</v>
       </c>
       <c r="D2112" s="2" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E2112" t="s">
         <v>8</v>
@@ -48886,10 +48893,10 @@
         <v>5</v>
       </c>
       <c r="C2113" t="s">
-        <v>3798</v>
+        <v>3799</v>
       </c>
       <c r="D2113" s="2" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="E2113" t="s">
         <v>8</v>
@@ -48903,10 +48910,10 @@
         <v>5</v>
       </c>
       <c r="C2114" t="s">
-        <v>3799</v>
+        <v>3800</v>
       </c>
       <c r="D2114" s="2" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="E2114" t="s">
         <v>8</v>
@@ -48920,10 +48927,10 @@
         <v>5</v>
       </c>
       <c r="C2115" t="s">
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="D2115" s="2" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="E2115" t="s">
         <v>8</v>
@@ -48937,10 +48944,10 @@
         <v>5</v>
       </c>
       <c r="C2116" t="s">
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="D2116" s="2" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="E2116" t="s">
         <v>8</v>
@@ -48954,10 +48961,10 @@
         <v>5</v>
       </c>
       <c r="C2117" t="s">
-        <v>3802</v>
+        <v>3803</v>
       </c>
       <c r="D2117" s="2" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="E2117" t="s">
         <v>8</v>
@@ -48971,10 +48978,10 @@
         <v>5</v>
       </c>
       <c r="C2118" t="s">
-        <v>3803</v>
+        <v>3804</v>
       </c>
       <c r="D2118" s="2" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="E2118" t="s">
         <v>8</v>
@@ -48988,10 +48995,10 @@
         <v>5</v>
       </c>
       <c r="C2119" t="s">
-        <v>3804</v>
+        <v>3805</v>
       </c>
       <c r="D2119" s="2" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="E2119" t="s">
         <v>8</v>
@@ -49005,10 +49012,10 @@
         <v>5</v>
       </c>
       <c r="C2120" t="s">
-        <v>3805</v>
+        <v>3806</v>
       </c>
       <c r="D2120" s="2" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="E2120" t="s">
         <v>8</v>
@@ -49022,10 +49029,10 @@
         <v>5</v>
       </c>
       <c r="C2121" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="D2121" s="2" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="E2121" t="s">
         <v>8</v>
@@ -49039,10 +49046,10 @@
         <v>5</v>
       </c>
       <c r="C2122" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="D2122" s="2" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="E2122" t="s">
         <v>8</v>
@@ -49056,10 +49063,10 @@
         <v>5</v>
       </c>
       <c r="C2123" t="s">
-        <v>3808</v>
+        <v>3809</v>
       </c>
       <c r="D2123" s="2" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="E2123" t="s">
         <v>8</v>
@@ -49073,10 +49080,10 @@
         <v>5</v>
       </c>
       <c r="C2124" t="s">
-        <v>3809</v>
+        <v>3810</v>
       </c>
       <c r="D2124" s="2" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="E2124" t="s">
         <v>8</v>
@@ -49090,10 +49097,10 @@
         <v>5</v>
       </c>
       <c r="C2125" t="s">
-        <v>3810</v>
+        <v>3811</v>
       </c>
       <c r="D2125" s="2" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="E2125" t="s">
         <v>8</v>
@@ -49107,10 +49114,10 @@
         <v>5</v>
       </c>
       <c r="C2126" t="s">
-        <v>3811</v>
+        <v>3812</v>
       </c>
       <c r="D2126" s="2" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="E2126" t="s">
         <v>8</v>
@@ -49124,10 +49131,10 @@
         <v>5</v>
       </c>
       <c r="C2127" t="s">
-        <v>3812</v>
+        <v>3813</v>
       </c>
       <c r="D2127" s="2" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="E2127" t="s">
         <v>8</v>
@@ -49141,10 +49148,10 @@
         <v>5</v>
       </c>
       <c r="C2128" t="s">
-        <v>3813</v>
+        <v>3814</v>
       </c>
       <c r="D2128" s="2" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="E2128" t="s">
         <v>8</v>
@@ -49158,10 +49165,10 @@
         <v>5</v>
       </c>
       <c r="C2129" t="s">
-        <v>3814</v>
+        <v>3815</v>
       </c>
       <c r="D2129" s="2" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="E2129" t="s">
         <v>8</v>
@@ -49175,10 +49182,10 @@
         <v>5</v>
       </c>
       <c r="C2130" t="s">
-        <v>3815</v>
+        <v>3816</v>
       </c>
       <c r="D2130" s="2" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="E2130" t="s">
         <v>8</v>
@@ -49192,10 +49199,10 @@
         <v>5</v>
       </c>
       <c r="C2131" t="s">
-        <v>3816</v>
+        <v>3817</v>
       </c>
       <c r="D2131" s="2" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="E2131" t="s">
         <v>8</v>
@@ -49209,10 +49216,10 @@
         <v>5</v>
       </c>
       <c r="C2132" t="s">
-        <v>3817</v>
+        <v>3818</v>
       </c>
       <c r="D2132" s="2" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="E2132" t="s">
         <v>8</v>
@@ -49226,10 +49233,10 @@
         <v>5</v>
       </c>
       <c r="C2133" t="s">
-        <v>3818</v>
+        <v>3819</v>
       </c>
       <c r="D2133" s="2" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="E2133" t="s">
         <v>8</v>
@@ -49243,10 +49250,10 @@
         <v>5</v>
       </c>
       <c r="C2134" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="D2134" s="2" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="E2134" t="s">
         <v>8</v>
@@ -49260,10 +49267,10 @@
         <v>5</v>
       </c>
       <c r="C2135" t="s">
-        <v>3820</v>
+        <v>3821</v>
       </c>
       <c r="D2135" s="2" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E2135" t="s">
         <v>8</v>
@@ -49277,10 +49284,10 @@
         <v>5</v>
       </c>
       <c r="C2136" t="s">
-        <v>3821</v>
+        <v>3822</v>
       </c>
       <c r="D2136" s="2" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E2136" t="s">
         <v>8</v>
@@ -49294,10 +49301,10 @@
         <v>5</v>
       </c>
       <c r="C2137" t="s">
-        <v>3822</v>
+        <v>3823</v>
       </c>
       <c r="D2137" s="2" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="E2137" t="s">
         <v>8</v>
@@ -49311,10 +49318,10 @@
         <v>5</v>
       </c>
       <c r="C2138" t="s">
-        <v>3823</v>
+        <v>3824</v>
       </c>
       <c r="D2138" s="2" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="E2138" t="s">
         <v>8</v>
@@ -49328,10 +49335,10 @@
         <v>5</v>
       </c>
       <c r="C2139" t="s">
-        <v>3824</v>
+        <v>3825</v>
       </c>
       <c r="D2139" s="2" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E2139" t="s">
         <v>8</v>
@@ -49345,10 +49352,10 @@
         <v>5</v>
       </c>
       <c r="C2140" t="s">
-        <v>3825</v>
+        <v>3826</v>
       </c>
       <c r="D2140" s="2" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="E2140" t="s">
         <v>8</v>
@@ -49362,10 +49369,10 @@
         <v>5</v>
       </c>
       <c r="C2141" t="s">
-        <v>3826</v>
+        <v>3827</v>
       </c>
       <c r="D2141" s="2" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="E2141" t="s">
         <v>8</v>
@@ -49379,10 +49386,10 @@
         <v>5</v>
       </c>
       <c r="C2142" t="s">
-        <v>3827</v>
+        <v>3828</v>
       </c>
       <c r="D2142" s="2" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="E2142" t="s">
         <v>8</v>
@@ -49396,10 +49403,10 @@
         <v>5</v>
       </c>
       <c r="C2143" t="s">
-        <v>3828</v>
+        <v>3829</v>
       </c>
       <c r="D2143" s="2" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E2143" t="s">
         <v>8</v>
@@ -49413,10 +49420,10 @@
         <v>5</v>
       </c>
       <c r="C2144" t="s">
-        <v>3829</v>
+        <v>3830</v>
       </c>
       <c r="D2144" s="2" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="E2144" t="s">
         <v>8</v>
@@ -49430,10 +49437,10 @@
         <v>5</v>
       </c>
       <c r="C2145" t="s">
-        <v>3830</v>
+        <v>3831</v>
       </c>
       <c r="D2145" s="2" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="E2145" t="s">
         <v>8</v>
@@ -49447,10 +49454,10 @@
         <v>5</v>
       </c>
       <c r="C2146" t="s">
-        <v>3831</v>
+        <v>3832</v>
       </c>
       <c r="D2146" s="2" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="E2146" t="s">
         <v>8</v>
@@ -49464,10 +49471,10 @@
         <v>5</v>
       </c>
       <c r="C2147" t="s">
-        <v>3832</v>
+        <v>3833</v>
       </c>
       <c r="D2147" s="2" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="E2147" t="s">
         <v>8</v>
@@ -49481,10 +49488,10 @@
         <v>5</v>
       </c>
       <c r="C2148" t="s">
-        <v>3833</v>
+        <v>3834</v>
       </c>
       <c r="D2148" s="2" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="E2148" t="s">
         <v>8</v>
@@ -49498,33 +49505,33 @@
         <v>5</v>
       </c>
       <c r="C2149" t="s">
-        <v>3834</v>
+        <v>3835</v>
       </c>
       <c r="D2149" s="2" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="E2149" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2150" t="s">
         <v>5</v>
       </c>
       <c r="B2150" t="s">
-        <v>5</v>
+        <v>3836</v>
       </c>
       <c r="C2150" t="s">
-        <v>3835</v>
+        <v>3837</v>
       </c>
       <c r="D2150" s="2" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E2150" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2151" t="s">
         <v>5</v>
       </c>
@@ -49532,10 +49539,10 @@
         <v>3836</v>
       </c>
       <c r="C2151" t="s">
-        <v>3837</v>
+        <v>630</v>
       </c>
       <c r="D2151" s="2" t="s">
-        <v>4193</v>
+        <v>631</v>
       </c>
       <c r="E2151" t="s">
         <v>8</v>
@@ -49546,13 +49553,13 @@
         <v>5</v>
       </c>
       <c r="B2152" t="s">
-        <v>3836</v>
+        <v>5</v>
       </c>
       <c r="C2152" t="s">
-        <v>630</v>
+        <v>3838</v>
       </c>
       <c r="D2152" s="2" t="s">
-        <v>631</v>
+        <v>667</v>
       </c>
       <c r="E2152" t="s">
         <v>8</v>
@@ -49565,11 +49572,11 @@
       <c r="B2153" t="s">
         <v>5</v>
       </c>
-      <c r="C2153" t="s">
-        <v>3838</v>
-      </c>
-      <c r="D2153" s="2" t="s">
-        <v>667</v>
+      <c r="C2153" s="3" t="s">
+        <v>4198</v>
+      </c>
+      <c r="D2153" s="3" t="s">
+        <v>4201</v>
       </c>
       <c r="E2153" t="s">
         <v>8</v>
@@ -49583,10 +49590,10 @@
         <v>5</v>
       </c>
       <c r="C2154" s="3" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="D2154" s="3" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="E2154" t="s">
         <v>8</v>
@@ -49600,29 +49607,12 @@
         <v>5</v>
       </c>
       <c r="C2155" s="3" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="D2155" s="3" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E2155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2156" s="3" t="s">
-        <v>4200</v>
-      </c>
-      <c r="D2156" s="3" t="s">
-        <v>4203</v>
-      </c>
-      <c r="E2156" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5217">
   <si>
     <t>translation_group</t>
   </si>
@@ -4229,7 +4229,7 @@
     <t>Abandoned carts</t>
   </si>
   <si>
-    <t>Изоставени каруци</t>
+    <t>Изоставени колички</t>
   </si>
   <si>
     <t>Additional Information ( Special notes for delivery - Optional )</t>
@@ -14764,9 +14764,6 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Изоставени колички</t>
-  </si>
-  <si>
     <t>are you sure you want to delete this client</t>
   </si>
   <si>
@@ -15623,12 +15620,6 @@
   </si>
   <si>
     <t xml:space="preserve"> известия</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16015,17 +16006,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -51682,7 +51673,7 @@
         <v>4914</v>
       </c>
       <c r="D2547" t="s">
-        <v>4915</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="2548" spans="1:4">
@@ -51693,10 +51684,10 @@
         <v>4</v>
       </c>
       <c r="C2548" t="s">
+        <v>4915</v>
+      </c>
+      <c r="D2548" t="s">
         <v>4916</v>
-      </c>
-      <c r="D2548" t="s">
-        <v>4917</v>
       </c>
     </row>
     <row r="2549" spans="1:4">
@@ -51707,10 +51698,10 @@
         <v>4</v>
       </c>
       <c r="C2549" t="s">
+        <v>4917</v>
+      </c>
+      <c r="D2549" t="s">
         <v>4918</v>
-      </c>
-      <c r="D2549" t="s">
-        <v>4919</v>
       </c>
     </row>
     <row r="2550" spans="1:4">
@@ -51721,7 +51712,7 @@
         <v>4</v>
       </c>
       <c r="C2550" t="s">
-        <v>4920</v>
+        <v>4919</v>
       </c>
       <c r="D2550" t="s">
         <v>1528</v>
@@ -51735,7 +51726,7 @@
         <v>4</v>
       </c>
       <c r="C2551" t="s">
-        <v>4921</v>
+        <v>4920</v>
       </c>
       <c r="D2551" t="s">
         <v>1562</v>
@@ -51749,7 +51740,7 @@
         <v>4</v>
       </c>
       <c r="C2552" t="s">
-        <v>4922</v>
+        <v>4921</v>
       </c>
       <c r="D2552" t="s">
         <v>1665</v>
@@ -51763,10 +51754,10 @@
         <v>4</v>
       </c>
       <c r="C2553" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D2553" t="s">
         <v>4923</v>
-      </c>
-      <c r="D2553" t="s">
-        <v>4924</v>
       </c>
     </row>
     <row r="2554" spans="1:4">
@@ -51777,10 +51768,10 @@
         <v>4</v>
       </c>
       <c r="C2554" t="s">
+        <v>4924</v>
+      </c>
+      <c r="D2554" t="s">
         <v>4925</v>
-      </c>
-      <c r="D2554" t="s">
-        <v>4926</v>
       </c>
     </row>
     <row r="2555" spans="1:4">
@@ -51791,7 +51782,7 @@
         <v>4</v>
       </c>
       <c r="C2555" t="s">
-        <v>4927</v>
+        <v>4926</v>
       </c>
       <c r="D2555" t="s">
         <v>1778</v>
@@ -51805,10 +51796,10 @@
         <v>4</v>
       </c>
       <c r="C2556" t="s">
+        <v>4927</v>
+      </c>
+      <c r="D2556" t="s">
         <v>4928</v>
-      </c>
-      <c r="D2556" t="s">
-        <v>4929</v>
       </c>
     </row>
     <row r="2557" spans="1:4">
@@ -51819,7 +51810,7 @@
         <v>4</v>
       </c>
       <c r="C2557" t="s">
-        <v>4930</v>
+        <v>4929</v>
       </c>
       <c r="D2557" t="s">
         <v>2047</v>
@@ -51833,7 +51824,7 @@
         <v>4</v>
       </c>
       <c r="C2558" t="s">
-        <v>4931</v>
+        <v>4930</v>
       </c>
       <c r="D2558" t="s">
         <v>2073</v>
@@ -51847,10 +51838,10 @@
         <v>4</v>
       </c>
       <c r="C2559" t="s">
+        <v>4931</v>
+      </c>
+      <c r="D2559" t="s">
         <v>4932</v>
-      </c>
-      <c r="D2559" t="s">
-        <v>4933</v>
       </c>
     </row>
     <row r="2560" spans="1:4">
@@ -51861,7 +51852,7 @@
         <v>4</v>
       </c>
       <c r="C2560" t="s">
-        <v>4934</v>
+        <v>4933</v>
       </c>
       <c r="D2560" t="s">
         <v>2152</v>
@@ -51875,7 +51866,7 @@
         <v>4</v>
       </c>
       <c r="C2561" t="s">
-        <v>4935</v>
+        <v>4934</v>
       </c>
       <c r="D2561" t="s">
         <v>2177</v>
@@ -51889,10 +51880,10 @@
         <v>4</v>
       </c>
       <c r="C2562" t="s">
+        <v>4935</v>
+      </c>
+      <c r="D2562" t="s">
         <v>4936</v>
-      </c>
-      <c r="D2562" t="s">
-        <v>4937</v>
       </c>
     </row>
     <row r="2563" spans="1:4">
@@ -51903,7 +51894,7 @@
         <v>4</v>
       </c>
       <c r="C2563" t="s">
-        <v>4938</v>
+        <v>4937</v>
       </c>
       <c r="D2563" t="s">
         <v>2234</v>
@@ -51917,7 +51908,7 @@
         <v>4</v>
       </c>
       <c r="C2564" t="s">
-        <v>4939</v>
+        <v>4938</v>
       </c>
       <c r="D2564" t="s">
         <v>2238</v>
@@ -51931,7 +51922,7 @@
         <v>4</v>
       </c>
       <c r="C2565" t="s">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="D2565" t="s">
         <v>2384</v>
@@ -51945,7 +51936,7 @@
         <v>4</v>
       </c>
       <c r="C2566" t="s">
-        <v>4941</v>
+        <v>4940</v>
       </c>
       <c r="D2566" t="s">
         <v>2505</v>
@@ -51959,7 +51950,7 @@
         <v>4</v>
       </c>
       <c r="C2567" t="s">
-        <v>4942</v>
+        <v>4941</v>
       </c>
       <c r="D2567" t="s">
         <v>2760</v>
@@ -51973,7 +51964,7 @@
         <v>4</v>
       </c>
       <c r="C2568" t="s">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="D2568" t="s">
         <v>2875</v>
@@ -51987,10 +51978,10 @@
         <v>4</v>
       </c>
       <c r="C2569" t="s">
+        <v>4943</v>
+      </c>
+      <c r="D2569" t="s">
         <v>4944</v>
-      </c>
-      <c r="D2569" t="s">
-        <v>4945</v>
       </c>
     </row>
     <row r="2570" spans="1:4">
@@ -52001,10 +51992,10 @@
         <v>4</v>
       </c>
       <c r="C2570" t="s">
+        <v>4945</v>
+      </c>
+      <c r="D2570" t="s">
         <v>4946</v>
-      </c>
-      <c r="D2570" t="s">
-        <v>4947</v>
       </c>
     </row>
     <row r="2571" spans="1:4">
@@ -52015,10 +52006,10 @@
         <v>4</v>
       </c>
       <c r="C2571" t="s">
+        <v>4947</v>
+      </c>
+      <c r="D2571" t="s">
         <v>4948</v>
-      </c>
-      <c r="D2571" t="s">
-        <v>4949</v>
       </c>
     </row>
     <row r="2572" spans="1:4">
@@ -52029,10 +52020,10 @@
         <v>4</v>
       </c>
       <c r="C2572" t="s">
+        <v>4949</v>
+      </c>
+      <c r="D2572" t="s">
         <v>4950</v>
-      </c>
-      <c r="D2572" t="s">
-        <v>4951</v>
       </c>
     </row>
     <row r="2573" spans="1:4">
@@ -52043,10 +52034,10 @@
         <v>4</v>
       </c>
       <c r="C2573" t="s">
+        <v>4951</v>
+      </c>
+      <c r="D2573" t="s">
         <v>4952</v>
-      </c>
-      <c r="D2573" t="s">
-        <v>4953</v>
       </c>
     </row>
     <row r="2574" spans="1:4">
@@ -52057,7 +52048,7 @@
         <v>4</v>
       </c>
       <c r="C2574" t="s">
-        <v>4954</v>
+        <v>4953</v>
       </c>
       <c r="D2574" t="s">
         <v>4260</v>
@@ -52071,10 +52062,10 @@
         <v>4</v>
       </c>
       <c r="C2575" t="s">
+        <v>4954</v>
+      </c>
+      <c r="D2575" t="s">
         <v>4955</v>
-      </c>
-      <c r="D2575" t="s">
-        <v>4956</v>
       </c>
     </row>
     <row r="2576" spans="1:4">
@@ -52085,10 +52076,10 @@
         <v>4</v>
       </c>
       <c r="C2576" t="s">
+        <v>4956</v>
+      </c>
+      <c r="D2576" t="s">
         <v>4957</v>
-      </c>
-      <c r="D2576" t="s">
-        <v>4958</v>
       </c>
     </row>
     <row r="2577" spans="1:4">
@@ -52099,10 +52090,10 @@
         <v>4</v>
       </c>
       <c r="C2577" t="s">
+        <v>4958</v>
+      </c>
+      <c r="D2577" t="s">
         <v>4959</v>
-      </c>
-      <c r="D2577" t="s">
-        <v>4960</v>
       </c>
     </row>
     <row r="2578" spans="1:4">
@@ -52113,10 +52104,10 @@
         <v>4</v>
       </c>
       <c r="C2578" t="s">
+        <v>4960</v>
+      </c>
+      <c r="D2578" t="s">
         <v>4961</v>
-      </c>
-      <c r="D2578" t="s">
-        <v>4962</v>
       </c>
     </row>
     <row r="2579" spans="1:4">
@@ -52127,10 +52118,10 @@
         <v>4</v>
       </c>
       <c r="C2579" t="s">
+        <v>4962</v>
+      </c>
+      <c r="D2579" t="s">
         <v>4963</v>
-      </c>
-      <c r="D2579" t="s">
-        <v>4964</v>
       </c>
     </row>
     <row r="2580" spans="1:4">
@@ -52141,10 +52132,10 @@
         <v>4</v>
       </c>
       <c r="C2580" t="s">
+        <v>4964</v>
+      </c>
+      <c r="D2580" t="s">
         <v>4965</v>
-      </c>
-      <c r="D2580" t="s">
-        <v>4966</v>
       </c>
     </row>
     <row r="2581" spans="1:4">
@@ -52155,10 +52146,10 @@
         <v>4</v>
       </c>
       <c r="C2581" t="s">
+        <v>4966</v>
+      </c>
+      <c r="D2581" t="s">
         <v>4967</v>
-      </c>
-      <c r="D2581" t="s">
-        <v>4968</v>
       </c>
     </row>
     <row r="2582" spans="1:4">
@@ -52169,10 +52160,10 @@
         <v>4</v>
       </c>
       <c r="C2582" t="s">
+        <v>4968</v>
+      </c>
+      <c r="D2582" t="s">
         <v>4969</v>
-      </c>
-      <c r="D2582" t="s">
-        <v>4970</v>
       </c>
     </row>
     <row r="2583" spans="1:4">
@@ -52183,10 +52174,10 @@
         <v>4</v>
       </c>
       <c r="C2583" t="s">
+        <v>4970</v>
+      </c>
+      <c r="D2583" t="s">
         <v>4971</v>
-      </c>
-      <c r="D2583" t="s">
-        <v>4972</v>
       </c>
     </row>
     <row r="2584" spans="1:4">
@@ -52197,10 +52188,10 @@
         <v>4</v>
       </c>
       <c r="C2584" t="s">
+        <v>4972</v>
+      </c>
+      <c r="D2584" t="s">
         <v>4973</v>
-      </c>
-      <c r="D2584" t="s">
-        <v>4974</v>
       </c>
     </row>
     <row r="2585" spans="1:4">
@@ -52211,10 +52202,10 @@
         <v>4</v>
       </c>
       <c r="C2585" t="s">
+        <v>4974</v>
+      </c>
+      <c r="D2585" t="s">
         <v>4975</v>
-      </c>
-      <c r="D2585" t="s">
-        <v>4976</v>
       </c>
     </row>
     <row r="2586" spans="1:4">
@@ -52225,10 +52216,10 @@
         <v>4</v>
       </c>
       <c r="C2586" t="s">
+        <v>4976</v>
+      </c>
+      <c r="D2586" t="s">
         <v>4977</v>
-      </c>
-      <c r="D2586" t="s">
-        <v>4978</v>
       </c>
     </row>
     <row r="2587" spans="1:4">
@@ -52239,10 +52230,10 @@
         <v>4</v>
       </c>
       <c r="C2587" t="s">
+        <v>4978</v>
+      </c>
+      <c r="D2587" t="s">
         <v>4979</v>
-      </c>
-      <c r="D2587" t="s">
-        <v>4980</v>
       </c>
     </row>
     <row r="2588" spans="1:4">
@@ -52253,10 +52244,10 @@
         <v>4</v>
       </c>
       <c r="C2588" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D2588" t="s">
         <v>4981</v>
-      </c>
-      <c r="D2588" t="s">
-        <v>4982</v>
       </c>
     </row>
     <row r="2589" spans="1:4">
@@ -52267,10 +52258,10 @@
         <v>4</v>
       </c>
       <c r="C2589" t="s">
+        <v>4982</v>
+      </c>
+      <c r="D2589" t="s">
         <v>4983</v>
-      </c>
-      <c r="D2589" t="s">
-        <v>4984</v>
       </c>
     </row>
     <row r="2590" spans="1:4">
@@ -52281,10 +52272,10 @@
         <v>4</v>
       </c>
       <c r="C2590" t="s">
+        <v>4984</v>
+      </c>
+      <c r="D2590" t="s">
         <v>4985</v>
-      </c>
-      <c r="D2590" t="s">
-        <v>4986</v>
       </c>
     </row>
     <row r="2591" spans="1:4">
@@ -52295,10 +52286,10 @@
         <v>4</v>
       </c>
       <c r="C2591" t="s">
+        <v>4986</v>
+      </c>
+      <c r="D2591" t="s">
         <v>4987</v>
-      </c>
-      <c r="D2591" t="s">
-        <v>4988</v>
       </c>
     </row>
     <row r="2592" spans="1:4">
@@ -52309,10 +52300,10 @@
         <v>4</v>
       </c>
       <c r="C2592" t="s">
+        <v>4988</v>
+      </c>
+      <c r="D2592" t="s">
         <v>4989</v>
-      </c>
-      <c r="D2592" t="s">
-        <v>4990</v>
       </c>
     </row>
     <row r="2593" spans="1:4">
@@ -52323,10 +52314,10 @@
         <v>4</v>
       </c>
       <c r="C2593" t="s">
+        <v>4990</v>
+      </c>
+      <c r="D2593" t="s">
         <v>4991</v>
-      </c>
-      <c r="D2593" t="s">
-        <v>4992</v>
       </c>
     </row>
     <row r="2594" spans="1:4">
@@ -52337,10 +52328,10 @@
         <v>4</v>
       </c>
       <c r="C2594" t="s">
+        <v>4992</v>
+      </c>
+      <c r="D2594" t="s">
         <v>4993</v>
-      </c>
-      <c r="D2594" t="s">
-        <v>4994</v>
       </c>
     </row>
     <row r="2595" spans="1:4">
@@ -52351,10 +52342,10 @@
         <v>4</v>
       </c>
       <c r="C2595" t="s">
+        <v>4994</v>
+      </c>
+      <c r="D2595" t="s">
         <v>4995</v>
-      </c>
-      <c r="D2595" t="s">
-        <v>4996</v>
       </c>
     </row>
     <row r="2596" spans="1:4">
@@ -52365,10 +52356,10 @@
         <v>4</v>
       </c>
       <c r="C2596" t="s">
+        <v>4996</v>
+      </c>
+      <c r="D2596" t="s">
         <v>4997</v>
-      </c>
-      <c r="D2596" t="s">
-        <v>4998</v>
       </c>
     </row>
     <row r="2597" spans="1:4">
@@ -52379,10 +52370,10 @@
         <v>4</v>
       </c>
       <c r="C2597" t="s">
+        <v>4998</v>
+      </c>
+      <c r="D2597" t="s">
         <v>4999</v>
-      </c>
-      <c r="D2597" t="s">
-        <v>5000</v>
       </c>
     </row>
     <row r="2598" spans="1:4">
@@ -52393,10 +52384,10 @@
         <v>4</v>
       </c>
       <c r="C2598" t="s">
+        <v>5000</v>
+      </c>
+      <c r="D2598" t="s">
         <v>5001</v>
-      </c>
-      <c r="D2598" t="s">
-        <v>5002</v>
       </c>
     </row>
     <row r="2599" spans="1:4">
@@ -52407,10 +52398,10 @@
         <v>4</v>
       </c>
       <c r="C2599" t="s">
+        <v>5002</v>
+      </c>
+      <c r="D2599" t="s">
         <v>5003</v>
-      </c>
-      <c r="D2599" t="s">
-        <v>5004</v>
       </c>
     </row>
     <row r="2600" spans="1:4">
@@ -52421,10 +52412,10 @@
         <v>4</v>
       </c>
       <c r="C2600" t="s">
+        <v>5004</v>
+      </c>
+      <c r="D2600" t="s">
         <v>5005</v>
-      </c>
-      <c r="D2600" t="s">
-        <v>5006</v>
       </c>
     </row>
     <row r="2601" spans="1:4">
@@ -52435,10 +52426,10 @@
         <v>4</v>
       </c>
       <c r="C2601" t="s">
+        <v>5006</v>
+      </c>
+      <c r="D2601" t="s">
         <v>5007</v>
-      </c>
-      <c r="D2601" t="s">
-        <v>5008</v>
       </c>
     </row>
     <row r="2602" spans="1:4">
@@ -52449,10 +52440,10 @@
         <v>4</v>
       </c>
       <c r="C2602" t="s">
+        <v>5008</v>
+      </c>
+      <c r="D2602" t="s">
         <v>5009</v>
-      </c>
-      <c r="D2602" t="s">
-        <v>5010</v>
       </c>
     </row>
     <row r="2603" spans="1:4">
@@ -52463,10 +52454,10 @@
         <v>4</v>
       </c>
       <c r="C2603" t="s">
+        <v>5010</v>
+      </c>
+      <c r="D2603" t="s">
         <v>5011</v>
-      </c>
-      <c r="D2603" t="s">
-        <v>5012</v>
       </c>
     </row>
     <row r="2604" spans="1:4">
@@ -52477,10 +52468,10 @@
         <v>4</v>
       </c>
       <c r="C2604" t="s">
+        <v>5012</v>
+      </c>
+      <c r="D2604" t="s">
         <v>5013</v>
-      </c>
-      <c r="D2604" t="s">
-        <v>5014</v>
       </c>
     </row>
     <row r="2605" spans="1:4">
@@ -52491,10 +52482,10 @@
         <v>4</v>
       </c>
       <c r="C2605" t="s">
+        <v>5014</v>
+      </c>
+      <c r="D2605" t="s">
         <v>5015</v>
-      </c>
-      <c r="D2605" t="s">
-        <v>5016</v>
       </c>
     </row>
     <row r="2606" spans="1:4">
@@ -52505,10 +52496,10 @@
         <v>4</v>
       </c>
       <c r="C2606" t="s">
+        <v>5016</v>
+      </c>
+      <c r="D2606" t="s">
         <v>5017</v>
-      </c>
-      <c r="D2606" t="s">
-        <v>5018</v>
       </c>
     </row>
     <row r="2607" spans="1:4">
@@ -52519,10 +52510,10 @@
         <v>4</v>
       </c>
       <c r="C2607" t="s">
+        <v>5018</v>
+      </c>
+      <c r="D2607" t="s">
         <v>5019</v>
-      </c>
-      <c r="D2607" t="s">
-        <v>5020</v>
       </c>
     </row>
     <row r="2608" spans="1:4">
@@ -52533,10 +52524,10 @@
         <v>4</v>
       </c>
       <c r="C2608" t="s">
+        <v>5020</v>
+      </c>
+      <c r="D2608" t="s">
         <v>5021</v>
-      </c>
-      <c r="D2608" t="s">
-        <v>5022</v>
       </c>
     </row>
     <row r="2609" spans="1:4">
@@ -52547,10 +52538,10 @@
         <v>4</v>
       </c>
       <c r="C2609" t="s">
+        <v>5022</v>
+      </c>
+      <c r="D2609" t="s">
         <v>5023</v>
-      </c>
-      <c r="D2609" t="s">
-        <v>5024</v>
       </c>
     </row>
     <row r="2610" spans="1:4">
@@ -52561,10 +52552,10 @@
         <v>4</v>
       </c>
       <c r="C2610" t="s">
-        <v>5025</v>
+        <v>5024</v>
       </c>
       <c r="D2610" t="s">
-        <v>5025</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="2611" spans="1:4">
@@ -52575,10 +52566,10 @@
         <v>4</v>
       </c>
       <c r="C2611" t="s">
-        <v>5026</v>
+        <v>5025</v>
       </c>
       <c r="D2611" t="s">
-        <v>5026</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="2612" spans="1:4">
@@ -52589,10 +52580,10 @@
         <v>4</v>
       </c>
       <c r="C2612" t="s">
+        <v>5026</v>
+      </c>
+      <c r="D2612" t="s">
         <v>5027</v>
-      </c>
-      <c r="D2612" t="s">
-        <v>5028</v>
       </c>
     </row>
     <row r="2613" spans="1:4">
@@ -52603,10 +52594,10 @@
         <v>4</v>
       </c>
       <c r="C2613" t="s">
+        <v>5028</v>
+      </c>
+      <c r="D2613" t="s">
         <v>5029</v>
-      </c>
-      <c r="D2613" t="s">
-        <v>5030</v>
       </c>
     </row>
     <row r="2614" spans="1:4">
@@ -52617,10 +52608,10 @@
         <v>4</v>
       </c>
       <c r="C2614" t="s">
+        <v>5030</v>
+      </c>
+      <c r="D2614" t="s">
         <v>5031</v>
-      </c>
-      <c r="D2614" t="s">
-        <v>5032</v>
       </c>
     </row>
     <row r="2615" spans="1:4">
@@ -52631,10 +52622,10 @@
         <v>4</v>
       </c>
       <c r="C2615" t="s">
+        <v>5032</v>
+      </c>
+      <c r="D2615" t="s">
         <v>5033</v>
-      </c>
-      <c r="D2615" t="s">
-        <v>5034</v>
       </c>
     </row>
     <row r="2616" spans="1:4">
@@ -52645,10 +52636,10 @@
         <v>4</v>
       </c>
       <c r="C2616" t="s">
+        <v>5034</v>
+      </c>
+      <c r="D2616" t="s">
         <v>5035</v>
-      </c>
-      <c r="D2616" t="s">
-        <v>5036</v>
       </c>
     </row>
     <row r="2617" spans="1:4">
@@ -52659,10 +52650,10 @@
         <v>4</v>
       </c>
       <c r="C2617" t="s">
+        <v>5036</v>
+      </c>
+      <c r="D2617" t="s">
         <v>5037</v>
-      </c>
-      <c r="D2617" t="s">
-        <v>5038</v>
       </c>
     </row>
     <row r="2618" spans="1:4">
@@ -52673,7 +52664,7 @@
         <v>4</v>
       </c>
       <c r="C2618" t="s">
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="D2618" t="s">
         <v>4194</v>
@@ -52687,10 +52678,10 @@
         <v>4</v>
       </c>
       <c r="C2619" t="s">
+        <v>5039</v>
+      </c>
+      <c r="D2619" t="s">
         <v>5040</v>
-      </c>
-      <c r="D2619" t="s">
-        <v>5041</v>
       </c>
     </row>
     <row r="2620" spans="1:4">
@@ -52698,7 +52689,7 @@
         <v>4</v>
       </c>
       <c r="B2620" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2620" t="s">
         <v>2359</v>
@@ -52712,7 +52703,7 @@
         <v>4</v>
       </c>
       <c r="B2621" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2621" t="s">
         <v>2464</v>
@@ -52726,7 +52717,7 @@
         <v>4</v>
       </c>
       <c r="B2622" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2622" t="s">
         <v>2965</v>
@@ -52740,7 +52731,7 @@
         <v>4</v>
       </c>
       <c r="B2623" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2623" t="s">
         <v>1461</v>
@@ -52754,7 +52745,7 @@
         <v>4</v>
       </c>
       <c r="B2624" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2624" t="s">
         <v>85</v>
@@ -52780,13 +52771,13 @@
         <v>4</v>
       </c>
       <c r="B2626" t="s">
+        <v>5041</v>
+      </c>
+      <c r="C2626" t="s">
         <v>5042</v>
       </c>
-      <c r="C2626" t="s">
+      <c r="D2626" t="s">
         <v>5043</v>
-      </c>
-      <c r="D2626" t="s">
-        <v>5044</v>
       </c>
     </row>
     <row r="2627" spans="1:4">
@@ -52794,7 +52785,7 @@
         <v>4</v>
       </c>
       <c r="B2627" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2627" t="s">
         <v>4584</v>
@@ -52808,7 +52799,7 @@
         <v>4</v>
       </c>
       <c r="B2628" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2628" t="s">
         <v>2200</v>
@@ -52822,7 +52813,7 @@
         <v>4</v>
       </c>
       <c r="B2629" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2629" t="s">
         <v>629</v>
@@ -52839,10 +52830,10 @@
         <v>4</v>
       </c>
       <c r="C2630" t="s">
-        <v>5045</v>
+        <v>5044</v>
       </c>
       <c r="D2630" t="s">
-        <v>5045</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="2631" spans="1:4">
@@ -52853,10 +52844,10 @@
         <v>4</v>
       </c>
       <c r="C2631" t="s">
-        <v>5046</v>
+        <v>5045</v>
       </c>
       <c r="D2631" t="s">
-        <v>5046</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="2632" spans="1:4">
@@ -52895,10 +52886,10 @@
         <v>4</v>
       </c>
       <c r="C2634" t="s">
+        <v>5046</v>
+      </c>
+      <c r="D2634" t="s">
         <v>5047</v>
-      </c>
-      <c r="D2634" t="s">
-        <v>5048</v>
       </c>
     </row>
     <row r="2635" spans="1:4">
@@ -52909,10 +52900,10 @@
         <v>4</v>
       </c>
       <c r="C2635" t="s">
+        <v>5048</v>
+      </c>
+      <c r="D2635" t="s">
         <v>5049</v>
-      </c>
-      <c r="D2635" t="s">
-        <v>5050</v>
       </c>
     </row>
     <row r="2636" spans="1:4">
@@ -52923,10 +52914,10 @@
         <v>4</v>
       </c>
       <c r="C2636" t="s">
+        <v>5050</v>
+      </c>
+      <c r="D2636" t="s">
         <v>5051</v>
-      </c>
-      <c r="D2636" t="s">
-        <v>5052</v>
       </c>
     </row>
     <row r="2637" spans="1:4">
@@ -52934,7 +52925,7 @@
         <v>4</v>
       </c>
       <c r="B2637" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2637" t="s">
         <v>1945</v>
@@ -52948,7 +52939,7 @@
         <v>4</v>
       </c>
       <c r="B2638" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2638" t="s">
         <v>207</v>
@@ -52962,7 +52953,7 @@
         <v>4</v>
       </c>
       <c r="B2639" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2639" t="s">
         <v>2155</v>
@@ -52976,7 +52967,7 @@
         <v>4</v>
       </c>
       <c r="B2640" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2640" t="s">
         <v>385</v>
@@ -52990,7 +52981,7 @@
         <v>4</v>
       </c>
       <c r="B2641" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2641" t="s">
         <v>1991</v>
@@ -53004,7 +52995,7 @@
         <v>4</v>
       </c>
       <c r="B2642" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2642" t="s">
         <v>1979</v>
@@ -53018,7 +53009,7 @@
         <v>4</v>
       </c>
       <c r="B2643" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2643" t="s">
         <v>311</v>
@@ -53032,7 +53023,7 @@
         <v>4</v>
       </c>
       <c r="B2644" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2644" t="s">
         <v>4738</v>
@@ -53046,7 +53037,7 @@
         <v>4</v>
       </c>
       <c r="B2645" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2645" t="s">
         <v>4740</v>
@@ -53060,7 +53051,7 @@
         <v>4</v>
       </c>
       <c r="B2646" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2646" t="s">
         <v>4742</v>
@@ -53074,7 +53065,7 @@
         <v>4</v>
       </c>
       <c r="B2647" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2647" t="s">
         <v>2630</v>
@@ -53088,7 +53079,7 @@
         <v>4</v>
       </c>
       <c r="B2648" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2648" t="s">
         <v>4743</v>
@@ -53102,7 +53093,7 @@
         <v>4</v>
       </c>
       <c r="B2649" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2649" t="s">
         <v>4745</v>
@@ -53116,7 +53107,7 @@
         <v>4</v>
       </c>
       <c r="B2650" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2650" t="s">
         <v>4747</v>
@@ -53133,10 +53124,10 @@
         <v>4</v>
       </c>
       <c r="C2651" t="s">
+        <v>5052</v>
+      </c>
+      <c r="D2651" t="s">
         <v>5053</v>
-      </c>
-      <c r="D2651" t="s">
-        <v>5054</v>
       </c>
     </row>
     <row r="2652" spans="1:4">
@@ -53144,13 +53135,13 @@
         <v>4</v>
       </c>
       <c r="B2652" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2652" t="s">
+        <v>5054</v>
+      </c>
+      <c r="D2652" t="s">
         <v>5055</v>
-      </c>
-      <c r="D2652" t="s">
-        <v>5056</v>
       </c>
     </row>
     <row r="2653" spans="1:4">
@@ -53158,13 +53149,13 @@
         <v>4</v>
       </c>
       <c r="B2653" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2653" t="s">
+        <v>5056</v>
+      </c>
+      <c r="D2653" t="s">
         <v>5057</v>
-      </c>
-      <c r="D2653" t="s">
-        <v>5058</v>
       </c>
     </row>
     <row r="2654" spans="1:4">
@@ -53172,13 +53163,13 @@
         <v>4</v>
       </c>
       <c r="B2654" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2654" t="s">
+        <v>5058</v>
+      </c>
+      <c r="D2654" t="s">
         <v>5059</v>
-      </c>
-      <c r="D2654" t="s">
-        <v>5060</v>
       </c>
     </row>
     <row r="2655" spans="1:4">
@@ -53189,10 +53180,10 @@
         <v>4</v>
       </c>
       <c r="C2655" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="D2655" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="2656" spans="1:4">
@@ -53203,10 +53194,10 @@
         <v>4</v>
       </c>
       <c r="C2656" t="s">
+        <v>5061</v>
+      </c>
+      <c r="D2656" t="s">
         <v>5062</v>
-      </c>
-      <c r="D2656" t="s">
-        <v>5063</v>
       </c>
     </row>
     <row r="2657" spans="1:4">
@@ -53217,10 +53208,10 @@
         <v>4</v>
       </c>
       <c r="C2657" t="s">
+        <v>5063</v>
+      </c>
+      <c r="D2657" t="s">
         <v>5064</v>
-      </c>
-      <c r="D2657" t="s">
-        <v>5065</v>
       </c>
     </row>
     <row r="2658" spans="1:4">
@@ -53231,10 +53222,10 @@
         <v>4</v>
       </c>
       <c r="C2658" t="s">
+        <v>5065</v>
+      </c>
+      <c r="D2658" t="s">
         <v>5066</v>
-      </c>
-      <c r="D2658" t="s">
-        <v>5067</v>
       </c>
     </row>
     <row r="2659" spans="1:4">
@@ -53245,10 +53236,10 @@
         <v>4</v>
       </c>
       <c r="C2659" t="s">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="D2659" t="s">
-        <v>5068</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="2660" spans="1:4">
@@ -53259,10 +53250,10 @@
         <v>4</v>
       </c>
       <c r="C2660" t="s">
+        <v>5068</v>
+      </c>
+      <c r="D2660" t="s">
         <v>5069</v>
-      </c>
-      <c r="D2660" t="s">
-        <v>5070</v>
       </c>
     </row>
     <row r="2661" spans="1:4">
@@ -53273,10 +53264,10 @@
         <v>4</v>
       </c>
       <c r="C2661" t="s">
+        <v>5070</v>
+      </c>
+      <c r="D2661" t="s">
         <v>5071</v>
-      </c>
-      <c r="D2661" t="s">
-        <v>5072</v>
       </c>
     </row>
     <row r="2662" spans="1:4">
@@ -53284,13 +53275,13 @@
         <v>4</v>
       </c>
       <c r="B2662" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2662" t="s">
+        <v>5072</v>
+      </c>
+      <c r="D2662" t="s">
         <v>5073</v>
-      </c>
-      <c r="D2662" t="s">
-        <v>5074</v>
       </c>
     </row>
     <row r="2663" spans="1:4">
@@ -53298,13 +53289,13 @@
         <v>4</v>
       </c>
       <c r="B2663" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2663" t="s">
+        <v>5074</v>
+      </c>
+      <c r="D2663" t="s">
         <v>5075</v>
-      </c>
-      <c r="D2663" t="s">
-        <v>5076</v>
       </c>
     </row>
     <row r="2664" spans="1:4">
@@ -53312,7 +53303,7 @@
         <v>4</v>
       </c>
       <c r="B2664" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2664" t="s">
         <v>1905</v>
@@ -53326,7 +53317,7 @@
         <v>4</v>
       </c>
       <c r="B2665" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2665" t="s">
         <v>1755</v>
@@ -53340,7 +53331,7 @@
         <v>4</v>
       </c>
       <c r="B2666" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2666" t="s">
         <v>980</v>
@@ -53354,7 +53345,7 @@
         <v>4</v>
       </c>
       <c r="B2667" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2667" t="s">
         <v>4735</v>
@@ -53368,7 +53359,7 @@
         <v>4</v>
       </c>
       <c r="B2668" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2668" t="s">
         <v>473</v>
@@ -53382,7 +53373,7 @@
         <v>4</v>
       </c>
       <c r="B2669" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2669" t="s">
         <v>4737</v>
@@ -53396,7 +53387,7 @@
         <v>4</v>
       </c>
       <c r="B2670" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2670" t="s">
         <v>4849</v>
@@ -53410,7 +53401,7 @@
         <v>4</v>
       </c>
       <c r="B2671" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2671" t="s">
         <v>325</v>
@@ -53427,10 +53418,10 @@
         <v>4</v>
       </c>
       <c r="C2672" t="s">
-        <v>5077</v>
+        <v>5076</v>
       </c>
       <c r="D2672" t="s">
-        <v>5077</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="2673" spans="1:4">
@@ -53489,10 +53480,10 @@
         <v>4</v>
       </c>
       <c r="C2677" t="s">
-        <v>5078</v>
+        <v>5077</v>
       </c>
       <c r="D2677" t="s">
-        <v>5078</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="2678" spans="1:4">
@@ -53503,10 +53494,10 @@
         <v>4</v>
       </c>
       <c r="C2678" t="s">
+        <v>5078</v>
+      </c>
+      <c r="D2678" t="s">
         <v>5079</v>
-      </c>
-      <c r="D2678" t="s">
-        <v>5080</v>
       </c>
     </row>
     <row r="2679" spans="1:4">
@@ -53517,10 +53508,10 @@
         <v>4</v>
       </c>
       <c r="C2679" t="s">
+        <v>5080</v>
+      </c>
+      <c r="D2679" t="s">
         <v>5081</v>
-      </c>
-      <c r="D2679" t="s">
-        <v>5082</v>
       </c>
     </row>
     <row r="2680" spans="1:4">
@@ -53531,10 +53522,10 @@
         <v>4</v>
       </c>
       <c r="C2680" t="s">
+        <v>5082</v>
+      </c>
+      <c r="D2680" t="s">
         <v>5083</v>
-      </c>
-      <c r="D2680" t="s">
-        <v>5084</v>
       </c>
     </row>
     <row r="2681" spans="1:4">
@@ -53545,10 +53536,10 @@
         <v>4</v>
       </c>
       <c r="C2681" t="s">
-        <v>5085</v>
+        <v>5084</v>
       </c>
       <c r="D2681" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="2682" spans="1:4">
@@ -53559,10 +53550,10 @@
         <v>4</v>
       </c>
       <c r="C2682" t="s">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="D2682" t="s">
-        <v>5086</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="2683" spans="1:4">
@@ -53573,10 +53564,10 @@
         <v>4</v>
       </c>
       <c r="C2683" t="s">
+        <v>5086</v>
+      </c>
+      <c r="D2683" t="s">
         <v>5087</v>
-      </c>
-      <c r="D2683" t="s">
-        <v>5088</v>
       </c>
     </row>
     <row r="2684" spans="1:4">
@@ -53587,10 +53578,10 @@
         <v>4</v>
       </c>
       <c r="C2684" t="s">
+        <v>5088</v>
+      </c>
+      <c r="D2684" t="s">
         <v>5089</v>
-      </c>
-      <c r="D2684" t="s">
-        <v>5090</v>
       </c>
     </row>
     <row r="2685" spans="1:4">
@@ -53601,10 +53592,10 @@
         <v>4</v>
       </c>
       <c r="C2685" t="s">
+        <v>5090</v>
+      </c>
+      <c r="D2685" t="s">
         <v>5091</v>
-      </c>
-      <c r="D2685" t="s">
-        <v>5092</v>
       </c>
     </row>
     <row r="2686" spans="1:4">
@@ -53615,10 +53606,10 @@
         <v>4</v>
       </c>
       <c r="C2686" t="s">
-        <v>5093</v>
+        <v>5092</v>
       </c>
       <c r="D2686" t="s">
-        <v>5093</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="2687" spans="1:4">
@@ -53629,10 +53620,10 @@
         <v>4</v>
       </c>
       <c r="C2687" t="s">
+        <v>5093</v>
+      </c>
+      <c r="D2687" t="s">
         <v>5094</v>
-      </c>
-      <c r="D2687" t="s">
-        <v>5095</v>
       </c>
     </row>
     <row r="2688" spans="1:4">
@@ -53643,10 +53634,10 @@
         <v>4</v>
       </c>
       <c r="C2688" t="s">
+        <v>5095</v>
+      </c>
+      <c r="D2688" t="s">
         <v>5096</v>
-      </c>
-      <c r="D2688" t="s">
-        <v>5097</v>
       </c>
     </row>
     <row r="2689" spans="1:4">
@@ -53654,13 +53645,13 @@
         <v>4</v>
       </c>
       <c r="B2689" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2689" t="s">
+        <v>5097</v>
+      </c>
+      <c r="D2689" t="s">
         <v>5098</v>
-      </c>
-      <c r="D2689" t="s">
-        <v>5099</v>
       </c>
     </row>
     <row r="2690" spans="1:4">
@@ -53668,7 +53659,7 @@
         <v>4</v>
       </c>
       <c r="B2690" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2690" t="s">
         <v>2942</v>
@@ -53682,7 +53673,7 @@
         <v>4</v>
       </c>
       <c r="B2691" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2691" t="s">
         <v>4818</v>
@@ -53696,7 +53687,7 @@
         <v>4</v>
       </c>
       <c r="B2692" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2692" t="s">
         <v>4837</v>
@@ -53710,7 +53701,7 @@
         <v>4</v>
       </c>
       <c r="B2693" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2693" t="s">
         <v>4846</v>
@@ -53724,7 +53715,7 @@
         <v>4</v>
       </c>
       <c r="B2694" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2694" t="s">
         <v>4833</v>
@@ -53738,7 +53729,7 @@
         <v>4</v>
       </c>
       <c r="B2695" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2695" t="s">
         <v>2434</v>
@@ -53755,10 +53746,10 @@
         <v>4</v>
       </c>
       <c r="C2696" t="s">
+        <v>5099</v>
+      </c>
+      <c r="D2696" t="s">
         <v>5100</v>
-      </c>
-      <c r="D2696" t="s">
-        <v>5101</v>
       </c>
     </row>
     <row r="2697" spans="1:4">
@@ -53766,13 +53757,13 @@
         <v>4</v>
       </c>
       <c r="B2697" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2697" t="s">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="D2697" t="s">
-        <v>5044</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="2698" spans="1:4">
@@ -53780,13 +53771,13 @@
         <v>4</v>
       </c>
       <c r="B2698" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2698" t="s">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="D2698" t="s">
-        <v>5044</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="2699" spans="1:4">
@@ -53794,13 +53785,13 @@
         <v>4</v>
       </c>
       <c r="B2699" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2699" t="s">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="D2699" t="s">
-        <v>5044</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="2700" spans="1:4">
@@ -53808,7 +53799,7 @@
         <v>4</v>
       </c>
       <c r="B2700" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2700" t="s">
         <v>4578</v>
@@ -53822,7 +53813,7 @@
         <v>4</v>
       </c>
       <c r="B2701" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2701" t="s">
         <v>4612</v>
@@ -53836,7 +53827,7 @@
         <v>4</v>
       </c>
       <c r="B2702" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2702" t="s">
         <v>1377</v>
@@ -53850,7 +53841,7 @@
         <v>4</v>
       </c>
       <c r="B2703" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2703" t="s">
         <v>4614</v>
@@ -53864,7 +53855,7 @@
         <v>4</v>
       </c>
       <c r="B2704" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2704" t="s">
         <v>2223</v>
@@ -53878,7 +53869,7 @@
         <v>4</v>
       </c>
       <c r="B2705" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2705" t="s">
         <v>4616</v>
@@ -53892,7 +53883,7 @@
         <v>4</v>
       </c>
       <c r="B2706" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2706" t="s">
         <v>4617</v>
@@ -53906,7 +53897,7 @@
         <v>4</v>
       </c>
       <c r="B2707" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2707" t="s">
         <v>4618</v>
@@ -53920,7 +53911,7 @@
         <v>4</v>
       </c>
       <c r="B2708" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2708" t="s">
         <v>643</v>
@@ -53934,13 +53925,13 @@
         <v>4</v>
       </c>
       <c r="B2709" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2709" t="s">
+        <v>5104</v>
+      </c>
+      <c r="D2709" t="s">
         <v>5105</v>
-      </c>
-      <c r="D2709" t="s">
-        <v>5106</v>
       </c>
     </row>
     <row r="2710" spans="1:4">
@@ -53951,10 +53942,10 @@
         <v>4</v>
       </c>
       <c r="C2710" t="s">
+        <v>5106</v>
+      </c>
+      <c r="D2710" t="s">
         <v>5107</v>
-      </c>
-      <c r="D2710" t="s">
-        <v>5108</v>
       </c>
     </row>
     <row r="2711" spans="1:4">
@@ -53965,10 +53956,10 @@
         <v>4</v>
       </c>
       <c r="C2711" t="s">
-        <v>5109</v>
+        <v>5108</v>
       </c>
       <c r="D2711" t="s">
-        <v>5109</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="2712" spans="1:4">
@@ -53979,10 +53970,10 @@
         <v>4</v>
       </c>
       <c r="C2712" t="s">
-        <v>5110</v>
+        <v>5109</v>
       </c>
       <c r="D2712" t="s">
-        <v>5110</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="2713" spans="1:4">
@@ -53993,10 +53984,10 @@
         <v>4</v>
       </c>
       <c r="C2713" t="s">
+        <v>5110</v>
+      </c>
+      <c r="D2713" t="s">
         <v>5111</v>
-      </c>
-      <c r="D2713" t="s">
-        <v>5112</v>
       </c>
     </row>
     <row r="2714" spans="1:4">
@@ -54007,10 +53998,10 @@
         <v>4</v>
       </c>
       <c r="C2714" t="s">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="D2714" t="s">
-        <v>5113</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="2715" spans="1:4">
@@ -54021,10 +54012,10 @@
         <v>4</v>
       </c>
       <c r="C2715" t="s">
+        <v>5113</v>
+      </c>
+      <c r="D2715" t="s">
         <v>5114</v>
-      </c>
-      <c r="D2715" t="s">
-        <v>5115</v>
       </c>
     </row>
     <row r="2716" spans="1:4">
@@ -54035,10 +54026,10 @@
         <v>4</v>
       </c>
       <c r="C2716" t="s">
+        <v>5115</v>
+      </c>
+      <c r="D2716" t="s">
         <v>5116</v>
-      </c>
-      <c r="D2716" t="s">
-        <v>5117</v>
       </c>
     </row>
     <row r="2717" spans="1:4">
@@ -54049,10 +54040,10 @@
         <v>4</v>
       </c>
       <c r="C2717" t="s">
-        <v>5118</v>
+        <v>5117</v>
       </c>
       <c r="D2717" t="s">
-        <v>5118</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="2718" spans="1:4">
@@ -54063,10 +54054,10 @@
         <v>4</v>
       </c>
       <c r="C2718" t="s">
+        <v>5118</v>
+      </c>
+      <c r="D2718" t="s">
         <v>5119</v>
-      </c>
-      <c r="D2718" t="s">
-        <v>5120</v>
       </c>
     </row>
     <row r="2719" spans="1:4">
@@ -54077,10 +54068,10 @@
         <v>4</v>
       </c>
       <c r="C2719" t="s">
+        <v>5120</v>
+      </c>
+      <c r="D2719" t="s">
         <v>5121</v>
-      </c>
-      <c r="D2719" t="s">
-        <v>5122</v>
       </c>
     </row>
     <row r="2720" spans="1:4">
@@ -54091,10 +54082,10 @@
         <v>4</v>
       </c>
       <c r="C2720" t="s">
+        <v>5122</v>
+      </c>
+      <c r="D2720" t="s">
         <v>5123</v>
-      </c>
-      <c r="D2720" t="s">
-        <v>5124</v>
       </c>
     </row>
     <row r="2721" spans="1:4">
@@ -54105,10 +54096,10 @@
         <v>4</v>
       </c>
       <c r="C2721" t="s">
+        <v>5124</v>
+      </c>
+      <c r="D2721" t="s">
         <v>5125</v>
-      </c>
-      <c r="D2721" t="s">
-        <v>5126</v>
       </c>
     </row>
     <row r="2722" spans="1:4">
@@ -54119,10 +54110,10 @@
         <v>4</v>
       </c>
       <c r="C2722" t="s">
+        <v>5126</v>
+      </c>
+      <c r="D2722" t="s">
         <v>5127</v>
-      </c>
-      <c r="D2722" t="s">
-        <v>5128</v>
       </c>
     </row>
     <row r="2723" spans="1:4">
@@ -54133,10 +54124,10 @@
         <v>4</v>
       </c>
       <c r="C2723" t="s">
+        <v>5128</v>
+      </c>
+      <c r="D2723" t="s">
         <v>5129</v>
-      </c>
-      <c r="D2723" t="s">
-        <v>5130</v>
       </c>
     </row>
     <row r="2724" spans="1:4">
@@ -54147,10 +54138,10 @@
         <v>4</v>
       </c>
       <c r="C2724" t="s">
+        <v>5130</v>
+      </c>
+      <c r="D2724" t="s">
         <v>5131</v>
-      </c>
-      <c r="D2724" t="s">
-        <v>5132</v>
       </c>
     </row>
     <row r="2725" spans="1:4">
@@ -54161,7 +54152,7 @@
         <v>4</v>
       </c>
       <c r="C2725" t="s">
-        <v>5133</v>
+        <v>5132</v>
       </c>
       <c r="D2725" t="s">
         <v>116</v>
@@ -54175,10 +54166,10 @@
         <v>4</v>
       </c>
       <c r="C2726" t="s">
+        <v>5133</v>
+      </c>
+      <c r="D2726" t="s">
         <v>5134</v>
-      </c>
-      <c r="D2726" t="s">
-        <v>5135</v>
       </c>
     </row>
     <row r="2727" spans="1:4">
@@ -54189,10 +54180,10 @@
         <v>4</v>
       </c>
       <c r="C2727" t="s">
+        <v>5135</v>
+      </c>
+      <c r="D2727" t="s">
         <v>5136</v>
-      </c>
-      <c r="D2727" t="s">
-        <v>5137</v>
       </c>
     </row>
     <row r="2728" spans="1:4">
@@ -54203,10 +54194,10 @@
         <v>4</v>
       </c>
       <c r="C2728" t="s">
+        <v>5137</v>
+      </c>
+      <c r="D2728" t="s">
         <v>5138</v>
-      </c>
-      <c r="D2728" t="s">
-        <v>5139</v>
       </c>
     </row>
     <row r="2729" spans="1:4">
@@ -54217,10 +54208,10 @@
         <v>4</v>
       </c>
       <c r="C2729" t="s">
+        <v>5139</v>
+      </c>
+      <c r="D2729" t="s">
         <v>5140</v>
-      </c>
-      <c r="D2729" t="s">
-        <v>5141</v>
       </c>
     </row>
     <row r="2730" spans="1:4">
@@ -54231,10 +54222,10 @@
         <v>4</v>
       </c>
       <c r="C2730" t="s">
+        <v>5141</v>
+      </c>
+      <c r="D2730" t="s">
         <v>5142</v>
-      </c>
-      <c r="D2730" t="s">
-        <v>5143</v>
       </c>
     </row>
     <row r="2731" spans="1:4">
@@ -54245,10 +54236,10 @@
         <v>4</v>
       </c>
       <c r="C2731" t="s">
+        <v>5143</v>
+      </c>
+      <c r="D2731" t="s">
         <v>5144</v>
-      </c>
-      <c r="D2731" t="s">
-        <v>5145</v>
       </c>
     </row>
     <row r="2732" spans="1:4">
@@ -54259,10 +54250,10 @@
         <v>4</v>
       </c>
       <c r="C2732" t="s">
+        <v>5145</v>
+      </c>
+      <c r="D2732" t="s">
         <v>5146</v>
-      </c>
-      <c r="D2732" t="s">
-        <v>5147</v>
       </c>
     </row>
     <row r="2733" spans="1:4">
@@ -54273,10 +54264,10 @@
         <v>4</v>
       </c>
       <c r="C2733" t="s">
+        <v>5147</v>
+      </c>
+      <c r="D2733" t="s">
         <v>5148</v>
-      </c>
-      <c r="D2733" t="s">
-        <v>5149</v>
       </c>
     </row>
     <row r="2734" spans="1:4">
@@ -54287,10 +54278,10 @@
         <v>4</v>
       </c>
       <c r="C2734" t="s">
+        <v>5149</v>
+      </c>
+      <c r="D2734" t="s">
         <v>5150</v>
-      </c>
-      <c r="D2734" t="s">
-        <v>5151</v>
       </c>
     </row>
     <row r="2735" spans="1:4">
@@ -54301,10 +54292,10 @@
         <v>4</v>
       </c>
       <c r="C2735" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D2735" t="s">
         <v>5152</v>
-      </c>
-      <c r="D2735" t="s">
-        <v>5153</v>
       </c>
     </row>
     <row r="2736" spans="1:4">
@@ -54315,10 +54306,10 @@
         <v>4</v>
       </c>
       <c r="C2736" t="s">
+        <v>5153</v>
+      </c>
+      <c r="D2736" t="s">
         <v>5154</v>
-      </c>
-      <c r="D2736" t="s">
-        <v>5155</v>
       </c>
     </row>
     <row r="2737" spans="1:4">
@@ -54329,10 +54320,10 @@
         <v>4</v>
       </c>
       <c r="C2737" t="s">
+        <v>5155</v>
+      </c>
+      <c r="D2737" t="s">
         <v>5156</v>
-      </c>
-      <c r="D2737" t="s">
-        <v>5157</v>
       </c>
     </row>
     <row r="2738" spans="1:4">
@@ -54343,10 +54334,10 @@
         <v>4</v>
       </c>
       <c r="C2738" t="s">
+        <v>5157</v>
+      </c>
+      <c r="D2738" t="s">
         <v>5158</v>
-      </c>
-      <c r="D2738" t="s">
-        <v>5159</v>
       </c>
     </row>
     <row r="2739" spans="1:4">
@@ -54357,10 +54348,10 @@
         <v>4</v>
       </c>
       <c r="C2739" t="s">
+        <v>5159</v>
+      </c>
+      <c r="D2739" t="s">
         <v>5160</v>
-      </c>
-      <c r="D2739" t="s">
-        <v>5161</v>
       </c>
     </row>
     <row r="2740" spans="1:4">
@@ -54371,10 +54362,10 @@
         <v>4</v>
       </c>
       <c r="C2740" t="s">
+        <v>5161</v>
+      </c>
+      <c r="D2740" t="s">
         <v>5162</v>
-      </c>
-      <c r="D2740" t="s">
-        <v>5163</v>
       </c>
     </row>
     <row r="2741" spans="1:4">
@@ -54385,10 +54376,10 @@
         <v>4</v>
       </c>
       <c r="C2741" t="s">
+        <v>5163</v>
+      </c>
+      <c r="D2741" t="s">
         <v>5164</v>
-      </c>
-      <c r="D2741" t="s">
-        <v>5165</v>
       </c>
     </row>
     <row r="2742" spans="1:4">
@@ -54399,10 +54390,10 @@
         <v>4</v>
       </c>
       <c r="C2742" t="s">
+        <v>5165</v>
+      </c>
+      <c r="D2742" t="s">
         <v>5166</v>
-      </c>
-      <c r="D2742" t="s">
-        <v>5167</v>
       </c>
     </row>
     <row r="2743" spans="1:4">
@@ -54413,10 +54404,10 @@
         <v>4</v>
       </c>
       <c r="C2743" t="s">
+        <v>5167</v>
+      </c>
+      <c r="D2743" t="s">
         <v>5168</v>
-      </c>
-      <c r="D2743" t="s">
-        <v>5169</v>
       </c>
     </row>
     <row r="2744" spans="1:4">
@@ -54427,10 +54418,10 @@
         <v>4</v>
       </c>
       <c r="C2744" t="s">
+        <v>5169</v>
+      </c>
+      <c r="D2744" t="s">
         <v>5170</v>
-      </c>
-      <c r="D2744" t="s">
-        <v>5171</v>
       </c>
     </row>
     <row r="2745" spans="1:4">
@@ -54441,10 +54432,10 @@
         <v>4</v>
       </c>
       <c r="C2745" t="s">
+        <v>5171</v>
+      </c>
+      <c r="D2745" t="s">
         <v>5172</v>
-      </c>
-      <c r="D2745" t="s">
-        <v>5173</v>
       </c>
     </row>
     <row r="2746" spans="1:4">
@@ -54455,10 +54446,10 @@
         <v>4</v>
       </c>
       <c r="C2746" t="s">
+        <v>5173</v>
+      </c>
+      <c r="D2746" t="s">
         <v>5174</v>
-      </c>
-      <c r="D2746" t="s">
-        <v>5175</v>
       </c>
     </row>
     <row r="2747" spans="1:4">
@@ -54469,10 +54460,10 @@
         <v>4</v>
       </c>
       <c r="C2747" t="s">
+        <v>5175</v>
+      </c>
+      <c r="D2747" t="s">
         <v>5176</v>
-      </c>
-      <c r="D2747" t="s">
-        <v>5177</v>
       </c>
     </row>
     <row r="2748" spans="1:4">
@@ -54483,10 +54474,10 @@
         <v>4</v>
       </c>
       <c r="C2748" t="s">
+        <v>5177</v>
+      </c>
+      <c r="D2748" t="s">
         <v>5178</v>
-      </c>
-      <c r="D2748" t="s">
-        <v>5179</v>
       </c>
     </row>
     <row r="2749" spans="1:4">
@@ -54497,10 +54488,10 @@
         <v>4</v>
       </c>
       <c r="C2749" t="s">
+        <v>5179</v>
+      </c>
+      <c r="D2749" t="s">
         <v>5180</v>
-      </c>
-      <c r="D2749" t="s">
-        <v>5181</v>
       </c>
     </row>
     <row r="2750" spans="1:4">
@@ -54511,10 +54502,10 @@
         <v>4</v>
       </c>
       <c r="C2750" t="s">
+        <v>5181</v>
+      </c>
+      <c r="D2750" t="s">
         <v>5182</v>
-      </c>
-      <c r="D2750" t="s">
-        <v>5183</v>
       </c>
     </row>
     <row r="2751" spans="1:4">
@@ -54525,7 +54516,7 @@
         <v>4</v>
       </c>
       <c r="C2751" t="s">
-        <v>5184</v>
+        <v>5183</v>
       </c>
       <c r="D2751" t="s">
         <v>4806</v>
@@ -54539,10 +54530,10 @@
         <v>4</v>
       </c>
       <c r="C2752" t="s">
+        <v>5184</v>
+      </c>
+      <c r="D2752" t="s">
         <v>5185</v>
-      </c>
-      <c r="D2752" t="s">
-        <v>5186</v>
       </c>
     </row>
     <row r="2753" spans="1:4">
@@ -54553,10 +54544,10 @@
         <v>4</v>
       </c>
       <c r="C2753" t="s">
-        <v>5187</v>
+        <v>5186</v>
       </c>
       <c r="D2753" t="s">
-        <v>5143</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="2754" spans="1:4">
@@ -54581,10 +54572,10 @@
         <v>4</v>
       </c>
       <c r="C2755" t="s">
+        <v>5187</v>
+      </c>
+      <c r="D2755" t="s">
         <v>5188</v>
-      </c>
-      <c r="D2755" t="s">
-        <v>5189</v>
       </c>
     </row>
     <row r="2756" spans="1:4">
@@ -54595,10 +54586,10 @@
         <v>4</v>
       </c>
       <c r="C2756" t="s">
+        <v>5189</v>
+      </c>
+      <c r="D2756" t="s">
         <v>5190</v>
-      </c>
-      <c r="D2756" t="s">
-        <v>5191</v>
       </c>
     </row>
     <row r="2757" spans="1:4">
@@ -54609,10 +54600,10 @@
         <v>4</v>
       </c>
       <c r="C2757" t="s">
+        <v>5191</v>
+      </c>
+      <c r="D2757" t="s">
         <v>5192</v>
-      </c>
-      <c r="D2757" t="s">
-        <v>5193</v>
       </c>
     </row>
     <row r="2758" spans="1:4">
@@ -54623,10 +54614,10 @@
         <v>4</v>
       </c>
       <c r="C2758" t="s">
+        <v>5193</v>
+      </c>
+      <c r="D2758" t="s">
         <v>5194</v>
-      </c>
-      <c r="D2758" t="s">
-        <v>5195</v>
       </c>
     </row>
     <row r="2759" spans="1:4">
@@ -54637,10 +54628,10 @@
         <v>4</v>
       </c>
       <c r="C2759" t="s">
+        <v>5195</v>
+      </c>
+      <c r="D2759" t="s">
         <v>5196</v>
-      </c>
-      <c r="D2759" t="s">
-        <v>5197</v>
       </c>
     </row>
     <row r="2760" spans="1:4">
@@ -54651,10 +54642,10 @@
         <v>4</v>
       </c>
       <c r="C2760" t="s">
+        <v>5197</v>
+      </c>
+      <c r="D2760" t="s">
         <v>5198</v>
-      </c>
-      <c r="D2760" t="s">
-        <v>5199</v>
       </c>
     </row>
     <row r="2761" spans="1:4">
@@ -54665,25 +54656,17 @@
         <v>4</v>
       </c>
       <c r="C2761" t="s">
+        <v>5199</v>
+      </c>
+      <c r="D2761" t="s">
         <v>5200</v>
       </c>
-      <c r="D2761" t="s">
-        <v>5201</v>
-      </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5202</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5203</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54693,10 +54676,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5204</v>
+        <v>5201</v>
       </c>
       <c r="D2763" t="s">
-        <v>5205</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54707,10 +54690,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5206</v>
+        <v>5203</v>
       </c>
       <c r="D2764" t="s">
-        <v>5207</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54721,10 +54704,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5208</v>
+        <v>5205</v>
       </c>
       <c r="D2765" t="s">
-        <v>5209</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54735,10 +54718,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5210</v>
+        <v>5207</v>
       </c>
       <c r="D2766" t="s">
-        <v>5211</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54749,10 +54732,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5212</v>
+        <v>5209</v>
       </c>
       <c r="D2767" t="s">
-        <v>5213</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54763,10 +54746,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5214</v>
+        <v>5211</v>
       </c>
       <c r="D2768" t="s">
-        <v>5215</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54777,10 +54760,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5216</v>
+        <v>5213</v>
       </c>
       <c r="D2769" t="s">
-        <v>5217</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54788,7 +54771,7 @@
         <v>4</v>
       </c>
       <c r="B2770" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2770" t="s">
         <v>1207</v>
@@ -54802,7 +54785,7 @@
         <v>4</v>
       </c>
       <c r="B2771" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="C2771" t="s">
         <v>1007</v>
@@ -54819,11 +54802,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5218</v>
+        <v>5215</v>
       </c>
       <c r="D2772" t="s">
-        <v>5219</v>
-      </c>
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5918">
   <si>
     <t>translation_group</t>
   </si>
@@ -1358,7 +1358,7 @@
     <t>Breadcrumb</t>
   </si>
   <si>
-    <t>Галета</t>
+    <t>Път</t>
   </si>
   <si>
     <t>Content source</t>
@@ -10208,10 +10208,10 @@
     <t>Настройки на Seo</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
-  </si>
-  <si>
-    <t>Попълнете полетата за максимални резултати при намиране на вашия уебсайт в _x005F_x0003_search двигатели.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
+  </si>
+  <si>
+    <t>Попълнете полетата за максимални резултати при намиране на вашия уеб сайт в търсачките.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17177,6 +17177,610 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Добре дошли в Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Използвайте Microweber, за да създадете своя уебсайт, онлайн магазин или блог.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Създавайте и редактирайте съдържание, продавайте онлайн, управлявайте поръчки и клиенти.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Премахване</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Изоставени поръчки</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Използвате този шаблон.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Промяната ще засегне само текущата страница.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Разрешаване на множество шаблони</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Ако разрешите множество шаблони, ще можете да използвате различни шаблони, когато създавате нови страници.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Настройки на уебсайта на системния имейл</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Доставяйте съобщения, свързани с нова регистрация, нулиране на парола и други системни функционалности.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>От имейл адрес</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Напр. Името на вашия уебсайт</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Общи настройки на доставчика на електронна поща</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Настройте вашия имейл доставчик.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Общият доставчик на електронна поща ще доставя всички съобщения, свързани с уебсайта. Включително системни съобщения и съобщения от формуляри за контакт.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Лого на уебсайта</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Изберете лого за вашия уебсайт.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Качване на лого</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Уебсайт Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Промяна на езика по подразбиране ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Изтрий кеш-памет..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Инсталирайте многоезичен модул</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Потребителите могат да се регистрират с временни имейли като - Mailinator, MailDrop, Guerrilla ... s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Потребителите на регистъра могат автоматично да получават автоматично имейл от вас. Вижте настройките и публикувайте съобщенията си.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Изпратете имейл за регистрация на нов потребител до администраторски потребители</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Искате ли администраторите да получават имейл, когато е регистриран нов потребител?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber е безплатен конструктор на уеб сайтове с плъзгане и пускане с отворен код и CMS. Той е под лиценз на MIT и ние използваме PHP рамката на Laravel</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Доставка до адрес</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Вземане от адрес</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Глобални настройки</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>Интеграция на електронна поща</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Нямате настройка на системна електронна поща и smtp.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Настройте системните настройки тук.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Настройки на глобалната форма за контакт</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Опции за изпращане на имейл</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Глобален подател</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Използвайте персонализирани настройки на подателя</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Използвайте персонализирани настройки на подателя за глобалните формуляри за контакт.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>По подразбиране ще използваме настройките за електронна поща на системата на уебсайта.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Тук можете да промените системните настройки за електронна поща.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Глобални приемници</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Изпращайте данни за формуляри за контакт до глобални получатели, когато са изпратени</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>На имейл адреси</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Имейл адрес на приемниците, разделени с кома.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Свържете се с вашия доставчик на хостинг услуги, за да активирате разширението PHP SOAP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Елементи</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>преди 2 месеца</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Премахване на логото</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Премахнете фавикона</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Персонализиран</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Продукти V2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Хронология</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Бял етикет WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Шаблонът на модула се промени</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Версии на съдържанието</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Оформления и елементи по подразбиране</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Списък със стрелки</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Проверен списък</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Основен текст</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Заглавие с текст</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Икона с текст</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Две текстови колони</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Две текстови колони с икона и заглавие</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Изображение със заглавие и текст</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Текст с изображение и заглавие</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Текст с изображение</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Активиране на коментарите</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Настройки на Captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Настройте вашите предпочитания за captcha от </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Текущи настройки на формуляра за контакт</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Име на формуляра за контакт</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Как се казва тази форма за контакт?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Приемници</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Изпращайте данни за формуляр за контакт до потребителски приемници, когато са изпратени</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Използвайте персонализирани настройки на приемници за текущата форма за контакт.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>По подразбиране ще използваме глобални настройки за формуляр за контакт.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Можете да промените общите настройки на формуляра за контакт тук.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Съобщение с автоматичен отговор на потребителя</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Активирайте съобщението за автоматичен отговор на потребителя</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Позволете на потребителите да получават „Благодаря имейли след абонамент“.</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Автоматичен отговор на обекта</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Автоматичен отговор на потребителски подател</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Използвайте персонализирани настройки на подателя за текущата форма за контакт.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Автоматичен отговор от имейл адрес</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Автоматичен отговор от името</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Автоматичен отговор на имейл</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Когато потребителят получи съобщение за автоматичен отговор, той може да отговори обратно, за да отговори на имейл.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Автоматично отговаряне на прикачени файлове към имейл</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Ако искате да прикачите изображения, трябва да ги качите в галерията от „Добавяне на медия“</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Все още нямате публикации</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Създайте първата си публикация точно сега.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Създайте публикация</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Как да напишете описания на продукти, които се продават
+                                                    Едно от най-добрите неща, които можете да направите, за да направите вашия магазин успешен, е да инвестирате малко време в писането на страхотни описания на продукти. Искате да предоставите подробна, но кратка информация, която ще примами потенциалните клиенти да купуват.
+                                                    Мислете като потребител
+                                                    Помислете какво бихте искали да знаете като потребител, след което включете тези функции в описанието си. За дрехи: материали и годни. За храна: съставки и как е приготвена. Булетите са вашите приятели, когато изброяват
+                                                   функции - опитайте се да
+                                                            ограничите всяка от тях до 5-8 думи.</t>
   </si>
 </sst>
 </file>
@@ -17515,7 +18119,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67823,6 +68427,1757 @@
         <v>3638</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5721</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5723</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5725</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5727</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5729</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5731</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5733</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5735</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5737</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5739</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5741</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>654</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5778</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5780</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5782</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5786</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5800</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5802</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5808</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3334</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5832</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5833</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5835</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5852</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4939</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5866</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5871</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5873</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5875</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5877</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5879</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5883</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5887</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5889</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3137</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>3131</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5915</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5916</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5917</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/bg_BG.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6028">
   <si>
     <t>translation_group</t>
   </si>
@@ -10214,7 +10214,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Попълнете полетата за максимални резултати при намиране на вашия уеб сайт в търсачките.</t>
+    <t>Попълнете полетата за максимални резултати при намиране на вашия уебсайт в търсачките.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17197,13 +17197,10 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Изоставени поръчки</t>
-  </si>
-  <si>
     <t>You are using this template.</t>
   </si>
   <si>
-    <t>Използвате този шаблон.</t>
+    <t>Вие използвате този шаблон.</t>
   </si>
   <si>
     <t>The change will affect only the current page.</t>
@@ -17227,13 +17224,13 @@
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>Настройки на уебсайта на системния имейл</t>
+    <t>Настройки на системния уебсайт за електронна поща</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Доставяйте съобщения, свързани с нова регистрация, нулиране на парола и други системни функционалности.</t>
+    <t>Доставяйте съобщения, свързани с нова регистрация, нулиране на парола и други функционалности на системата.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17245,7 +17242,7 @@
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Напр. Името на вашия уебсайт</t>
+    <t>Пр. Вашето име на уебсайт</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
@@ -17257,13 +17254,13 @@
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>Настройте вашия имейл доставчик.</t>
+    <t>Настройте своя имейл доставчик.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Общият доставчик на електронна поща ще доставя всички съобщения, свързани с уебсайта. Включително системни съобщения и съобщения от формуляри за контакт.</t>
+    <t>Общият доставчик на електронна поща ще достави всички съобщения, свързани с уебсайта. Включително системни съобщения и съобщения от формата за контакт.</t>
   </si>
   <si>
     <t>Website Logo</t>
@@ -17287,13 +17284,13 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Уебсайт Favicon</t>
+    <t>Favicon на уебсайта</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Промяна на езика по подразбиране ..</t>
+    <t>Промяна на езика по подразбиране..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17311,31 +17308,31 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>Потребителите могат да се регистрират с временни имейли като - Mailinator, MailDrop, Guerrilla ... s</t>
+    <t>Потребителите могат да се регистрират с временни имейли като - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Потребителите на регистъра могат автоматично да получават автоматично имейл от вас. Вижте настройките и публикувайте съобщенията си.</t>
+    <t>Регистрираните потребители могат автоматично да получат автоматичен имейл от вас. Вижте настройките и публикувайте вашите съобщения.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Изпратете имейл за регистрация на нов потребител до администраторски потребители</t>
+    <t>Изпращайте имейл при регистрация на нов потребител до администраторски потребители</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Искате ли администраторите да получават имейл, когато е регистриран нов потребител?</t>
+    <t>Искате ли администраторите да получават имейл, когато се регистрира нов потребител?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber е безплатен конструктор на уеб сайтове с плъзгане и пускане с отворен код и CMS. Той е под лиценз на MIT и ние използваме PHP рамката на Laravel</t>
+    <t>Microweber е безплатен конструктор на уебсайтове и CMS с отворен код с плъзгане и пускане. Той е под лиценз на MIT и ние използваме Laravel PHP framework</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17362,25 +17359,25 @@
     <t>E-mail Integrations</t>
   </si>
   <si>
-    <t>Интеграция на електронна поща</t>
+    <t>Интеграции на електронна поща</t>
   </si>
   <si>
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Нямате настройка на системна електронна поща и smtp.</t>
+    <t>Нямате системна електронна поща и smtp настройка.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Настройте системните настройки тук.</t>
+    <t>Настройте системните си настройки тук.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>Настройки на глобалната форма за контакт</t>
+    <t>Глобални настройки на формата за контакт</t>
   </si>
   <si>
     <t>E-mail sending options</t>
@@ -17398,19 +17395,19 @@
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>Използвайте персонализирани настройки на подателя</t>
+    <t>Използвайте персонализирани настройки на изпращача</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Използвайте персонализирани настройки на подателя за глобалните формуляри за контакт.</t>
+    <t>Използвайте персонализирани настройки на изпращача за глобалните формуляри за контакт.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>По подразбиране ще използваме настройките за електронна поща на системата на уебсайта.</t>
+    <t>По подразбиране ще използваме системните настройки за електронна поща на уебсайта.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
@@ -17428,25 +17425,25 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Изпращайте данни за формуляри за контакт до глобални получатели, когато са изпратени</t>
+    <t>Изпращане на данни от формуляри за контакт до глобални получатели, когато бъдат изпратени</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
   </si>
   <si>
-    <t>На имейл адреси</t>
+    <t>До имейл адреси</t>
   </si>
   <si>
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Имейл адрес на приемниците, разделени с кома.</t>
+    <t>Електронни адреси на получателите, разделени със запетая.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Свържете се с вашия доставчик на хостинг услуги, за да активирате разширението PHP SOAP.</t>
+    <t>Свържете се с вашия хостинг доставчик, за да активирате PHP SOAP разширение.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17470,7 +17467,7 @@
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>Премахнете фавикона</t>
+    <t>Премахване на favicon</t>
   </si>
   <si>
     <t>Custom</t>
@@ -17506,16 +17503,19 @@
     <t>Number of the visible testimonials</t>
   </si>
   <si>
+    <t>Брой видими препоръки</t>
+  </si>
+  <si>
     <t>Module template has changed</t>
   </si>
   <si>
-    <t>Шаблонът на модула се промени</t>
+    <t>Шаблонът на модула е променен</t>
   </si>
   <si>
     <t>Content versions</t>
   </si>
   <si>
-    <t>Версии на съдържанието</t>
+    <t>Съдържателни версии</t>
   </si>
   <si>
     <t>Clear Cache</t>
@@ -17542,7 +17542,7 @@
     <t>Background Text</t>
   </si>
   <si>
-    <t>Основен текст</t>
+    <t>Фонов текст</t>
   </si>
   <si>
     <t>Title with Text</t>
@@ -17590,7 +17590,7 @@
     <t>Enable comments</t>
   </si>
   <si>
-    <t>Активиране на коментарите</t>
+    <t>Разрешете коментарите</t>
   </si>
   <si>
     <t>Captcha settings</t>
@@ -17608,22 +17608,25 @@
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Добавете / редактирайте полета на формуляра, като използвате потребителските полета</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
-    <t>Текущи настройки на формуляра за контакт</t>
+    <t>Текущи настройки на формата за контакт</t>
   </si>
   <si>
     <t>Contact form name</t>
   </si>
   <si>
-    <t>Име на формуляра за контакт</t>
+    <t>Име на формата за контакт</t>
   </si>
   <si>
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>Как се казва тази форма за контакт?</t>
+    <t>Какво е името на тази форма за контакт?</t>
   </si>
   <si>
     <t>Receivers</t>
@@ -17635,7 +17638,7 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Изпращайте данни за формуляр за контакт до потребителски приемници, когато са изпратени</t>
+    <t>Изпращане на данни от формуляра за контакт до персонализирани получатели, когато се изпрати</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
@@ -17647,58 +17650,64 @@
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>По подразбиране ще използваме глобални настройки за формуляр за контакт.</t>
+    <t>По подразбиране ще използваме глобални настройки на формата за контакт.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>Можете да промените общите настройки на формуляра за контакт тук.</t>
+    <t>Тук можете да промените глобалните настройки на формата за контакт.</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Съобщение с автоматичен отговор на потребителя</t>
+    <t>Автоматичен отговор на съобщение до потребителя</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Активирайте съобщението за автоматичен отговор на потребителя</t>
+    <t>Активиране на съобщение за автоматичен отговор до потребителя</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Позволете на потребителите да получават „Благодаря имейли след абонамент“.</t>
+    <t>Позволете на потребителите да получават „Благодарни имейли след абониране“.</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Автоматичен отговор на обекта</t>
-  </si>
-  <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
+    <t>Автоматичните отговори ви позволяват да настроите автоматични отговори на входящи имейли</t>
+  </si>
+  <si>
     <t>Auto respond message</t>
   </si>
   <si>
+    <t>Съобщение за автоматичен отговор</t>
+  </si>
+  <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
+    <t>Имейл с автоматичен отговор, изпратен обратно до потребителя</t>
+  </si>
+  <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Автоматичен отговор на потребителски подател</t>
+    <t>Персонализиран подател с автоматичен отговор</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>Използвайте персонализирани настройки на подателя за текущата форма за контакт.</t>
+    <t>Използвайте персонализирани настройки на изпращача за текущата форма за контакт.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
@@ -17710,7 +17719,7 @@
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Автоматичен отговор от името</t>
+    <t>Автоматичен отговор от име</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
@@ -17722,19 +17731,19 @@
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Когато потребителят получи съобщение за автоматичен отговор, той може да отговори обратно, за да отговори на имейл.</t>
+    <t>Когато потребителят получи съобщението за автоматичен отговор, той може да отговори обратно, за да отговори на имейл.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Автоматично отговаряне на прикачени файлове към имейл</t>
+    <t>Прикачени файлове към имейл с автоматичен отговор</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Ако искате да прикачите изображения, трябва да ги качите в галерията от „Добавяне на медия“</t>
+    <t>Ако искате да прикачите og изображения, трябва да ги качите в галерията от „Добавяне на медия“</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
@@ -17746,13 +17755,13 @@
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Създайте първата си публикация точно сега.</t>
+    <t>Създайте първата си публикация още сега.</t>
   </si>
   <si>
     <t>Create a Post</t>
   </si>
   <si>
-    <t>Създайте публикация</t>
+    <t>Създаване на публикация</t>
   </si>
   <si>
     <t>templates-new-world</t>
@@ -17766,18 +17775,72 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>Как да напишете описания на продукти, които се продават
-                                                    Едно от най-добрите неща, които можете да направите, за да направите вашия магазин успешен, е да инвестирате малко време в писането на страхотни описания на продукти. Искате да предоставите подробна, но кратка информация, която ще примами потенциалните клиенти да купуват.
+    <t>Как да напишете описания на продукти, които продават
+                                                    Едно от най-добрите неща, които можете да направите, за да направите магазина си успешен, е да инвестирате известно време в писане на страхотни описания на продукти. Искате да предоставите подробна, но кратка информация, която ще примами потенциалните клиенти да купуват.
                                                     Мислете като потребител
-                                                    Помислете какво бихте искали да знаете като потребител, след което включете тези функции в описанието си. За дрехи: материали и годни. За храна: съставки и как е приготвена. Булетите са вашите приятели, когато изброяват
-                                                   функции - опитайте се да
-                                                            ограничите всяка от тях до 5-8 думи.</t>
+                                                    Помислете какво бихте искали да знаете като потребител, след което включете тези функции в описанието си. За дрехи: материали и кройка. За храна: съставки и начин на приготвяне. Куршумите са ваши приятели, когато изброявате
+                                                   функции — опитайте се да ограничите
+                                                            всяка от тях до 5-8 думи.</t>
   </si>
   <si>
     <t>Admin language</t>
   </si>
   <si>
-    <t>Администраторски език</t>
+    <t>Език на администратора</t>
+  </si>
+  <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Добавете публикация</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Добавете подстраница</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Категорията е изтрита</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Съдържанието е изтрито</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Категории за търсене</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Създавайте съдържание</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>карта</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Всякакви</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
   </si>
   <si>
     <t>Limit</t>
@@ -17786,349 +17849,220 @@
     <t>Лимит</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Сигурни ли сте, че искате да изтриете?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Нямате продукти в</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Обратно към</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>категории</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Персонализираните полета се запазват</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Съществуващи полета</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Изберете от вашите съществуващи полета по-долу</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Добавете нови полета</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Добавете ново потребителско поле от списъка по-долу</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Вашите полета</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Списък с добавените персонализирани полета</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Наличност</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Система</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Блог</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Пренасочване на браузъра</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Интеграция</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Инструмент за импортиране и експортиране</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Самостоятелна програма за актуализация</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Визуализация на пакета</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Демонстрация</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Използвайте</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Текущ</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Експрес</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Първи клас</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Кликнете и вземете</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Видео фон</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>Многоезичен</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Можете да активирате многоезичния модул, за да използвате няколко езика</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Многоезичен режим</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Активирайте многоезичния режим, за да имате няколко езика за вашето съдържание.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Преводите се импортират</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Преводите не са намерени в базата данни. Искате ли да импортирате преводи? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Вашата количка е празна.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Редактор на кодове</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>Блог</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>заглавия</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Заглавия 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Заглавия 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Заглавия 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Заглавия 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Заглавия 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Заглавия 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Заглавия 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Заглавия 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>текстов блок</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Текстов блок 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Текстов блок 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Текстов блок 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Текстов блок 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Текстов блок 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Текстов блок 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Текстов блок 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Текстов блок 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Текстов блок 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Текстов блок 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Текстов блок 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Текстов блок 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Текстов блок 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Текстов блок 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Текстов блок 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Характеристики 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Характеристики 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Характеристики 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Характеристики 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>решетки</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>меню</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Меню - кожа-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Меню - кожа-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Меню - кожа-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Меню - кожа-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Меню - кожа-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>долни колонтитули</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Долен колонтитул 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Долен колонтитул 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Долен колонтитул 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Долен колонтитул 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>други</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>джъмботрон</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>Джъмботрон 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>ценообразуване</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Ценообразуване 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Оформления по подразбиране</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Тук няма съдържание</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Персонализираните полета са запазени</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Съществуващи полета</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Изберете от съществуващите си полета по-долу</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Добавете нови полета</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Добавете ново персонализирано поле от списъка по-долу</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Вашите полета</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Списък с добавените от вас персонализирани полета</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Нов внос</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18146,7 +18080,7 @@
     <t>Overlay</t>
   </si>
   <si>
-    <t>Наслояване</t>
+    <t>Наслагване</t>
   </si>
   <si>
     <t>Blend mode</t>
@@ -18176,499 +18110,7 @@
     <t>Reloading styles</t>
   </si>
   <si>
-    <t>Стилове за презареждане</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Връзки към</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Пакет за предварителен преглед</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Демонстрация</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Използвайте</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Текущ</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Пренареждане</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Система</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Пренасочване на браузъра</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Интеграция</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Самостоятелна програма за актуализиране</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Необходим ви е лицензен ключ, за да инсталирате този пакет</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Този пакет е първокласен и трябва да имате лицензен ключ, за да го инсталирате</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Трябва ви лицензен ключ</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Лицензът е активиран</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Презареждане на страницата</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Лицензът не е активиран</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Системни актуализации</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Проверете за системни актуализации</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Обратно към списъка</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Категорията трябва да има име</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Скрита ли е категорията?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Ако зададете това на ДА, тази категория ще бъде скрита от уебсайта</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Споменаване</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Вашата количка е празна.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Намерени резултати</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Ако изберете Процент от полето за избор, той ще бъде изчислен автоматично от Цената и Офертната цена на продукта.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Продължете към плащане</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Показване</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>на</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>резултат(и)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Заглавие на страницата - дясната пътека</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Заглавие на страницата - Ляв хляб</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Условия за ползване</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Доставка и връщане</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Около 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Около 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Около 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Начало 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Начало 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Трябва да щракнете върху бутона за прилагане на шаблона, за да промените своя шаблон</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Търсене по критерии</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Дата от</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Задайте поръчките от дата</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Дата до</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Задайте поръчките към дата</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Сума на поръчката от</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Покажете поръчката с минимална сума</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Сумата на поръчката до</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Покажете поръчката с максимална сума</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Търсене по продукти...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Търсене по продукти</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Статус на плащането</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Безплатно търсене по телефон, име, имейл и т.н.</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Изпратете този критерии</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Нулиране на филтъра</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Експортирайте всички</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Изберете сортиране</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Дата на поръчка</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Нов &gt; Стар]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Стар &gt; Нов]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Висока &gt; Ниска]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Ниско &gt; Високо]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Поръчката е изпълнена</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>преводи от многоезичния модул са открити във вашата база данни.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Внимание! Промяната на езика по подразбиране може да наруши преводите на вашия сайт.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Наистина ли искате да продължите?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Внимание! Промяната на езика по подразбиране може би ще повреди сайта ви.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Подробности за доставка</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>поръчката все още не е завършена</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>поръчката е изпълнена</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Създаден в</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Актуализирано в</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бърз поглед </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Заменете езиковите стойности</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Преводите се импортират</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Преводите не са намерени в базата данни. Искате ли да импортирате преводи? </t>
+    <t>Презареждане на стилове</t>
   </si>
 </sst>
 </file>
@@ -19004,7 +18446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69394,7 +68836,7 @@
         <v>5725</v>
       </c>
       <c r="D2964" t="s">
-        <v>5726</v>
+        <v>1402</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69408,10 +68850,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D2965" t="s">
         <v>5727</v>
-      </c>
-      <c r="D2965" t="s">
-        <v>5728</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69425,10 +68867,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D2966" t="s">
         <v>5729</v>
-      </c>
-      <c r="D2966" t="s">
-        <v>5730</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69442,10 +68884,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D2967" t="s">
         <v>5731</v>
-      </c>
-      <c r="D2967" t="s">
-        <v>5732</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69459,10 +68901,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D2968" t="s">
         <v>5733</v>
-      </c>
-      <c r="D2968" t="s">
-        <v>5734</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69476,10 +68918,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D2969" t="s">
         <v>5735</v>
-      </c>
-      <c r="D2969" t="s">
-        <v>5736</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69493,10 +68935,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D2970" t="s">
         <v>5737</v>
-      </c>
-      <c r="D2970" t="s">
-        <v>5738</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69510,10 +68952,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2971" t="s">
         <v>5739</v>
-      </c>
-      <c r="D2971" t="s">
-        <v>5740</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69527,10 +68969,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2972" t="s">
         <v>5741</v>
-      </c>
-      <c r="D2972" t="s">
-        <v>5742</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69544,10 +68986,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D2973" t="s">
         <v>5743</v>
-      </c>
-      <c r="D2973" t="s">
-        <v>5744</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69561,10 +69003,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2974" t="s">
         <v>5745</v>
-      </c>
-      <c r="D2974" t="s">
-        <v>5746</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69578,10 +69020,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2975" t="s">
         <v>5747</v>
-      </c>
-      <c r="D2975" t="s">
-        <v>5748</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69595,10 +69037,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2976" t="s">
         <v>5749</v>
-      </c>
-      <c r="D2976" t="s">
-        <v>5750</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69612,10 +69054,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2977" t="s">
         <v>5751</v>
-      </c>
-      <c r="D2977" t="s">
-        <v>5752</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69629,10 +69071,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2978" t="s">
         <v>5753</v>
-      </c>
-      <c r="D2978" t="s">
-        <v>5754</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69646,10 +69088,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2979" t="s">
         <v>5755</v>
-      </c>
-      <c r="D2979" t="s">
-        <v>5756</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69663,10 +69105,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2980" t="s">
         <v>5757</v>
-      </c>
-      <c r="D2980" t="s">
-        <v>5758</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69680,10 +69122,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2981" t="s">
         <v>5759</v>
-      </c>
-      <c r="D2981" t="s">
-        <v>5760</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69697,10 +69139,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2982" t="s">
         <v>5761</v>
-      </c>
-      <c r="D2982" t="s">
-        <v>5762</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69714,10 +69156,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D2983" t="s">
         <v>5763</v>
-      </c>
-      <c r="D2983" t="s">
-        <v>5764</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69731,10 +69173,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D2984" t="s">
         <v>5765</v>
-      </c>
-      <c r="D2984" t="s">
-        <v>5766</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69748,10 +69190,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D2985" t="s">
         <v>5767</v>
-      </c>
-      <c r="D2985" t="s">
-        <v>5768</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69765,10 +69207,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D2986" t="s">
         <v>5769</v>
-      </c>
-      <c r="D2986" t="s">
-        <v>5770</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69782,10 +69224,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D2987" t="s">
         <v>5771</v>
-      </c>
-      <c r="D2987" t="s">
-        <v>5772</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69799,7 +69241,7 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5773</v>
+        <v>5772</v>
       </c>
       <c r="D2988" t="s">
         <v>655</v>
@@ -69816,10 +69258,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
+        <v>5773</v>
+      </c>
+      <c r="D2989" t="s">
         <v>5774</v>
-      </c>
-      <c r="D2989" t="s">
-        <v>5775</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69833,10 +69275,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D2990" t="s">
         <v>5776</v>
-      </c>
-      <c r="D2990" t="s">
-        <v>5777</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69850,10 +69292,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D2991" t="s">
         <v>5778</v>
-      </c>
-      <c r="D2991" t="s">
-        <v>5779</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69867,10 +69309,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D2992" t="s">
         <v>5780</v>
-      </c>
-      <c r="D2992" t="s">
-        <v>5781</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69884,10 +69326,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D2993" t="s">
         <v>5782</v>
-      </c>
-      <c r="D2993" t="s">
-        <v>5783</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69901,10 +69343,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D2994" t="s">
         <v>5784</v>
-      </c>
-      <c r="D2994" t="s">
-        <v>5785</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69918,10 +69360,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D2995" t="s">
         <v>5786</v>
-      </c>
-      <c r="D2995" t="s">
-        <v>5787</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69935,10 +69377,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D2996" t="s">
         <v>5788</v>
-      </c>
-      <c r="D2996" t="s">
-        <v>5789</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69952,10 +69394,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D2997" t="s">
         <v>5790</v>
-      </c>
-      <c r="D2997" t="s">
-        <v>5791</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69969,10 +69411,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D2998" t="s">
         <v>5792</v>
-      </c>
-      <c r="D2998" t="s">
-        <v>5793</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69986,10 +69428,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D2999" t="s">
         <v>5794</v>
-      </c>
-      <c r="D2999" t="s">
-        <v>5795</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -70003,10 +69445,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3000" t="s">
         <v>5796</v>
-      </c>
-      <c r="D3000" t="s">
-        <v>5797</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -70020,10 +69462,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3001" t="s">
         <v>5798</v>
-      </c>
-      <c r="D3001" t="s">
-        <v>5799</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -70037,10 +69479,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D3002" t="s">
         <v>5800</v>
-      </c>
-      <c r="D3002" t="s">
-        <v>5801</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -70054,10 +69496,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D3003" t="s">
         <v>5802</v>
-      </c>
-      <c r="D3003" t="s">
-        <v>5803</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -70071,10 +69513,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3004" t="s">
         <v>5804</v>
-      </c>
-      <c r="D3004" t="s">
-        <v>5805</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -70088,10 +69530,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D3005" t="s">
         <v>5806</v>
-      </c>
-      <c r="D3005" t="s">
-        <v>5807</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -70105,10 +69547,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D3006" t="s">
         <v>5808</v>
-      </c>
-      <c r="D3006" t="s">
-        <v>5809</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -70122,10 +69564,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D3007" t="s">
         <v>5810</v>
-      </c>
-      <c r="D3007" t="s">
-        <v>5811</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -70139,10 +69581,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D3008" t="s">
         <v>5812</v>
-      </c>
-      <c r="D3008" t="s">
-        <v>5813</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -70156,10 +69598,10 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3009" t="s">
         <v>5814</v>
-      </c>
-      <c r="D3009" t="s">
-        <v>5815</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -70173,10 +69615,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3010" t="s">
         <v>5816</v>
-      </c>
-      <c r="D3010" t="s">
-        <v>5817</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70190,10 +69632,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3011" t="s">
         <v>5818</v>
-      </c>
-      <c r="D3011" t="s">
-        <v>5819</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70207,10 +69649,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5820</v>
+        <v>5819</v>
       </c>
       <c r="D3012" t="s">
-        <v>5820</v>
+        <v>5819</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70224,10 +69666,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5821</v>
+        <v>5820</v>
       </c>
       <c r="D3013" t="s">
-        <v>5821</v>
+        <v>5820</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70241,10 +69683,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3014" t="s">
         <v>5822</v>
-      </c>
-      <c r="D3014" t="s">
-        <v>5823</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70258,10 +69700,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3015" t="s">
         <v>5824</v>
-      </c>
-      <c r="D3015" t="s">
-        <v>5825</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70275,10 +69717,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3016" t="s">
         <v>5826</v>
-      </c>
-      <c r="D3016" t="s">
-        <v>5827</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70292,10 +69734,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3017" t="s">
         <v>5828</v>
-      </c>
-      <c r="D3017" t="s">
-        <v>3335</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70601,7 +70043,7 @@
         <v>5862</v>
       </c>
       <c r="D3035" t="s">
-        <v>4938</v>
+        <v>5863</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70615,10 +70057,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5863</v>
+        <v>5864</v>
       </c>
       <c r="D3036" t="s">
-        <v>5864</v>
+        <v>5865</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70632,10 +70074,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5865</v>
+        <v>5866</v>
       </c>
       <c r="D3037" t="s">
-        <v>5866</v>
+        <v>5867</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70649,10 +70091,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5867</v>
+        <v>5868</v>
       </c>
       <c r="D3038" t="s">
-        <v>5868</v>
+        <v>5869</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70666,10 +70108,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5869</v>
+        <v>5870</v>
       </c>
       <c r="D3039" t="s">
-        <v>5870</v>
+        <v>5871</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70683,10 +70125,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5871</v>
+        <v>5872</v>
       </c>
       <c r="D3040" t="s">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70700,10 +70142,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5873</v>
+        <v>5874</v>
       </c>
       <c r="D3041" t="s">
-        <v>5874</v>
+        <v>5875</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70717,10 +70159,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5875</v>
+        <v>5876</v>
       </c>
       <c r="D3042" t="s">
-        <v>5876</v>
+        <v>5877</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70734,10 +70176,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5877</v>
+        <v>5878</v>
       </c>
       <c r="D3043" t="s">
-        <v>5878</v>
+        <v>5879</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70751,10 +70193,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5879</v>
+        <v>5880</v>
       </c>
       <c r="D3044" t="s">
-        <v>5880</v>
+        <v>5881</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70768,10 +70210,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5881</v>
+        <v>5882</v>
       </c>
       <c r="D3045" t="s">
-        <v>5882</v>
+        <v>5883</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70785,10 +70227,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5883</v>
+        <v>5884</v>
       </c>
       <c r="D3046" t="s">
-        <v>5884</v>
+        <v>5885</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70802,10 +70244,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5885</v>
+        <v>5886</v>
       </c>
       <c r="D3047" t="s">
-        <v>5886</v>
+        <v>1977</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70822,7 +70264,7 @@
         <v>5887</v>
       </c>
       <c r="D3048" t="s">
-        <v>3138</v>
+        <v>5888</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70836,10 +70278,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5888</v>
+        <v>5889</v>
       </c>
       <c r="D3049" t="s">
-        <v>3132</v>
+        <v>5890</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70853,10 +70295,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5889</v>
+        <v>5891</v>
       </c>
       <c r="D3050" t="s">
-        <v>1768</v>
+        <v>5892</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70870,10 +70312,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5890</v>
+        <v>5893</v>
       </c>
       <c r="D3051" t="s">
-        <v>5891</v>
+        <v>5894</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70887,10 +70329,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5892</v>
+        <v>5895</v>
       </c>
       <c r="D3052" t="s">
-        <v>5893</v>
+        <v>5896</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70904,10 +70346,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5894</v>
+        <v>5897</v>
       </c>
       <c r="D3053" t="s">
-        <v>5895</v>
+        <v>5898</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70921,10 +70363,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5896</v>
+        <v>5899</v>
       </c>
       <c r="D3054" t="s">
-        <v>5897</v>
+        <v>5900</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70938,10 +70380,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5898</v>
+        <v>5901</v>
       </c>
       <c r="D3055" t="s">
-        <v>5899</v>
+        <v>5902</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70955,10 +70397,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5900</v>
+        <v>5903</v>
       </c>
       <c r="D3056" t="s">
-        <v>5901</v>
+        <v>5904</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70972,10 +70414,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5902</v>
+        <v>5905</v>
       </c>
       <c r="D3057" t="s">
-        <v>5903</v>
+        <v>5906</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70989,10 +70431,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5904</v>
+        <v>5907</v>
       </c>
       <c r="D3058" t="s">
-        <v>5905</v>
+        <v>5908</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -71006,10 +70448,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5906</v>
+        <v>5909</v>
       </c>
       <c r="D3059" t="s">
-        <v>5907</v>
+        <v>5910</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -71023,10 +70465,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5908</v>
+        <v>5911</v>
       </c>
       <c r="D3060" t="s">
-        <v>5909</v>
+        <v>5912</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -71040,10 +70482,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5910</v>
+        <v>5913</v>
       </c>
       <c r="D3061" t="s">
-        <v>5911</v>
+        <v>5914</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -71054,13 +70496,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5912</v>
+        <v>5915</v>
       </c>
       <c r="C3062" t="s">
-        <v>5913</v>
+        <v>5916</v>
       </c>
       <c r="D3062" t="s">
-        <v>5914</v>
+        <v>5917</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -71074,10 +70516,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5915</v>
+        <v>5918</v>
       </c>
       <c r="D3063" t="s">
-        <v>5916</v>
+        <v>5919</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -71091,10 +70533,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5917</v>
+        <v>5920</v>
       </c>
       <c r="D3064" t="s">
-        <v>5918</v>
+        <v>5921</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71108,10 +70550,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5919</v>
+        <v>5922</v>
       </c>
       <c r="D3065" t="s">
-        <v>5920</v>
+        <v>5923</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71125,10 +70567,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5921</v>
+        <v>5924</v>
       </c>
       <c r="D3066" t="s">
-        <v>5922</v>
+        <v>5925</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71142,10 +70584,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5923</v>
+        <v>5926</v>
       </c>
       <c r="D3067" t="s">
-        <v>5924</v>
+        <v>5927</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71159,10 +70601,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5925</v>
+        <v>5928</v>
       </c>
       <c r="D3068" t="s">
-        <v>5926</v>
+        <v>5929</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71176,10 +70618,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5927</v>
+        <v>5930</v>
       </c>
       <c r="D3069" t="s">
-        <v>5928</v>
+        <v>5931</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71193,10 +70635,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5929</v>
+        <v>5932</v>
       </c>
       <c r="D3070" t="s">
-        <v>5930</v>
+        <v>5933</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71210,10 +70652,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5931</v>
+        <v>5934</v>
       </c>
       <c r="D3071" t="s">
-        <v>5932</v>
+        <v>5935</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71227,10 +70669,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5933</v>
+        <v>5936</v>
       </c>
       <c r="D3072" t="s">
-        <v>5934</v>
+        <v>5936</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71244,10 +70686,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5935</v>
+        <v>5937</v>
       </c>
       <c r="D3073" t="s">
-        <v>5936</v>
+        <v>5937</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71261,10 +70703,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5937</v>
+        <v>5938</v>
       </c>
       <c r="D3074" t="s">
-        <v>5938</v>
+        <v>5939</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71278,10 +70720,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5939</v>
+        <v>5940</v>
       </c>
       <c r="D3075" t="s">
-        <v>5940</v>
+        <v>5941</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71295,10 +70737,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5941</v>
+        <v>5942</v>
       </c>
       <c r="D3076" t="s">
-        <v>5942</v>
+        <v>5943</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71312,10 +70754,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5943</v>
+        <v>5944</v>
       </c>
       <c r="D3077" t="s">
-        <v>5944</v>
+        <v>5945</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71329,10 +70771,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5945</v>
+        <v>5946</v>
       </c>
       <c r="D3078" t="s">
-        <v>5946</v>
+        <v>5947</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71346,10 +70788,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5947</v>
+        <v>5948</v>
       </c>
       <c r="D3079" t="s">
-        <v>5948</v>
+        <v>5949</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71363,10 +70805,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5949</v>
+        <v>5950</v>
       </c>
       <c r="D3080" t="s">
-        <v>5950</v>
+        <v>5951</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71380,10 +70822,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5951</v>
+        <v>5952</v>
       </c>
       <c r="D3081" t="s">
-        <v>5952</v>
+        <v>5953</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71397,10 +70839,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5953</v>
+        <v>5954</v>
       </c>
       <c r="D3082" t="s">
-        <v>5954</v>
+        <v>5955</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71414,10 +70856,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5955</v>
+        <v>5956</v>
       </c>
       <c r="D3083" t="s">
-        <v>5956</v>
+        <v>5957</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71431,10 +70873,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5957</v>
+        <v>5958</v>
       </c>
       <c r="D3084" t="s">
-        <v>5958</v>
+        <v>5959</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71448,10 +70890,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5959</v>
+        <v>5960</v>
       </c>
       <c r="D3085" t="s">
-        <v>5960</v>
+        <v>5961</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71465,10 +70907,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5961</v>
+        <v>5962</v>
       </c>
       <c r="D3086" t="s">
-        <v>5962</v>
+        <v>5963</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71482,10 +70924,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5963</v>
+        <v>5964</v>
       </c>
       <c r="D3087" t="s">
-        <v>5964</v>
+        <v>5965</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71499,10 +70941,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5965</v>
+        <v>5966</v>
       </c>
       <c r="D3088" t="s">
-        <v>5966</v>
+        <v>5967</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71516,10 +70958,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5967</v>
+        <v>5968</v>
       </c>
       <c r="D3089" t="s">
-        <v>5968</v>
+        <v>5969</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71533,10 +70975,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5969</v>
+        <v>5970</v>
       </c>
       <c r="D3090" t="s">
-        <v>5970</v>
+        <v>5971</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71550,10 +70992,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5971</v>
+        <v>5972</v>
       </c>
       <c r="D3091" t="s">
-        <v>5972</v>
+        <v>5973</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71567,10 +71009,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5973</v>
+        <v>5974</v>
       </c>
       <c r="D3092" t="s">
-        <v>1925</v>
+        <v>5975</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71584,10 +71026,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5974</v>
+        <v>5976</v>
       </c>
       <c r="D3093" t="s">
-        <v>5975</v>
+        <v>5977</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71601,10 +71043,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5976</v>
+        <v>5978</v>
       </c>
       <c r="D3094" t="s">
-        <v>5977</v>
+        <v>5979</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71618,10 +71060,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5978</v>
+        <v>5980</v>
       </c>
       <c r="D3095" t="s">
-        <v>5979</v>
+        <v>5981</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71635,10 +71077,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5980</v>
+        <v>5982</v>
       </c>
       <c r="D3096" t="s">
-        <v>5981</v>
+        <v>5983</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71652,10 +71094,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5982</v>
+        <v>5984</v>
       </c>
       <c r="D3097" t="s">
-        <v>5983</v>
+        <v>5985</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71669,10 +71111,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5984</v>
+        <v>5986</v>
       </c>
       <c r="D3098" t="s">
-        <v>5985</v>
+        <v>5987</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71686,10 +71128,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5986</v>
+        <v>5988</v>
       </c>
       <c r="D3099" t="s">
-        <v>5987</v>
+        <v>5989</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71703,10 +71145,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5988</v>
+        <v>5990</v>
       </c>
       <c r="D3100" t="s">
-        <v>5989</v>
+        <v>5991</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71720,10 +71162,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5990</v>
+        <v>5992</v>
       </c>
       <c r="D3101" t="s">
-        <v>5991</v>
+        <v>5993</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71737,10 +71179,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5992</v>
+        <v>5994</v>
       </c>
       <c r="D3102" t="s">
-        <v>5993</v>
+        <v>5995</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71754,10 +71196,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5994</v>
+        <v>5996</v>
       </c>
       <c r="D3103" t="s">
-        <v>5995</v>
+        <v>5997</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71771,10 +71213,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5996</v>
+        <v>5998</v>
       </c>
       <c r="D3104" t="s">
-        <v>5997</v>
+        <v>5999</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71788,10 +71230,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5998</v>
+        <v>6000</v>
       </c>
       <c r="D3105" t="s">
-        <v>5999</v>
+        <v>6001</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71805,10 +71247,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>6000</v>
+        <v>6002</v>
       </c>
       <c r="D3106" t="s">
-        <v>6001</v>
+        <v>6003</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71822,10 +71264,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>6002</v>
+        <v>6004</v>
       </c>
       <c r="D3107" t="s">
-        <v>6003</v>
+        <v>6005</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71839,10 +71281,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>6004</v>
+        <v>6006</v>
       </c>
       <c r="D3108" t="s">
-        <v>6005</v>
+        <v>6007</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71855,11 +71297,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>6006</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>6007</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71872,11 +71314,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>6009</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71890,10 +71332,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>6008</v>
+        <v>6010</v>
       </c>
       <c r="D3111" t="s">
-        <v>6009</v>
+        <v>6011</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71907,10 +71349,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>6010</v>
+        <v>6012</v>
       </c>
       <c r="D3112" t="s">
-        <v>6011</v>
+        <v>6013</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71924,10 +71366,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>6012</v>
+        <v>6014</v>
       </c>
       <c r="D3113" t="s">
-        <v>6013</v>
+        <v>6015</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71941,10 +71383,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>6014</v>
+        <v>6016</v>
       </c>
       <c r="D3114" t="s">
-        <v>6015</v>
+        <v>6017</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71958,10 +71400,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>6016</v>
+        <v>6018</v>
       </c>
       <c r="D3115" t="s">
-        <v>6017</v>
+        <v>6019</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71975,10 +71417,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>6018</v>
+        <v>6020</v>
       </c>
       <c r="D3116" t="s">
-        <v>6019</v>
+        <v>6021</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71992,10 +71434,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>6020</v>
+        <v>6022</v>
       </c>
       <c r="D3117" t="s">
-        <v>6021</v>
+        <v>6023</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -72009,10 +71451,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>6022</v>
+        <v>6024</v>
       </c>
       <c r="D3118" t="s">
-        <v>6023</v>
+        <v>6025</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -72026,1678 +71468,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>6024</v>
+        <v>6026</v>
       </c>
       <c r="D3119" t="s">
-        <v>6025</v>
+        <v>6027</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6026</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6027</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6029</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6030</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6031</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6032</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6033</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6034</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6035</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6036</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6037</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6038</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6083</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6084</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6085</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6095</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5912</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6105</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6105</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6116</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6117</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6121</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1638</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6136</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6137</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6139</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6141</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6142</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1824</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6150</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6158</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6159</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6160</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6161</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6162</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6163</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6164</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6168</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6169</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6170</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6171</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6172</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6173</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6174</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6175</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6176</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6177</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6178</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6179</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6180</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6181</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6182</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6183</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6184</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6185</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6186</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6187</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6188</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6189</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6190</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6191</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6192</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6193</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6194</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6195</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6196</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6197</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4175</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6198</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6199</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6200</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6201</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6202</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6203</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6204</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6205</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6206</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6207</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6208</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6209</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6210</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6211</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6212</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6213</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
